--- a/Bulk Loads/3423/_PRELIMINARY UTILITY EXPORT - FS_formatted.xlsx
+++ b/Bulk Loads/3423/_PRELIMINARY UTILITY EXPORT - FS_formatted.xlsx
@@ -507,7 +507,7 @@
     <row r="4" ht="27" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>August 01, 2024</t>
+          <t>August 05, 2024</t>
         </is>
       </c>
     </row>

--- a/Bulk Loads/3423/_PRELIMINARY UTILITY EXPORT - FS_formatted.xlsx
+++ b/Bulk Loads/3423/_PRELIMINARY UTILITY EXPORT - FS_formatted.xlsx
@@ -507,7 +507,7 @@
     <row r="4" ht="27" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>August 05, 2024</t>
+          <t>August 06, 2024</t>
         </is>
       </c>
     </row>
@@ -4630,7 +4630,7 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>120</v>
+        <v>208</v>
       </c>
       <c r="E192" t="n">
         <v>1</v>
@@ -5272,7 +5272,7 @@
         </is>
       </c>
       <c r="D219" t="n">
-        <v>120</v>
+        <v>208</v>
       </c>
       <c r="E219" t="n">
         <v>1</v>

--- a/Bulk Loads/3423/_PRELIMINARY UTILITY EXPORT - FS_formatted.xlsx
+++ b/Bulk Loads/3423/_PRELIMINARY UTILITY EXPORT - FS_formatted.xlsx
@@ -69,12 +69,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -507,7 +513,7 @@
     <row r="4" ht="27" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>August 06, 2024</t>
+          <t>August 29, 2024</t>
         </is>
       </c>
     </row>
@@ -638,10 +644,10 @@
       <c r="S8" s="4" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>1</v>
-      </c>
-      <c r="B9" t="n">
+      <c r="A9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C9" t="inlineStr">
@@ -649,8 +655,8 @@
           <t>EVAPORATOR COIL</t>
         </is>
       </c>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="6" t="n"/>
+      <c r="F9" s="7" t="n"/>
+      <c r="G9" s="8" t="n"/>
       <c r="S9" t="inlineStr">
         <is>
           <t>EXISTING TO REMAIN</t>
@@ -658,10 +664,10 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
+      <c r="A10" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="inlineStr">
@@ -669,8 +675,8 @@
           <t>COOLER STORAGE SHELVING</t>
         </is>
       </c>
-      <c r="F10" s="5" t="n"/>
-      <c r="G10" s="6" t="n"/>
+      <c r="F10" s="7" t="n"/>
+      <c r="G10" s="8" t="n"/>
       <c r="S10" t="inlineStr">
         <is>
           <t>FIXED FOUR TIER EXISTING TO REMAIN</t>
@@ -678,10 +684,10 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
+      <c r="A11" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C11" t="inlineStr">
@@ -689,8 +695,8 @@
           <t>COOLER STORAGE SHELVING</t>
         </is>
       </c>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="6" t="n"/>
+      <c r="F11" s="7" t="n"/>
+      <c r="G11" s="8" t="n"/>
       <c r="S11" t="inlineStr">
         <is>
           <t>FIXED FIVE TIER EXISTING TO REMAIN</t>
@@ -698,10 +704,10 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
+      <c r="A12" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C12" t="inlineStr">
@@ -709,8 +715,8 @@
           <t>COOLER STORAGE SHELVING</t>
         </is>
       </c>
-      <c r="F12" s="5" t="n"/>
-      <c r="G12" s="6" t="n"/>
+      <c r="F12" s="7" t="n"/>
+      <c r="G12" s="8" t="n"/>
       <c r="S12" t="inlineStr">
         <is>
           <t>FIXED FOUR TIER EXISTING TO REMAIN</t>
@@ -718,10 +724,10 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
+      <c r="A13" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -731,14 +737,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F13" s="5" t="n"/>
-      <c r="G13" s="6" t="n"/>
+      <c r="F13" s="7" t="n"/>
+      <c r="G13" s="8" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" t="n">
+      <c r="A14" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" s="6" t="n">
         <v>2</v>
       </c>
       <c r="C14" t="inlineStr">
@@ -746,8 +752,8 @@
           <t>COOLER STORAGE SHELVING</t>
         </is>
       </c>
-      <c r="F14" s="5" t="n"/>
-      <c r="G14" s="6" t="n"/>
+      <c r="F14" s="7" t="n"/>
+      <c r="G14" s="8" t="n"/>
       <c r="S14" t="inlineStr">
         <is>
           <t>MOBILE FIVE TIER</t>
@@ -755,10 +761,10 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
+      <c r="A15" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -768,14 +774,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F15" s="5" t="n"/>
-      <c r="G15" s="6" t="n"/>
+      <c r="F15" s="7" t="n"/>
+      <c r="G15" s="8" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" t="n">
+      <c r="A16" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C16" t="inlineStr">
@@ -783,8 +789,8 @@
           <t>BUSSING UTILITY CART</t>
         </is>
       </c>
-      <c r="F16" s="5" t="n"/>
-      <c r="G16" s="6" t="n"/>
+      <c r="F16" s="7" t="n"/>
+      <c r="G16" s="8" t="n"/>
       <c r="S16" t="inlineStr">
         <is>
           <t>MOBILE EXISTING TO REMAIN</t>
@@ -792,10 +798,10 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
+      <c r="A17" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -805,14 +811,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F17" s="5" t="n"/>
-      <c r="G17" s="6" t="n"/>
+      <c r="F17" s="7" t="n"/>
+      <c r="G17" s="8" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" t="n">
+      <c r="A18" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -822,14 +828,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F18" s="5" t="n"/>
-      <c r="G18" s="6" t="n"/>
+      <c r="F18" s="7" t="n"/>
+      <c r="G18" s="8" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" t="n">
+      <c r="A19" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C19" t="inlineStr">
@@ -837,8 +843,8 @@
           <t>BUSSING UTILITY CART</t>
         </is>
       </c>
-      <c r="F19" s="5" t="n"/>
-      <c r="G19" s="6" t="n"/>
+      <c r="F19" s="7" t="n"/>
+      <c r="G19" s="8" t="n"/>
       <c r="S19" t="inlineStr">
         <is>
           <t>MOBILE EXISTING TO REMAIN</t>
@@ -846,10 +852,10 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
+      <c r="A20" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C20" t="inlineStr">
@@ -857,8 +863,8 @@
           <t>BUSSING UTILITY CART</t>
         </is>
       </c>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="6" t="n"/>
+      <c r="F20" s="7" t="n"/>
+      <c r="G20" s="8" t="n"/>
       <c r="S20" t="inlineStr">
         <is>
           <t>MOBILE EXISTING TO REMAIN</t>
@@ -866,10 +872,10 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
+      <c r="A21" s="5" t="n">
         <v>13</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C21" t="inlineStr">
@@ -877,8 +883,8 @@
           <t>BULK COOLER</t>
         </is>
       </c>
-      <c r="F21" s="5" t="n"/>
-      <c r="G21" s="6" t="n"/>
+      <c r="F21" s="7" t="n"/>
+      <c r="G21" s="8" t="n"/>
       <c r="S21" t="inlineStr">
         <is>
           <t>EXISTING TO REMAIN</t>
@@ -886,10 +892,10 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
+      <c r="A22" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -899,14 +905,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="6" t="n"/>
+      <c r="F22" s="7" t="n"/>
+      <c r="G22" s="8" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" t="n">
+      <c r="A23" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -916,14 +922,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="6" t="n"/>
+      <c r="F23" s="7" t="n"/>
+      <c r="G23" s="8" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" t="n">
+      <c r="A24" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C24" t="inlineStr">
@@ -931,8 +937,8 @@
           <t>HAND SINK</t>
         </is>
       </c>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="6" t="n"/>
+      <c r="F24" s="7" t="n"/>
+      <c r="G24" s="8" t="n"/>
       <c r="S24" t="inlineStr">
         <is>
           <t>WITH SOAP &amp; TOWEL DISPENSER EXISTING TO REMAIN</t>
@@ -940,10 +946,10 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
+      <c r="A25" s="5" t="n">
         <v>17</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C25" t="inlineStr">
@@ -957,10 +963,10 @@
       <c r="E25" t="n">
         <v>1</v>
       </c>
-      <c r="F25" s="5" t="n">
+      <c r="F25" s="7" t="n">
         <v>20</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="8">
         <f>IF(E25&gt;1,(1.732*D25*F25)/1000,(D25*F25)/1000)</f>
         <v/>
       </c>
@@ -989,10 +995,10 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
+      <c r="A26" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C26" t="inlineStr">
@@ -1006,19 +1012,19 @@
       <c r="E26" t="n">
         <v>1</v>
       </c>
-      <c r="F26" s="5" t="n">
+      <c r="F26" s="7" t="n">
         <v>2.9</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="8">
         <f>IF(E26&gt;1,(1.732*D26*F26)/1000,(D26*F26)/1000)</f>
         <v/>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
+      <c r="A27" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C27" t="inlineStr">
@@ -1026,8 +1032,8 @@
           <t>DOUBLE WALL SHELF</t>
         </is>
       </c>
-      <c r="F27" s="5" t="n"/>
-      <c r="G27" s="6" t="n"/>
+      <c r="F27" s="7" t="n"/>
+      <c r="G27" s="8" t="n"/>
       <c r="S27" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -1035,10 +1041,10 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
+      <c r="A28" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C28" t="inlineStr">
@@ -1052,10 +1058,10 @@
       <c r="E28" t="n">
         <v>1</v>
       </c>
-      <c r="F28" s="5" t="n">
+      <c r="F28" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G28" s="8">
         <f>IF(E28&gt;1,(1.732*D28*F28)/1000,(D28*F28)/1000)</f>
         <v/>
       </c>
@@ -1066,10 +1072,10 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
+      <c r="A29" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C29" t="inlineStr">
@@ -1077,8 +1083,8 @@
           <t>MARBLE TOP</t>
         </is>
       </c>
-      <c r="F29" s="5" t="n"/>
-      <c r="G29" s="6" t="n"/>
+      <c r="F29" s="7" t="n"/>
+      <c r="G29" s="8" t="n"/>
       <c r="S29" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #17</t>
@@ -1086,10 +1092,10 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
+      <c r="A30" s="5" t="n">
         <v>22</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C30" t="inlineStr">
@@ -1103,10 +1109,10 @@
       <c r="E30" t="n">
         <v>1</v>
       </c>
-      <c r="F30" s="5" t="n">
+      <c r="F30" s="7" t="n">
         <v>2.5</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G30" s="8">
         <f>IF(E30&gt;1,(1.732*D30*F30)/1000,(D30*F30)/1000)</f>
         <v/>
       </c>
@@ -1117,10 +1123,10 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
+      <c r="A31" s="5" t="n">
         <v>23</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C31" t="inlineStr">
@@ -1128,8 +1134,8 @@
           <t>UNDERCOUNTER REFRIGERATOR</t>
         </is>
       </c>
-      <c r="F31" s="5" t="n"/>
-      <c r="G31" s="6" t="n"/>
+      <c r="F31" s="7" t="n"/>
+      <c r="G31" s="8" t="n"/>
       <c r="S31" t="inlineStr">
         <is>
           <t>MOBILE EXISTING TO REMAIN</t>
@@ -1137,10 +1143,10 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
+      <c r="A32" s="5" t="n">
         <v>24</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C32" t="inlineStr">
@@ -1154,10 +1160,10 @@
       <c r="E32" t="n">
         <v>1</v>
       </c>
-      <c r="F32" s="5" t="n">
+      <c r="F32" s="7" t="n">
         <v>14</v>
       </c>
-      <c r="G32" s="6">
+      <c r="G32" s="8">
         <f>IF(E32&gt;1,(1.732*D32*F32)/1000,(D32*F32)/1000)</f>
         <v/>
       </c>
@@ -1168,10 +1174,10 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
+      <c r="A33" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1181,14 +1187,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F33" s="5" t="n"/>
-      <c r="G33" s="6" t="n"/>
+      <c r="F33" s="7" t="n"/>
+      <c r="G33" s="8" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" t="n">
+      <c r="A34" s="5" t="n">
         <v>26</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C34" t="inlineStr">
@@ -1202,10 +1208,10 @@
       <c r="E34" t="n">
         <v>1</v>
       </c>
-      <c r="F34" s="5" t="n">
+      <c r="F34" s="7" t="n">
         <v>22</v>
       </c>
-      <c r="G34" s="6">
+      <c r="G34" s="8">
         <f>IF(E34&gt;1,(1.732*D34*F34)/1000,(D34*F34)/1000)</f>
         <v/>
       </c>
@@ -1216,10 +1222,10 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n">
+      <c r="A35" s="5" t="n">
         <v>27</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C35" t="inlineStr">
@@ -1233,10 +1239,10 @@
       <c r="E35" t="n">
         <v>3</v>
       </c>
-      <c r="F35" s="5" t="n">
+      <c r="F35" s="7" t="n">
         <v>15.8</v>
       </c>
-      <c r="G35" s="6">
+      <c r="G35" s="8">
         <f>IF(E35&gt;1,(1.732*D35*F35)/1000,(D35*F35)/1000)</f>
         <v/>
       </c>
@@ -1260,10 +1266,10 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
+      <c r="A36" s="5" t="n">
         <v>28</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C36" t="inlineStr">
@@ -1277,10 +1283,10 @@
       <c r="E36" t="n">
         <v>3</v>
       </c>
-      <c r="F36" s="5" t="n">
+      <c r="F36" s="7" t="n">
         <v>28</v>
       </c>
-      <c r="G36" s="6">
+      <c r="G36" s="8">
         <f>IF(E36&gt;1,(1.732*D36*F36)/1000,(D36*F36)/1000)</f>
         <v/>
       </c>
@@ -1301,10 +1307,10 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
+      <c r="A37" s="5" t="n">
         <v>29</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C37" t="inlineStr">
@@ -1312,8 +1318,8 @@
           <t>WATER FILTRATION SYSTEM</t>
         </is>
       </c>
-      <c r="F37" s="5" t="n"/>
-      <c r="G37" s="6" t="n"/>
+      <c r="F37" s="7" t="n"/>
+      <c r="G37" s="8" t="n"/>
       <c r="H37" t="inlineStr">
         <is>
           <t>3/4"</t>
@@ -1326,10 +1332,10 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
+      <c r="A38" s="5" t="n">
         <v>30</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1339,14 +1345,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F38" s="5" t="n"/>
-      <c r="G38" s="6" t="n"/>
+      <c r="F38" s="7" t="n"/>
+      <c r="G38" s="8" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" t="n">
+      <c r="A39" s="5" t="n">
         <v>31</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C39" t="inlineStr">
@@ -1354,8 +1360,8 @@
           <t>REACH IN REFRIGERATOR</t>
         </is>
       </c>
-      <c r="F39" s="5" t="n"/>
-      <c r="G39" s="6" t="n"/>
+      <c r="F39" s="7" t="n"/>
+      <c r="G39" s="8" t="n"/>
       <c r="S39" t="inlineStr">
         <is>
           <t>MOBILE EXISTING TO REMAIN</t>
@@ -1363,10 +1369,10 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
+      <c r="A40" s="5" t="n">
         <v>32</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C40" t="inlineStr">
@@ -1374,8 +1380,8 @@
           <t>REACH IN FREEZER</t>
         </is>
       </c>
-      <c r="F40" s="5" t="n"/>
-      <c r="G40" s="6" t="n"/>
+      <c r="F40" s="7" t="n"/>
+      <c r="G40" s="8" t="n"/>
       <c r="S40" t="inlineStr">
         <is>
           <t>MOBILE EXISTING TO REMAIN</t>
@@ -1383,10 +1389,10 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n">
+      <c r="A41" s="5" t="n">
         <v>33</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C41" t="inlineStr">
@@ -1394,8 +1400,8 @@
           <t>CHEF'S COUNTER</t>
         </is>
       </c>
-      <c r="F41" s="5" t="n"/>
-      <c r="G41" s="6" t="n"/>
+      <c r="F41" s="7" t="n"/>
+      <c r="G41" s="8" t="n"/>
       <c r="S41" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION EXISTING TO REMAIN</t>
@@ -1403,10 +1409,10 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n">
+      <c r="A42" s="5" t="n">
         <v>34</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C42" t="inlineStr">
@@ -1414,8 +1420,8 @@
           <t>UTILITY CHASE</t>
         </is>
       </c>
-      <c r="F42" s="5" t="n"/>
-      <c r="G42" s="6" t="n"/>
+      <c r="F42" s="7" t="n"/>
+      <c r="G42" s="8" t="n"/>
       <c r="S42" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #37 EXISTING TO REMAIN</t>
@@ -1423,10 +1429,10 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
+      <c r="A43" s="5" t="n">
         <v>35</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1436,14 +1442,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F43" s="5" t="n"/>
-      <c r="G43" s="6" t="n"/>
+      <c r="F43" s="7" t="n"/>
+      <c r="G43" s="8" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" t="n">
+      <c r="A44" s="5" t="n">
         <v>36</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C44" t="inlineStr">
@@ -1451,8 +1457,8 @@
           <t>LOAD CENTER</t>
         </is>
       </c>
-      <c r="F44" s="5" t="n"/>
-      <c r="G44" s="6" t="n"/>
+      <c r="F44" s="7" t="n"/>
+      <c r="G44" s="8" t="n"/>
       <c r="S44" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION EXISTING TO REMAIN</t>
@@ -1460,10 +1466,10 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n">
+      <c r="A45" s="5" t="n">
         <v>37</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C45" t="inlineStr">
@@ -1471,8 +1477,8 @@
           <t>DOUBLE OVERSHELF</t>
         </is>
       </c>
-      <c r="F45" s="5" t="n"/>
-      <c r="G45" s="6" t="n"/>
+      <c r="F45" s="7" t="n"/>
+      <c r="G45" s="8" t="n"/>
       <c r="S45" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATIONPART OF ITEM #33 EXISTING TO REMAIN</t>
@@ -1480,10 +1486,10 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
+      <c r="A46" s="5" t="n">
         <v>38</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C46" t="inlineStr">
@@ -1491,8 +1497,8 @@
           <t>TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="F46" s="5" t="n"/>
-      <c r="G46" s="6" t="n"/>
+      <c r="F46" s="7" t="n"/>
+      <c r="G46" s="8" t="n"/>
       <c r="S46" t="inlineStr">
         <is>
           <t>SLIM JIM EXISTING TO REMAIN</t>
@@ -1500,10 +1506,10 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="n">
+      <c r="A47" s="5" t="n">
         <v>39</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1513,14 +1519,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F47" s="5" t="n"/>
-      <c r="G47" s="6" t="n"/>
+      <c r="F47" s="7" t="n"/>
+      <c r="G47" s="8" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" t="n">
+      <c r="A48" s="5" t="n">
         <v>40</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1530,14 +1536,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F48" s="5" t="n"/>
-      <c r="G48" s="6" t="n"/>
+      <c r="F48" s="7" t="n"/>
+      <c r="G48" s="8" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" t="n">
+      <c r="A49" s="5" t="n">
         <v>41</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C49" t="inlineStr">
@@ -1545,8 +1551,8 @@
           <t>BLENDER</t>
         </is>
       </c>
-      <c r="F49" s="5" t="n"/>
-      <c r="G49" s="6" t="n"/>
+      <c r="F49" s="7" t="n"/>
+      <c r="G49" s="8" t="n"/>
       <c r="S49" t="inlineStr">
         <is>
           <t>EXISTING TO REMAIN</t>
@@ -1554,10 +1560,10 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n">
+      <c r="A50" s="5" t="n">
         <v>42</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C50" t="inlineStr">
@@ -1565,8 +1571,8 @@
           <t>PATTY PRESS</t>
         </is>
       </c>
-      <c r="F50" s="5" t="n"/>
-      <c r="G50" s="6" t="n"/>
+      <c r="F50" s="7" t="n"/>
+      <c r="G50" s="8" t="n"/>
       <c r="S50" t="inlineStr">
         <is>
           <t>EXISTING TO REMAIN</t>
@@ -1574,10 +1580,10 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="n">
+      <c r="A51" s="5" t="n">
         <v>43</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C51" t="inlineStr">
@@ -1585,8 +1591,8 @@
           <t>REFRIGERATED PREP TABLE</t>
         </is>
       </c>
-      <c r="F51" s="5" t="n"/>
-      <c r="G51" s="6" t="n"/>
+      <c r="F51" s="7" t="n"/>
+      <c r="G51" s="8" t="n"/>
       <c r="S51" t="inlineStr">
         <is>
           <t>MOBILE EXISTING TO REMAIN</t>
@@ -1594,10 +1600,10 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="n">
+      <c r="A52" s="5" t="n">
         <v>44</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C52" t="inlineStr">
@@ -1605,8 +1611,8 @@
           <t>REACH IN REFRIGERATOR</t>
         </is>
       </c>
-      <c r="F52" s="5" t="n"/>
-      <c r="G52" s="6" t="n"/>
+      <c r="F52" s="7" t="n"/>
+      <c r="G52" s="8" t="n"/>
       <c r="S52" t="inlineStr">
         <is>
           <t>MOBILE EXISTING TO REMAIN</t>
@@ -1614,10 +1620,10 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="n">
+      <c r="A53" s="5" t="n">
         <v>45</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1627,14 +1633,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F53" s="5" t="n"/>
-      <c r="G53" s="6" t="n"/>
+      <c r="F53" s="7" t="n"/>
+      <c r="G53" s="8" t="n"/>
     </row>
     <row r="54">
-      <c r="A54" t="n">
+      <c r="A54" s="5" t="n">
         <v>46</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C54" t="inlineStr">
@@ -1642,8 +1648,8 @@
           <t>REFRIGERATED PREP TABLE</t>
         </is>
       </c>
-      <c r="F54" s="5" t="n"/>
-      <c r="G54" s="6" t="n"/>
+      <c r="F54" s="7" t="n"/>
+      <c r="G54" s="8" t="n"/>
       <c r="S54" t="inlineStr">
         <is>
           <t>MOBILE EXISTING TO REMAIN</t>
@@ -1651,10 +1657,10 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="n">
+      <c r="A55" s="5" t="n">
         <v>47</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C55" t="inlineStr">
@@ -1662,8 +1668,8 @@
           <t>REFRIGERATED PREP TABLE</t>
         </is>
       </c>
-      <c r="F55" s="5" t="n"/>
-      <c r="G55" s="6" t="n"/>
+      <c r="F55" s="7" t="n"/>
+      <c r="G55" s="8" t="n"/>
       <c r="S55" t="inlineStr">
         <is>
           <t>MOBILE EXISTING TO REMAIN</t>
@@ -1671,10 +1677,10 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="n">
+      <c r="A56" s="5" t="n">
         <v>48</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C56" t="inlineStr">
@@ -1682,8 +1688,8 @@
           <t>FOOD WARMER</t>
         </is>
       </c>
-      <c r="F56" s="5" t="n"/>
-      <c r="G56" s="6" t="n"/>
+      <c r="F56" s="7" t="n"/>
+      <c r="G56" s="8" t="n"/>
       <c r="S56" t="inlineStr">
         <is>
           <t>EXISTING TO REMAIN</t>
@@ -1691,10 +1697,10 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="n">
+      <c r="A57" s="5" t="n">
         <v>49</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1704,14 +1710,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F57" s="5" t="n"/>
-      <c r="G57" s="6" t="n"/>
+      <c r="F57" s="7" t="n"/>
+      <c r="G57" s="8" t="n"/>
     </row>
     <row r="58">
-      <c r="A58" t="n">
+      <c r="A58" s="5" t="n">
         <v>50</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1721,14 +1727,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F58" s="5" t="n"/>
-      <c r="G58" s="6" t="n"/>
+      <c r="F58" s="7" t="n"/>
+      <c r="G58" s="8" t="n"/>
     </row>
     <row r="59">
-      <c r="A59" t="n">
+      <c r="A59" s="5" t="n">
         <v>51</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C59" t="inlineStr">
@@ -1736,8 +1742,8 @@
           <t>FOOD WARMER</t>
         </is>
       </c>
-      <c r="F59" s="5" t="n"/>
-      <c r="G59" s="6" t="n"/>
+      <c r="F59" s="7" t="n"/>
+      <c r="G59" s="8" t="n"/>
       <c r="S59" t="inlineStr">
         <is>
           <t>EXISTING TO REMAIN</t>
@@ -1745,10 +1751,10 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="n">
+      <c r="A60" s="5" t="n">
         <v>52</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C60" t="inlineStr">
@@ -1756,8 +1762,8 @@
           <t>UTENSIL HOOKS</t>
         </is>
       </c>
-      <c r="F60" s="5" t="n"/>
-      <c r="G60" s="6" t="n"/>
+      <c r="F60" s="7" t="n"/>
+      <c r="G60" s="8" t="n"/>
       <c r="S60" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #37 EXISTING TO REMAIN</t>
@@ -1765,10 +1771,10 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="n">
+      <c r="A61" s="5" t="n">
         <v>53</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C61" t="inlineStr">
@@ -1776,8 +1782,8 @@
           <t>TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="F61" s="5" t="n"/>
-      <c r="G61" s="6" t="n"/>
+      <c r="F61" s="7" t="n"/>
+      <c r="G61" s="8" t="n"/>
       <c r="S61" t="inlineStr">
         <is>
           <t>SLIM JIM EXISTING TO REMAIN</t>
@@ -1785,10 +1791,10 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="n">
+      <c r="A62" s="5" t="n">
         <v>54</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C62" t="inlineStr">
@@ -1796,8 +1802,8 @@
           <t>POS PRINTER</t>
         </is>
       </c>
-      <c r="F62" s="5" t="n"/>
-      <c r="G62" s="6" t="n"/>
+      <c r="F62" s="7" t="n"/>
+      <c r="G62" s="8" t="n"/>
       <c r="S62" t="inlineStr">
         <is>
           <t>EXISTING TO REMAIN</t>
@@ -1805,10 +1811,10 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="n">
+      <c r="A63" s="5" t="n">
         <v>55</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1818,14 +1824,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F63" s="5" t="n"/>
-      <c r="G63" s="6" t="n"/>
+      <c r="F63" s="7" t="n"/>
+      <c r="G63" s="8" t="n"/>
     </row>
     <row r="64">
-      <c r="A64" t="n">
+      <c r="A64" s="5" t="n">
         <v>56</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C64" t="inlineStr">
@@ -1833,8 +1839,8 @@
           <t>REFRIGERATED PREP TABLE</t>
         </is>
       </c>
-      <c r="F64" s="5" t="n"/>
-      <c r="G64" s="6" t="n"/>
+      <c r="F64" s="7" t="n"/>
+      <c r="G64" s="8" t="n"/>
       <c r="S64" t="inlineStr">
         <is>
           <t>MOBILE EXISTING TO REMAIN</t>
@@ -1842,10 +1848,10 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="n">
+      <c r="A65" s="5" t="n">
         <v>57</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C65" t="inlineStr">
@@ -1853,8 +1859,8 @@
           <t>POS PRINTER</t>
         </is>
       </c>
-      <c r="F65" s="5" t="n"/>
-      <c r="G65" s="6" t="n"/>
+      <c r="F65" s="7" t="n"/>
+      <c r="G65" s="8" t="n"/>
       <c r="S65" t="inlineStr">
         <is>
           <t>EXISTING TO REMAIN</t>
@@ -1862,10 +1868,10 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="n">
+      <c r="A66" s="5" t="n">
         <v>58</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C66" t="inlineStr">
@@ -1873,8 +1879,8 @@
           <t>UTILITY CHASE</t>
         </is>
       </c>
-      <c r="F66" s="5" t="n"/>
-      <c r="G66" s="6" t="n"/>
+      <c r="F66" s="7" t="n"/>
+      <c r="G66" s="8" t="n"/>
       <c r="S66" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #37 EXISTING TO REMAIN</t>
@@ -1882,10 +1888,10 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="n">
+      <c r="A67" s="5" t="n">
         <v>59</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1895,14 +1901,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F67" s="5" t="n"/>
-      <c r="G67" s="6" t="n"/>
+      <c r="F67" s="7" t="n"/>
+      <c r="G67" s="8" t="n"/>
     </row>
     <row r="68">
-      <c r="A68" t="n">
+      <c r="A68" s="5" t="n">
         <v>60</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1912,14 +1918,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F68" s="5" t="n"/>
-      <c r="G68" s="6" t="n"/>
+      <c r="F68" s="7" t="n"/>
+      <c r="G68" s="8" t="n"/>
     </row>
     <row r="69">
-      <c r="A69" t="n">
+      <c r="A69" s="5" t="n">
         <v>61</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C69" t="inlineStr">
@@ -1927,8 +1933,8 @@
           <t>REACH IN REFRIGERATOR</t>
         </is>
       </c>
-      <c r="F69" s="5" t="n"/>
-      <c r="G69" s="6" t="n"/>
+      <c r="F69" s="7" t="n"/>
+      <c r="G69" s="8" t="n"/>
       <c r="S69" t="inlineStr">
         <is>
           <t>MOBILE EXISTING TO REMAIN</t>
@@ -1936,10 +1942,10 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="n">
+      <c r="A70" s="5" t="n">
         <v>62</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C70" t="inlineStr">
@@ -1947,8 +1953,8 @@
           <t>EXHAUST HOOD</t>
         </is>
       </c>
-      <c r="F70" s="5" t="n"/>
-      <c r="G70" s="6" t="n"/>
+      <c r="F70" s="7" t="n"/>
+      <c r="G70" s="8" t="n"/>
       <c r="S70" t="inlineStr">
         <is>
           <t>WITH MAKE-UP AIR EXISTING TO REMAIN</t>
@@ -1956,10 +1962,10 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="n">
+      <c r="A71" s="5" t="n">
         <v>63</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C71" t="inlineStr">
@@ -1967,14 +1973,14 @@
           <t>SPREADER CABINET</t>
         </is>
       </c>
-      <c r="F71" s="5" t="n"/>
-      <c r="G71" s="6" t="n"/>
+      <c r="F71" s="7" t="n"/>
+      <c r="G71" s="8" t="n"/>
     </row>
     <row r="72">
-      <c r="A72" t="n">
+      <c r="A72" s="5" t="n">
         <v>64</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1984,14 +1990,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F72" s="5" t="n"/>
-      <c r="G72" s="6" t="n"/>
+      <c r="F72" s="7" t="n"/>
+      <c r="G72" s="8" t="n"/>
     </row>
     <row r="73">
-      <c r="A73" t="n">
+      <c r="A73" s="5" t="n">
         <v>65</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2001,14 +2007,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F73" s="5" t="n"/>
-      <c r="G73" s="6" t="n"/>
+      <c r="F73" s="7" t="n"/>
+      <c r="G73" s="8" t="n"/>
     </row>
     <row r="74">
-      <c r="A74" t="n">
+      <c r="A74" s="5" t="n">
         <v>66</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2018,14 +2024,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F74" s="5" t="n"/>
-      <c r="G74" s="6" t="n"/>
+      <c r="F74" s="7" t="n"/>
+      <c r="G74" s="8" t="n"/>
     </row>
     <row r="75">
-      <c r="A75" t="n">
+      <c r="A75" s="5" t="n">
         <v>67</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2035,14 +2041,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F75" s="5" t="n"/>
-      <c r="G75" s="6" t="n"/>
+      <c r="F75" s="7" t="n"/>
+      <c r="G75" s="8" t="n"/>
     </row>
     <row r="76">
-      <c r="A76" t="n">
+      <c r="A76" s="5" t="n">
         <v>68</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C76" t="inlineStr">
@@ -2056,10 +2062,10 @@
       <c r="E76" t="n">
         <v>1</v>
       </c>
-      <c r="F76" s="5" t="n">
+      <c r="F76" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="G76" s="6">
+      <c r="G76" s="8">
         <f>IF(E76&gt;1,(1.732*D76*F76)/1000,(D76*F76)/1000)</f>
         <v/>
       </c>
@@ -2073,10 +2079,10 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="n">
+      <c r="A77" s="5" t="n">
         <v>69</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2086,14 +2092,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F77" s="5" t="n"/>
-      <c r="G77" s="6" t="n"/>
+      <c r="F77" s="7" t="n"/>
+      <c r="G77" s="8" t="n"/>
     </row>
     <row r="78">
-      <c r="A78" t="n">
+      <c r="A78" s="5" t="n">
         <v>70</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B78" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C78" t="inlineStr">
@@ -2101,14 +2107,14 @@
           <t>SPREADER CABINET</t>
         </is>
       </c>
-      <c r="F78" s="5" t="n"/>
-      <c r="G78" s="6" t="n"/>
+      <c r="F78" s="7" t="n"/>
+      <c r="G78" s="8" t="n"/>
     </row>
     <row r="79">
-      <c r="A79" t="n">
+      <c r="A79" s="5" t="n">
         <v>71</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B79" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C79" t="inlineStr">
@@ -2116,8 +2122,8 @@
           <t>MODULAR CHARBROILER</t>
         </is>
       </c>
-      <c r="F79" s="5" t="n"/>
-      <c r="G79" s="6" t="n"/>
+      <c r="F79" s="7" t="n"/>
+      <c r="G79" s="8" t="n"/>
       <c r="M79" t="n">
         <v>90000</v>
       </c>
@@ -2128,10 +2134,10 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="n">
+      <c r="A80" s="5" t="n">
         <v>72</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B80" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C80" t="inlineStr">
@@ -2145,10 +2151,10 @@
       <c r="E80" t="n">
         <v>1</v>
       </c>
-      <c r="F80" s="5" t="n">
+      <c r="F80" s="7" t="n">
         <v>12.6</v>
       </c>
-      <c r="G80" s="6">
+      <c r="G80" s="8">
         <f>IF(E80&gt;1,(1.732*D80*F80)/1000,(D80*F80)/1000)</f>
         <v/>
       </c>
@@ -2159,10 +2165,10 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="n">
+      <c r="A81" s="5" t="n">
         <v>73</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C81" t="inlineStr">
@@ -2176,10 +2182,10 @@
       <c r="E81" t="n">
         <v>1</v>
       </c>
-      <c r="F81" s="5" t="n">
+      <c r="F81" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="G81" s="6">
+      <c r="G81" s="8">
         <f>IF(E81&gt;1,(1.732*D81*F81)/1000,(D81*F81)/1000)</f>
         <v/>
       </c>
@@ -2193,10 +2199,10 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="n">
+      <c r="A82" s="5" t="n">
         <v>74</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C82" t="inlineStr">
@@ -2204,8 +2210,8 @@
           <t>SALAMANDER</t>
         </is>
       </c>
-      <c r="F82" s="5" t="n"/>
-      <c r="G82" s="6" t="n"/>
+      <c r="F82" s="7" t="n"/>
+      <c r="G82" s="8" t="n"/>
       <c r="M82" t="n">
         <v>35000</v>
       </c>
@@ -2216,10 +2222,10 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="n">
+      <c r="A83" s="5" t="n">
         <v>75</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2229,14 +2235,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F83" s="5" t="n"/>
-      <c r="G83" s="6" t="n"/>
+      <c r="F83" s="7" t="n"/>
+      <c r="G83" s="8" t="n"/>
     </row>
     <row r="84">
-      <c r="A84" t="n">
+      <c r="A84" s="5" t="n">
         <v>76</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C84" t="inlineStr">
@@ -2250,10 +2256,10 @@
       <c r="E84" t="n">
         <v>1</v>
       </c>
-      <c r="F84" s="5" t="n">
+      <c r="F84" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="G84" s="6">
+      <c r="G84" s="8">
         <f>IF(E84&gt;1,(1.732*D84*F84)/1000,(D84*F84)/1000)</f>
         <v/>
       </c>
@@ -2267,10 +2273,10 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="n">
+      <c r="A85" s="5" t="n">
         <v>77</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C85" t="inlineStr">
@@ -2278,8 +2284,8 @@
           <t>SALAMANDER</t>
         </is>
       </c>
-      <c r="F85" s="5" t="n"/>
-      <c r="G85" s="6" t="n"/>
+      <c r="F85" s="7" t="n"/>
+      <c r="G85" s="8" t="n"/>
       <c r="M85" t="n">
         <v>35000</v>
       </c>
@@ -2290,10 +2296,10 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="n">
+      <c r="A86" s="5" t="n">
         <v>78</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B86" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C86" t="inlineStr">
@@ -2301,8 +2307,8 @@
           <t>PASTA COOKER</t>
         </is>
       </c>
-      <c r="F86" s="5" t="n"/>
-      <c r="G86" s="6" t="n"/>
+      <c r="F86" s="7" t="n"/>
+      <c r="G86" s="8" t="n"/>
       <c r="H86" t="inlineStr">
         <is>
           <t>1/2"</t>
@@ -2323,10 +2329,10 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="n">
+      <c r="A87" s="5" t="n">
         <v>79</v>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B87" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2336,14 +2342,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F87" s="5" t="n"/>
-      <c r="G87" s="6" t="n"/>
+      <c r="F87" s="7" t="n"/>
+      <c r="G87" s="8" t="n"/>
     </row>
     <row r="88">
-      <c r="A88" t="n">
+      <c r="A88" s="5" t="n">
         <v>80</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2353,14 +2359,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F88" s="5" t="n"/>
-      <c r="G88" s="6" t="n"/>
+      <c r="F88" s="7" t="n"/>
+      <c r="G88" s="8" t="n"/>
     </row>
     <row r="89">
-      <c r="A89" t="n">
+      <c r="A89" s="5" t="n">
         <v>81</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C89" t="inlineStr">
@@ -2374,10 +2380,10 @@
       <c r="E89" t="n">
         <v>1</v>
       </c>
-      <c r="F89" s="5" t="n">
+      <c r="F89" s="7" t="n">
         <v>12.6</v>
       </c>
-      <c r="G89" s="6">
+      <c r="G89" s="8">
         <f>IF(E89&gt;1,(1.732*D89*F89)/1000,(D89*F89)/1000)</f>
         <v/>
       </c>
@@ -2388,10 +2394,10 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="n">
+      <c r="A90" s="5" t="n">
         <v>82</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B90" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C90" t="inlineStr">
@@ -2399,17 +2405,17 @@
           <t>MODULAR GRIDDLE</t>
         </is>
       </c>
-      <c r="F90" s="5" t="n"/>
-      <c r="G90" s="6" t="n"/>
+      <c r="F90" s="7" t="n"/>
+      <c r="G90" s="8" t="n"/>
       <c r="M90" t="n">
         <v>105000</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="n">
+      <c r="A91" s="5" t="n">
         <v>83</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B91" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C91" t="inlineStr">
@@ -2423,10 +2429,10 @@
       <c r="E91" t="n">
         <v>3</v>
       </c>
-      <c r="F91" s="5" t="n">
+      <c r="F91" s="7" t="n">
         <v>103.8</v>
       </c>
-      <c r="G91" s="6">
+      <c r="G91" s="8">
         <f>IF(E91&gt;1,(1.732*D91*F91)/1000,(D91*F91)/1000)</f>
         <v/>
       </c>
@@ -2453,10 +2459,10 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="n">
+      <c r="A92" s="5" t="n">
         <v>84</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B92" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C92" t="inlineStr">
@@ -2464,8 +2470,8 @@
           <t>WATER FILTRATION SYSTEM</t>
         </is>
       </c>
-      <c r="F92" s="5" t="n"/>
-      <c r="G92" s="6" t="n"/>
+      <c r="F92" s="7" t="n"/>
+      <c r="G92" s="8" t="n"/>
       <c r="H92" t="inlineStr">
         <is>
           <t>3/4"</t>
@@ -2478,10 +2484,10 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="n">
+      <c r="A93" s="5" t="n">
         <v>85</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B93" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C93" t="inlineStr">
@@ -2489,8 +2495,8 @@
           <t>POT SINK</t>
         </is>
       </c>
-      <c r="F93" s="5" t="n"/>
-      <c r="G93" s="6" t="n"/>
+      <c r="F93" s="7" t="n"/>
+      <c r="G93" s="8" t="n"/>
       <c r="H93" t="inlineStr">
         <is>
           <t>3/4"</t>
@@ -2516,10 +2522,10 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="n">
+      <c r="A94" s="5" t="n">
         <v>86</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C94" t="inlineStr">
@@ -2527,8 +2533,8 @@
           <t>FIRE SUPPRESSION SYSTEM</t>
         </is>
       </c>
-      <c r="F94" s="5" t="n"/>
-      <c r="G94" s="6" t="n"/>
+      <c r="F94" s="7" t="n"/>
+      <c r="G94" s="8" t="n"/>
       <c r="S94" t="inlineStr">
         <is>
           <t>FOR ITEM #62 EXISTING TO REMAIN</t>
@@ -2536,10 +2542,10 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="n">
+      <c r="A95" s="5" t="n">
         <v>87</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C95" t="inlineStr">
@@ -2547,8 +2553,8 @@
           <t>PRE-RINSE UNIT</t>
         </is>
       </c>
-      <c r="F95" s="5" t="n"/>
-      <c r="G95" s="6" t="n"/>
+      <c r="F95" s="7" t="n"/>
+      <c r="G95" s="8" t="n"/>
       <c r="H95" t="inlineStr">
         <is>
           <t>1/2"</t>
@@ -2569,10 +2575,10 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="n">
+      <c r="A96" s="5" t="n">
         <v>88</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B96" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C96" t="inlineStr">
@@ -2580,8 +2586,8 @@
           <t>TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="F96" s="5" t="n"/>
-      <c r="G96" s="6" t="n"/>
+      <c r="F96" s="7" t="n"/>
+      <c r="G96" s="8" t="n"/>
       <c r="S96" t="inlineStr">
         <is>
           <t>EXISTING TO BE RELOCATED</t>
@@ -2589,10 +2595,10 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="n">
+      <c r="A97" s="5" t="n">
         <v>89</v>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B97" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2602,14 +2608,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F97" s="5" t="n"/>
-      <c r="G97" s="6" t="n"/>
+      <c r="F97" s="7" t="n"/>
+      <c r="G97" s="8" t="n"/>
     </row>
     <row r="98">
-      <c r="A98" t="n">
+      <c r="A98" s="5" t="n">
         <v>90</v>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B98" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2619,14 +2625,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F98" s="5" t="n"/>
-      <c r="G98" s="6" t="n"/>
+      <c r="F98" s="7" t="n"/>
+      <c r="G98" s="8" t="n"/>
     </row>
     <row r="99">
-      <c r="A99" t="n">
+      <c r="A99" s="5" t="n">
         <v>91</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B99" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C99" t="inlineStr">
@@ -2634,8 +2640,8 @@
           <t>POT SHELF</t>
         </is>
       </c>
-      <c r="F99" s="5" t="n"/>
-      <c r="G99" s="6" t="n"/>
+      <c r="F99" s="7" t="n"/>
+      <c r="G99" s="8" t="n"/>
       <c r="S99" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -2643,10 +2649,10 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="n">
+      <c r="A100" s="5" t="n">
         <v>92</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B100" s="6" t="n">
         <v>2</v>
       </c>
       <c r="C100" t="inlineStr">
@@ -2654,8 +2660,8 @@
           <t>CLEAN PAN STORAGE SHELVING</t>
         </is>
       </c>
-      <c r="F100" s="5" t="n"/>
-      <c r="G100" s="6" t="n"/>
+      <c r="F100" s="7" t="n"/>
+      <c r="G100" s="8" t="n"/>
       <c r="S100" t="inlineStr">
         <is>
           <t>FIXED FIVE TIER EXISTING TO BE RELOCATED</t>
@@ -2663,10 +2669,10 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="n">
+      <c r="A101" s="5" t="n">
         <v>93</v>
       </c>
-      <c r="B101" t="n">
+      <c r="B101" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C101" t="inlineStr">
@@ -2674,8 +2680,8 @@
           <t>CUTTING BOARD</t>
         </is>
       </c>
-      <c r="F101" s="5" t="n"/>
-      <c r="G101" s="6" t="n"/>
+      <c r="F101" s="7" t="n"/>
+      <c r="G101" s="8" t="n"/>
       <c r="S101" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -2683,10 +2689,10 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="n">
+      <c r="A102" s="5" t="n">
         <v>94</v>
       </c>
-      <c r="B102" t="n">
+      <c r="B102" s="6" t="n">
         <v>2</v>
       </c>
       <c r="C102" t="inlineStr">
@@ -2694,8 +2700,8 @@
           <t>RICE WARMER STAND</t>
         </is>
       </c>
-      <c r="F102" s="5" t="n"/>
-      <c r="G102" s="6" t="n"/>
+      <c r="F102" s="7" t="n"/>
+      <c r="G102" s="8" t="n"/>
       <c r="S102" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION MOBILE</t>
@@ -2703,10 +2709,10 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="n">
+      <c r="A103" s="5" t="n">
         <v>95</v>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="B103" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2716,14 +2722,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F103" s="5" t="n"/>
-      <c r="G103" s="6" t="n"/>
+      <c r="F103" s="7" t="n"/>
+      <c r="G103" s="8" t="n"/>
     </row>
     <row r="104">
-      <c r="A104" t="n">
+      <c r="A104" s="5" t="n">
         <v>96</v>
       </c>
-      <c r="B104" t="n">
+      <c r="B104" s="6" t="n">
         <v>2</v>
       </c>
       <c r="C104" t="inlineStr">
@@ -2737,19 +2743,19 @@
       <c r="E104" t="n">
         <v>1</v>
       </c>
-      <c r="F104" s="5" t="n">
+      <c r="F104" s="7" t="n">
         <v>18</v>
       </c>
-      <c r="G104" s="6">
+      <c r="G104" s="8">
         <f>IF(E104&gt;1,(1.732*D104*F104)/1000,(D104*F104)/1000)</f>
         <v/>
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="n">
+      <c r="A105" s="5" t="n">
         <v>97</v>
       </c>
-      <c r="B105" t="inlineStr">
+      <c r="B105" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2759,14 +2765,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F105" s="5" t="n"/>
-      <c r="G105" s="6" t="n"/>
+      <c r="F105" s="7" t="n"/>
+      <c r="G105" s="8" t="n"/>
     </row>
     <row r="106">
-      <c r="A106" t="n">
+      <c r="A106" s="5" t="n">
         <v>98</v>
       </c>
-      <c r="B106" t="n">
+      <c r="B106" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C106" t="inlineStr">
@@ -2780,10 +2786,10 @@
       <c r="E106" t="n">
         <v>1</v>
       </c>
-      <c r="F106" s="5" t="n">
+      <c r="F106" s="7" t="n">
         <v>40</v>
       </c>
-      <c r="G106" s="6">
+      <c r="G106" s="8">
         <f>IF(E106&gt;1,(1.732*D106*F106)/1000,(D106*F106)/1000)</f>
         <v/>
       </c>
@@ -2794,10 +2800,10 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="n">
+      <c r="A107" s="5" t="n">
         <v>99</v>
       </c>
-      <c r="B107" t="inlineStr">
+      <c r="B107" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2807,14 +2813,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F107" s="5" t="n"/>
-      <c r="G107" s="6" t="n"/>
+      <c r="F107" s="7" t="n"/>
+      <c r="G107" s="8" t="n"/>
     </row>
     <row r="108">
-      <c r="A108" t="n">
+      <c r="A108" s="5" t="n">
         <v>100</v>
       </c>
-      <c r="B108" t="n">
+      <c r="B108" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C108" t="inlineStr">
@@ -2822,8 +2828,8 @@
           <t>PRE-RINSE UNIT</t>
         </is>
       </c>
-      <c r="F108" s="5" t="n"/>
-      <c r="G108" s="6" t="n"/>
+      <c r="F108" s="7" t="n"/>
+      <c r="G108" s="8" t="n"/>
       <c r="H108" t="inlineStr">
         <is>
           <t>1/2"</t>
@@ -2844,10 +2850,10 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="n">
+      <c r="A109" s="5" t="n">
         <v>101</v>
       </c>
-      <c r="B109" t="n">
+      <c r="B109" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C109" t="inlineStr">
@@ -2855,8 +2861,8 @@
           <t>FISH SINK</t>
         </is>
       </c>
-      <c r="F109" s="5" t="n"/>
-      <c r="G109" s="6" t="n"/>
+      <c r="F109" s="7" t="n"/>
+      <c r="G109" s="8" t="n"/>
       <c r="H109" t="inlineStr">
         <is>
           <t>1/2"</t>
@@ -2882,10 +2888,10 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="n">
+      <c r="A110" s="5" t="n">
         <v>102</v>
       </c>
-      <c r="B110" t="n">
+      <c r="B110" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C110" t="inlineStr">
@@ -2893,8 +2899,8 @@
           <t>TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="F110" s="5" t="n"/>
-      <c r="G110" s="6" t="n"/>
+      <c r="F110" s="7" t="n"/>
+      <c r="G110" s="8" t="n"/>
       <c r="S110" t="inlineStr">
         <is>
           <t>WITH LID AND DOLLY</t>
@@ -2902,10 +2908,10 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="n">
+      <c r="A111" s="5" t="n">
         <v>103</v>
       </c>
-      <c r="B111" t="n">
+      <c r="B111" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C111" t="inlineStr">
@@ -2913,8 +2919,8 @@
           <t>DOUBLE WALL SHELF</t>
         </is>
       </c>
-      <c r="F111" s="5" t="n"/>
-      <c r="G111" s="6" t="n"/>
+      <c r="F111" s="7" t="n"/>
+      <c r="G111" s="8" t="n"/>
       <c r="S111" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -2922,10 +2928,10 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="n">
+      <c r="A112" s="5" t="n">
         <v>104</v>
       </c>
-      <c r="B112" t="n">
+      <c r="B112" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C112" t="inlineStr">
@@ -2933,8 +2939,8 @@
           <t>FISH SINK</t>
         </is>
       </c>
-      <c r="F112" s="5" t="n"/>
-      <c r="G112" s="6" t="n"/>
+      <c r="F112" s="7" t="n"/>
+      <c r="G112" s="8" t="n"/>
       <c r="H112" t="inlineStr">
         <is>
           <t>1/2"</t>
@@ -2960,10 +2966,10 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="n">
+      <c r="A113" s="5" t="n">
         <v>105</v>
       </c>
-      <c r="B113" t="n">
+      <c r="B113" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C113" t="inlineStr">
@@ -2971,8 +2977,8 @@
           <t>PRE-RINSE UNIT</t>
         </is>
       </c>
-      <c r="F113" s="5" t="n"/>
-      <c r="G113" s="6" t="n"/>
+      <c r="F113" s="7" t="n"/>
+      <c r="G113" s="8" t="n"/>
       <c r="H113" t="inlineStr">
         <is>
           <t>1/2"</t>
@@ -2993,10 +2999,10 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="n">
+      <c r="A114" s="5" t="n">
         <v>106</v>
       </c>
-      <c r="B114" t="n">
+      <c r="B114" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C114" t="inlineStr">
@@ -3010,10 +3016,10 @@
       <c r="E114" t="n">
         <v>1</v>
       </c>
-      <c r="F114" s="5" t="n">
+      <c r="F114" s="7" t="n">
         <v>40</v>
       </c>
-      <c r="G114" s="6">
+      <c r="G114" s="8">
         <f>IF(E114&gt;1,(1.732*D114*F114)/1000,(D114*F114)/1000)</f>
         <v/>
       </c>
@@ -3042,10 +3048,10 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="n">
+      <c r="A115" s="5" t="n">
         <v>107</v>
       </c>
-      <c r="B115" t="n">
+      <c r="B115" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C115" t="inlineStr">
@@ -3053,8 +3059,8 @@
           <t>DOUBLE WALL SHELF</t>
         </is>
       </c>
-      <c r="F115" s="5" t="n"/>
-      <c r="G115" s="6" t="n"/>
+      <c r="F115" s="7" t="n"/>
+      <c r="G115" s="8" t="n"/>
       <c r="S115" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -3062,10 +3068,10 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="n">
+      <c r="A116" s="5" t="n">
         <v>108</v>
       </c>
-      <c r="B116" t="inlineStr">
+      <c r="B116" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3075,14 +3081,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F116" s="5" t="n"/>
-      <c r="G116" s="6" t="n"/>
+      <c r="F116" s="7" t="n"/>
+      <c r="G116" s="8" t="n"/>
     </row>
     <row r="117">
-      <c r="A117" t="n">
+      <c r="A117" s="5" t="n">
         <v>109</v>
       </c>
-      <c r="B117" t="inlineStr">
+      <c r="B117" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3092,14 +3098,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F117" s="5" t="n"/>
-      <c r="G117" s="6" t="n"/>
+      <c r="F117" s="7" t="n"/>
+      <c r="G117" s="8" t="n"/>
     </row>
     <row r="118">
-      <c r="A118" t="n">
+      <c r="A118" s="5" t="n">
         <v>110</v>
       </c>
-      <c r="B118" t="inlineStr">
+      <c r="B118" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3109,14 +3115,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F118" s="5" t="n"/>
-      <c r="G118" s="6" t="n"/>
+      <c r="F118" s="7" t="n"/>
+      <c r="G118" s="8" t="n"/>
     </row>
     <row r="119">
-      <c r="A119" t="n">
+      <c r="A119" s="5" t="n">
         <v>111</v>
       </c>
-      <c r="B119" t="inlineStr">
+      <c r="B119" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3126,14 +3132,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F119" s="5" t="n"/>
-      <c r="G119" s="6" t="n"/>
+      <c r="F119" s="7" t="n"/>
+      <c r="G119" s="8" t="n"/>
     </row>
     <row r="120">
-      <c r="A120" t="n">
+      <c r="A120" s="5" t="n">
         <v>112</v>
       </c>
-      <c r="B120" t="inlineStr">
+      <c r="B120" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3143,14 +3149,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F120" s="5" t="n"/>
-      <c r="G120" s="6" t="n"/>
+      <c r="F120" s="7" t="n"/>
+      <c r="G120" s="8" t="n"/>
     </row>
     <row r="121">
-      <c r="A121" t="n">
+      <c r="A121" s="5" t="n">
         <v>113</v>
       </c>
-      <c r="B121" t="n">
+      <c r="B121" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C121" t="inlineStr">
@@ -3164,10 +3170,10 @@
       <c r="E121" t="n">
         <v>1</v>
       </c>
-      <c r="F121" s="5" t="n">
+      <c r="F121" s="7" t="n">
         <v>20</v>
       </c>
-      <c r="G121" s="6">
+      <c r="G121" s="8">
         <f>IF(E121&gt;1,(1.732*D121*F121)/1000,(D121*F121)/1000)</f>
         <v/>
       </c>
@@ -3178,10 +3184,10 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="n">
+      <c r="A122" s="5" t="n">
         <v>114</v>
       </c>
-      <c r="B122" t="n">
+      <c r="B122" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C122" t="inlineStr">
@@ -3189,8 +3195,8 @@
           <t>TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="F122" s="5" t="n"/>
-      <c r="G122" s="6" t="n"/>
+      <c r="F122" s="7" t="n"/>
+      <c r="G122" s="8" t="n"/>
       <c r="S122" t="inlineStr">
         <is>
           <t>EXISTING TO BE RELOCATED</t>
@@ -3198,10 +3204,10 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="n">
+      <c r="A123" s="5" t="n">
         <v>115</v>
       </c>
-      <c r="B123" t="inlineStr">
+      <c r="B123" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3211,14 +3217,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F123" s="5" t="n"/>
-      <c r="G123" s="6" t="n"/>
+      <c r="F123" s="7" t="n"/>
+      <c r="G123" s="8" t="n"/>
     </row>
     <row r="124">
-      <c r="A124" t="n">
+      <c r="A124" s="5" t="n">
         <v>116</v>
       </c>
-      <c r="B124" t="n">
+      <c r="B124" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C124" t="inlineStr">
@@ -3226,8 +3232,8 @@
           <t>COOLER CONDENSING UNIT</t>
         </is>
       </c>
-      <c r="F124" s="5" t="n"/>
-      <c r="G124" s="6" t="n"/>
+      <c r="F124" s="7" t="n"/>
+      <c r="G124" s="8" t="n"/>
       <c r="S124" t="inlineStr">
         <is>
           <t>ON EMERGENCY POWER EXISTING TO REMAIN</t>
@@ -3235,10 +3241,10 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="n">
+      <c r="A125" s="5" t="n">
         <v>117</v>
       </c>
-      <c r="B125" t="inlineStr">
+      <c r="B125" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3248,14 +3254,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F125" s="5" t="n"/>
-      <c r="G125" s="6" t="n"/>
+      <c r="F125" s="7" t="n"/>
+      <c r="G125" s="8" t="n"/>
     </row>
     <row r="126">
-      <c r="A126" t="n">
+      <c r="A126" s="5" t="n">
         <v>118</v>
       </c>
-      <c r="B126" t="inlineStr">
+      <c r="B126" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3265,14 +3271,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F126" s="5" t="n"/>
-      <c r="G126" s="6" t="n"/>
+      <c r="F126" s="7" t="n"/>
+      <c r="G126" s="8" t="n"/>
     </row>
     <row r="127">
-      <c r="A127" t="n">
+      <c r="A127" s="5" t="n">
         <v>119</v>
       </c>
-      <c r="B127" t="inlineStr">
+      <c r="B127" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3282,14 +3288,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F127" s="5" t="n"/>
-      <c r="G127" s="6" t="n"/>
+      <c r="F127" s="7" t="n"/>
+      <c r="G127" s="8" t="n"/>
     </row>
     <row r="128">
-      <c r="A128" t="n">
+      <c r="A128" s="5" t="n">
         <v>120</v>
       </c>
-      <c r="B128" t="inlineStr">
+      <c r="B128" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3299,8 +3305,8 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F128" s="5" t="n"/>
-      <c r="G128" s="6" t="n"/>
+      <c r="F128" s="7" t="n"/>
+      <c r="G128" s="8" t="n"/>
     </row>
     <row r="129">
       <c r="A129" s="3" t="inlineStr">
@@ -3328,10 +3334,10 @@
       <c r="S129" s="4" t="n"/>
     </row>
     <row r="130">
-      <c r="A130" t="n">
+      <c r="A130" s="5" t="n">
         <v>121</v>
       </c>
-      <c r="B130" t="n">
+      <c r="B130" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C130" t="inlineStr">
@@ -3339,8 +3345,8 @@
           <t>EVAPORATOR COIL</t>
         </is>
       </c>
-      <c r="F130" s="5" t="n"/>
-      <c r="G130" s="6" t="n"/>
+      <c r="F130" s="7" t="n"/>
+      <c r="G130" s="8" t="n"/>
       <c r="S130" t="inlineStr">
         <is>
           <t>EXISTING TO REMAIN</t>
@@ -3348,10 +3354,10 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="n">
+      <c r="A131" s="5" t="n">
         <v>122</v>
       </c>
-      <c r="B131" t="n">
+      <c r="B131" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C131" t="inlineStr">
@@ -3359,8 +3365,8 @@
           <t>COOLER STORAGE SHELVING</t>
         </is>
       </c>
-      <c r="F131" s="5" t="n"/>
-      <c r="G131" s="6" t="n"/>
+      <c r="F131" s="7" t="n"/>
+      <c r="G131" s="8" t="n"/>
       <c r="S131" t="inlineStr">
         <is>
           <t>FIXED FOUR TIER EXISTING TO REMAIN</t>
@@ -3368,10 +3374,10 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="n">
+      <c r="A132" s="5" t="n">
         <v>123</v>
       </c>
-      <c r="B132" t="n">
+      <c r="B132" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C132" t="inlineStr">
@@ -3379,8 +3385,8 @@
           <t>COOLER STORAGE SHELVING</t>
         </is>
       </c>
-      <c r="F132" s="5" t="n"/>
-      <c r="G132" s="6" t="n"/>
+      <c r="F132" s="7" t="n"/>
+      <c r="G132" s="8" t="n"/>
       <c r="S132" t="inlineStr">
         <is>
           <t>FIXED FOUR TIER EXISTING TO REMAIN</t>
@@ -3388,10 +3394,10 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="n">
+      <c r="A133" s="5" t="n">
         <v>124</v>
       </c>
-      <c r="B133" t="n">
+      <c r="B133" s="6" t="n">
         <v>4</v>
       </c>
       <c r="C133" t="inlineStr">
@@ -3399,8 +3405,8 @@
           <t>COOLER STORAGE SHELVING</t>
         </is>
       </c>
-      <c r="F133" s="5" t="n"/>
-      <c r="G133" s="6" t="n"/>
+      <c r="F133" s="7" t="n"/>
+      <c r="G133" s="8" t="n"/>
       <c r="S133" t="inlineStr">
         <is>
           <t>MOBILE FIVE TIER</t>
@@ -3408,10 +3414,10 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="n">
+      <c r="A134" s="5" t="n">
         <v>125</v>
       </c>
-      <c r="B134" t="inlineStr">
+      <c r="B134" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3421,14 +3427,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F134" s="5" t="n"/>
-      <c r="G134" s="6" t="n"/>
+      <c r="F134" s="7" t="n"/>
+      <c r="G134" s="8" t="n"/>
     </row>
     <row r="135">
-      <c r="A135" t="n">
+      <c r="A135" s="5" t="n">
         <v>126</v>
       </c>
-      <c r="B135" t="n">
+      <c r="B135" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C135" t="inlineStr">
@@ -3436,8 +3442,8 @@
           <t>WINE STORAGE SHELVING</t>
         </is>
       </c>
-      <c r="F135" s="5" t="n"/>
-      <c r="G135" s="6" t="n"/>
+      <c r="F135" s="7" t="n"/>
+      <c r="G135" s="8" t="n"/>
       <c r="S135" t="inlineStr">
         <is>
           <t>FIXED FOURTEEN TIER</t>
@@ -3445,10 +3451,10 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="n">
+      <c r="A136" s="5" t="n">
         <v>127</v>
       </c>
-      <c r="B136" t="inlineStr">
+      <c r="B136" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3458,14 +3464,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F136" s="5" t="n"/>
-      <c r="G136" s="6" t="n"/>
+      <c r="F136" s="7" t="n"/>
+      <c r="G136" s="8" t="n"/>
     </row>
     <row r="137">
-      <c r="A137" t="n">
+      <c r="A137" s="5" t="n">
         <v>128</v>
       </c>
-      <c r="B137" t="inlineStr">
+      <c r="B137" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3475,14 +3481,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F137" s="5" t="n"/>
-      <c r="G137" s="6" t="n"/>
+      <c r="F137" s="7" t="n"/>
+      <c r="G137" s="8" t="n"/>
     </row>
     <row r="138">
-      <c r="A138" t="n">
+      <c r="A138" s="5" t="n">
         <v>129</v>
       </c>
-      <c r="B138" t="inlineStr">
+      <c r="B138" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3492,14 +3498,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F138" s="5" t="n"/>
-      <c r="G138" s="6" t="n"/>
+      <c r="F138" s="7" t="n"/>
+      <c r="G138" s="8" t="n"/>
     </row>
     <row r="139">
-      <c r="A139" t="n">
+      <c r="A139" s="5" t="n">
         <v>130</v>
       </c>
-      <c r="B139" t="inlineStr">
+      <c r="B139" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3509,14 +3515,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F139" s="5" t="n"/>
-      <c r="G139" s="6" t="n"/>
+      <c r="F139" s="7" t="n"/>
+      <c r="G139" s="8" t="n"/>
     </row>
     <row r="140">
-      <c r="A140" t="n">
+      <c r="A140" s="5" t="n">
         <v>131</v>
       </c>
-      <c r="B140" t="inlineStr">
+      <c r="B140" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3526,14 +3532,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F140" s="5" t="n"/>
-      <c r="G140" s="6" t="n"/>
+      <c r="F140" s="7" t="n"/>
+      <c r="G140" s="8" t="n"/>
     </row>
     <row r="141">
-      <c r="A141" t="n">
+      <c r="A141" s="5" t="n">
         <v>132</v>
       </c>
-      <c r="B141" t="n">
+      <c r="B141" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C141" t="inlineStr">
@@ -3541,8 +3547,8 @@
           <t>BEVERAGE COOLER</t>
         </is>
       </c>
-      <c r="F141" s="5" t="n"/>
-      <c r="G141" s="6" t="n"/>
+      <c r="F141" s="7" t="n"/>
+      <c r="G141" s="8" t="n"/>
       <c r="S141" t="inlineStr">
         <is>
           <t>EXISTING TO REMAIN</t>
@@ -3550,10 +3556,10 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="n">
+      <c r="A142" s="5" t="n">
         <v>133</v>
       </c>
-      <c r="B142" t="n">
+      <c r="B142" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C142" t="inlineStr">
@@ -3561,8 +3567,8 @@
           <t>SODA BAG IN BOX RACK</t>
         </is>
       </c>
-      <c r="F142" s="5" t="n"/>
-      <c r="G142" s="6" t="n"/>
+      <c r="F142" s="7" t="n"/>
+      <c r="G142" s="8" t="n"/>
       <c r="S142" t="inlineStr">
         <is>
           <t>EXISTING TO REMAIN</t>
@@ -3570,10 +3576,10 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="n">
+      <c r="A143" s="5" t="n">
         <v>134</v>
       </c>
-      <c r="B143" t="n">
+      <c r="B143" s="6" t="n">
         <v>6</v>
       </c>
       <c r="C143" t="inlineStr">
@@ -3581,8 +3587,8 @@
           <t>CO2 TANK</t>
         </is>
       </c>
-      <c r="F143" s="5" t="n"/>
-      <c r="G143" s="6" t="n"/>
+      <c r="F143" s="7" t="n"/>
+      <c r="G143" s="8" t="n"/>
       <c r="S143" t="inlineStr">
         <is>
           <t>EXISTING TO REMAIN</t>
@@ -3590,10 +3596,10 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="n">
+      <c r="A144" s="5" t="n">
         <v>135</v>
       </c>
-      <c r="B144" t="inlineStr">
+      <c r="B144" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3603,14 +3609,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F144" s="5" t="n"/>
-      <c r="G144" s="6" t="n"/>
+      <c r="F144" s="7" t="n"/>
+      <c r="G144" s="8" t="n"/>
     </row>
     <row r="145">
-      <c r="A145" t="n">
+      <c r="A145" s="5" t="n">
         <v>136</v>
       </c>
-      <c r="B145" t="n">
+      <c r="B145" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C145" t="inlineStr">
@@ -3618,8 +3624,8 @@
           <t>CO2 TANK STORAGE</t>
         </is>
       </c>
-      <c r="F145" s="5" t="n"/>
-      <c r="G145" s="6" t="n"/>
+      <c r="F145" s="7" t="n"/>
+      <c r="G145" s="8" t="n"/>
       <c r="S145" t="inlineStr">
         <is>
           <t>EXISTING TO REMAIN</t>
@@ -3627,10 +3633,10 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="n">
+      <c r="A146" s="5" t="n">
         <v>137</v>
       </c>
-      <c r="B146" t="n">
+      <c r="B146" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C146" t="inlineStr">
@@ -3644,10 +3650,10 @@
       <c r="E146" t="n">
         <v>1</v>
       </c>
-      <c r="F146" s="5" t="n">
+      <c r="F146" s="7" t="n">
         <v>8.9</v>
       </c>
-      <c r="G146" s="6">
+      <c r="G146" s="8">
         <f>IF(E146&gt;1,(1.732*D146*F146)/1000,(D146*F146)/1000)</f>
         <v/>
       </c>
@@ -3663,10 +3669,10 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="n">
+      <c r="A147" s="5" t="n">
         <v>138</v>
       </c>
-      <c r="B147" t="n">
+      <c r="B147" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C147" t="inlineStr">
@@ -3674,8 +3680,8 @@
           <t>DRY STORAGE SHELVING</t>
         </is>
       </c>
-      <c r="F147" s="5" t="n"/>
-      <c r="G147" s="6" t="n"/>
+      <c r="F147" s="7" t="n"/>
+      <c r="G147" s="8" t="n"/>
       <c r="S147" t="inlineStr">
         <is>
           <t>FIXED FOUR TIER</t>
@@ -3683,10 +3689,10 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="n">
+      <c r="A148" s="5" t="n">
         <v>139</v>
       </c>
-      <c r="B148" t="inlineStr">
+      <c r="B148" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3696,14 +3702,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F148" s="5" t="n"/>
-      <c r="G148" s="6" t="n"/>
+      <c r="F148" s="7" t="n"/>
+      <c r="G148" s="8" t="n"/>
     </row>
     <row r="149">
-      <c r="A149" t="n">
+      <c r="A149" s="5" t="n">
         <v>140</v>
       </c>
-      <c r="B149" t="inlineStr">
+      <c r="B149" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3713,14 +3719,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F149" s="5" t="n"/>
-      <c r="G149" s="6" t="n"/>
+      <c r="F149" s="7" t="n"/>
+      <c r="G149" s="8" t="n"/>
     </row>
     <row r="150">
-      <c r="A150" t="n">
+      <c r="A150" s="5" t="n">
         <v>141</v>
       </c>
-      <c r="B150" t="n">
+      <c r="B150" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C150" t="inlineStr">
@@ -3728,8 +3734,8 @@
           <t>DRY STORAGE SHELVING</t>
         </is>
       </c>
-      <c r="F150" s="5" t="n"/>
-      <c r="G150" s="6" t="n"/>
+      <c r="F150" s="7" t="n"/>
+      <c r="G150" s="8" t="n"/>
       <c r="S150" t="inlineStr">
         <is>
           <t>FIXED FIVE TIER EXISTING TO REMAIN</t>
@@ -3737,10 +3743,10 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="n">
+      <c r="A151" s="5" t="n">
         <v>142</v>
       </c>
-      <c r="B151" t="n">
+      <c r="B151" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C151" t="inlineStr">
@@ -3748,8 +3754,8 @@
           <t>WINE STORAGE SHELVING</t>
         </is>
       </c>
-      <c r="F151" s="5" t="n"/>
-      <c r="G151" s="6" t="n"/>
+      <c r="F151" s="7" t="n"/>
+      <c r="G151" s="8" t="n"/>
       <c r="S151" t="inlineStr">
         <is>
           <t>FIXED FOURTEEN TIER</t>
@@ -3757,10 +3763,10 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="n">
+      <c r="A152" s="5" t="n">
         <v>143</v>
       </c>
-      <c r="B152" t="n">
+      <c r="B152" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C152" t="inlineStr">
@@ -3768,8 +3774,8 @@
           <t>HOOD CONTROL CABINET</t>
         </is>
       </c>
-      <c r="F152" s="5" t="n"/>
-      <c r="G152" s="6" t="n"/>
+      <c r="F152" s="7" t="n"/>
+      <c r="G152" s="8" t="n"/>
       <c r="S152" t="inlineStr">
         <is>
           <t>FOR ITEM #62 EXISTING TO REMAIN</t>
@@ -3777,10 +3783,10 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="n">
+      <c r="A153" s="5" t="n">
         <v>144</v>
       </c>
-      <c r="B153" t="n">
+      <c r="B153" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C153" t="inlineStr">
@@ -3788,8 +3794,8 @@
           <t>WATER FILTRATION SYSTEM</t>
         </is>
       </c>
-      <c r="F153" s="5" t="n"/>
-      <c r="G153" s="6" t="n"/>
+      <c r="F153" s="7" t="n"/>
+      <c r="G153" s="8" t="n"/>
       <c r="H153" t="inlineStr">
         <is>
           <t>3/8"</t>
@@ -3802,10 +3808,10 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="n">
+      <c r="A154" s="5" t="n">
         <v>145</v>
       </c>
-      <c r="B154" t="inlineStr">
+      <c r="B154" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3815,14 +3821,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F154" s="5" t="n"/>
-      <c r="G154" s="6" t="n"/>
+      <c r="F154" s="7" t="n"/>
+      <c r="G154" s="8" t="n"/>
     </row>
     <row r="155">
-      <c r="A155" t="n">
+      <c r="A155" s="5" t="n">
         <v>146</v>
       </c>
-      <c r="B155" t="n">
+      <c r="B155" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C155" t="inlineStr">
@@ -3830,8 +3836,8 @@
           <t>ICE BIN</t>
         </is>
       </c>
-      <c r="F155" s="5" t="n"/>
-      <c r="G155" s="6" t="n"/>
+      <c r="F155" s="7" t="n"/>
+      <c r="G155" s="8" t="n"/>
       <c r="S155" t="inlineStr">
         <is>
           <t>700LBS. EXISTING TO REMAIN</t>
@@ -3839,10 +3845,10 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="n">
+      <c r="A156" s="5" t="n">
         <v>147</v>
       </c>
-      <c r="B156" t="n">
+      <c r="B156" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C156" t="inlineStr">
@@ -3850,8 +3856,8 @@
           <t>ICE MAKER</t>
         </is>
       </c>
-      <c r="F156" s="5" t="n"/>
-      <c r="G156" s="6" t="n"/>
+      <c r="F156" s="7" t="n"/>
+      <c r="G156" s="8" t="n"/>
       <c r="S156" t="inlineStr">
         <is>
           <t>500LBS AIR COOLED LARGE CUBE STYLE EXISTING TO REMAIN</t>
@@ -3859,10 +3865,10 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="n">
+      <c r="A157" s="5" t="n">
         <v>148</v>
       </c>
-      <c r="B157" t="n">
+      <c r="B157" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C157" t="inlineStr">
@@ -3876,10 +3882,10 @@
       <c r="E157" t="n">
         <v>1</v>
       </c>
-      <c r="F157" s="5" t="n">
+      <c r="F157" s="7" t="n">
         <v>20</v>
       </c>
-      <c r="G157" s="6">
+      <c r="G157" s="8">
         <f>IF(E157&gt;1,(1.732*D157*F157)/1000,(D157*F157)/1000)</f>
         <v/>
       </c>
@@ -3908,10 +3914,10 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="n">
+      <c r="A158" s="5" t="n">
         <v>149</v>
       </c>
-      <c r="B158" t="n">
+      <c r="B158" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C158" t="inlineStr">
@@ -3919,8 +3925,8 @@
           <t>DOUBLE WALL SHELF</t>
         </is>
       </c>
-      <c r="F158" s="5" t="n"/>
-      <c r="G158" s="6" t="n"/>
+      <c r="F158" s="7" t="n"/>
+      <c r="G158" s="8" t="n"/>
       <c r="S158" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -3928,10 +3934,10 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="n">
+      <c r="A159" s="5" t="n">
         <v>150</v>
       </c>
-      <c r="B159" t="n">
+      <c r="B159" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C159" t="inlineStr">
@@ -3945,19 +3951,19 @@
       <c r="E159" t="n">
         <v>1</v>
       </c>
-      <c r="F159" s="5" t="n">
+      <c r="F159" s="7" t="n">
         <v>0.9</v>
       </c>
-      <c r="G159" s="6">
+      <c r="G159" s="8">
         <f>IF(E159&gt;1,(1.732*D159*F159)/1000,(D159*F159)/1000)</f>
         <v/>
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="n">
+      <c r="A160" s="5" t="n">
         <v>151</v>
       </c>
-      <c r="B160" t="n">
+      <c r="B160" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C160" t="inlineStr">
@@ -3965,8 +3971,8 @@
           <t>TRASH CHUTE</t>
         </is>
       </c>
-      <c r="F160" s="5" t="n"/>
-      <c r="G160" s="6" t="n"/>
+      <c r="F160" s="7" t="n"/>
+      <c r="G160" s="8" t="n"/>
       <c r="S160" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #502</t>
@@ -3974,10 +3980,10 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="n">
+      <c r="A161" s="5" t="n">
         <v>152</v>
       </c>
-      <c r="B161" t="n">
+      <c r="B161" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C161" t="inlineStr">
@@ -3985,8 +3991,8 @@
           <t>TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="F161" s="5" t="n"/>
-      <c r="G161" s="6" t="n"/>
+      <c r="F161" s="7" t="n"/>
+      <c r="G161" s="8" t="n"/>
       <c r="S161" t="inlineStr">
         <is>
           <t>SLIM JIM EXISTING TO REMAIN</t>
@@ -3994,10 +4000,10 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="n">
+      <c r="A162" s="5" t="n">
         <v>153</v>
       </c>
-      <c r="B162" t="n">
+      <c r="B162" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C162" t="inlineStr">
@@ -4011,10 +4017,10 @@
       <c r="E162" t="n">
         <v>1</v>
       </c>
-      <c r="F162" s="5" t="n">
+      <c r="F162" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="G162" s="6">
+      <c r="G162" s="8">
         <f>IF(E162&gt;1,(1.732*D162*F162)/1000,(D162*F162)/1000)</f>
         <v/>
       </c>
@@ -4030,10 +4036,10 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="n">
+      <c r="A163" s="5" t="n">
         <v>154</v>
       </c>
-      <c r="B163" t="n">
+      <c r="B163" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C163" t="inlineStr">
@@ -4047,19 +4053,19 @@
       <c r="E163" t="n">
         <v>1</v>
       </c>
-      <c r="F163" s="5" t="n">
+      <c r="F163" s="7" t="n">
         <v>0.14</v>
       </c>
-      <c r="G163" s="6">
+      <c r="G163" s="8">
         <f>IF(E163&gt;1,(1.732*D163*F163)/1000,(D163*F163)/1000)</f>
         <v/>
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="n">
+      <c r="A164" s="5" t="n">
         <v>155</v>
       </c>
-      <c r="B164" t="n">
+      <c r="B164" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C164" t="inlineStr">
@@ -4067,8 +4073,8 @@
           <t>CUTTING BOARD</t>
         </is>
       </c>
-      <c r="F164" s="5" t="n"/>
-      <c r="G164" s="6" t="n"/>
+      <c r="F164" s="7" t="n"/>
+      <c r="G164" s="8" t="n"/>
       <c r="S164" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION RECESSED PART OF ITEM #502</t>
@@ -4076,10 +4082,10 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="n">
+      <c r="A165" s="5" t="n">
         <v>156</v>
       </c>
-      <c r="B165" t="n">
+      <c r="B165" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C165" t="inlineStr">
@@ -4087,8 +4093,8 @@
           <t>POS PRINTER</t>
         </is>
       </c>
-      <c r="F165" s="5" t="n"/>
-      <c r="G165" s="6" t="n"/>
+      <c r="F165" s="7" t="n"/>
+      <c r="G165" s="8" t="n"/>
       <c r="S165" t="inlineStr">
         <is>
           <t>EXISTING TO REMAIN</t>
@@ -4096,10 +4102,10 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="n">
+      <c r="A166" s="5" t="n">
         <v>157</v>
       </c>
-      <c r="B166" t="n">
+      <c r="B166" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C166" t="inlineStr">
@@ -4107,8 +4113,8 @@
           <t>RICE WARMER STAND</t>
         </is>
       </c>
-      <c r="F166" s="5" t="n"/>
-      <c r="G166" s="6" t="n"/>
+      <c r="F166" s="7" t="n"/>
+      <c r="G166" s="8" t="n"/>
       <c r="S166" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION MOBILE</t>
@@ -4116,10 +4122,10 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="n">
+      <c r="A167" s="5" t="n">
         <v>158</v>
       </c>
-      <c r="B167" t="n">
+      <c r="B167" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C167" t="inlineStr">
@@ -4133,19 +4139,19 @@
       <c r="E167" t="n">
         <v>1</v>
       </c>
-      <c r="F167" s="5" t="n">
+      <c r="F167" s="7" t="n">
         <v>18</v>
       </c>
-      <c r="G167" s="6">
+      <c r="G167" s="8">
         <f>IF(E167&gt;1,(1.732*D167*F167)/1000,(D167*F167)/1000)</f>
         <v/>
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="n">
+      <c r="A168" s="5" t="n">
         <v>159</v>
       </c>
-      <c r="B168" t="n">
+      <c r="B168" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C168" t="inlineStr">
@@ -4153,8 +4159,8 @@
           <t>REACH IN REFRIGERATOR</t>
         </is>
       </c>
-      <c r="F168" s="5" t="n"/>
-      <c r="G168" s="6" t="n"/>
+      <c r="F168" s="7" t="n"/>
+      <c r="G168" s="8" t="n"/>
       <c r="S168" t="inlineStr">
         <is>
           <t>MOBILE EXISTING TO REMAIN</t>
@@ -4162,10 +4168,10 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="n">
+      <c r="A169" s="5" t="n">
         <v>160</v>
       </c>
-      <c r="B169" t="n">
+      <c r="B169" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C169" t="inlineStr">
@@ -4179,10 +4185,10 @@
       <c r="E169" t="n">
         <v>1</v>
       </c>
-      <c r="F169" s="5" t="n">
+      <c r="F169" s="7" t="n">
         <v>9.699999999999999</v>
       </c>
-      <c r="G169" s="6">
+      <c r="G169" s="8">
         <f>IF(E169&gt;1,(1.732*D169*F169)/1000,(D169*F169)/1000)</f>
         <v/>
       </c>
@@ -4193,10 +4199,10 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="n">
+      <c r="A170" s="5" t="n">
         <v>161</v>
       </c>
-      <c r="B170" t="n">
+      <c r="B170" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C170" t="inlineStr">
@@ -4204,8 +4210,8 @@
           <t>HAND SINK</t>
         </is>
       </c>
-      <c r="F170" s="5" t="n"/>
-      <c r="G170" s="6" t="n"/>
+      <c r="F170" s="7" t="n"/>
+      <c r="G170" s="8" t="n"/>
       <c r="S170" t="inlineStr">
         <is>
           <t>WITH SOAP &amp; TOWEL DISPENSER EXISTING TO REMAIN</t>
@@ -4213,10 +4219,10 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="n">
+      <c r="A171" s="5" t="n">
         <v>162</v>
       </c>
-      <c r="B171" t="n">
+      <c r="B171" s="6" t="n">
         <v>2</v>
       </c>
       <c r="C171" t="inlineStr">
@@ -4224,8 +4230,8 @@
           <t>GLASS RACK DISH DOLLY</t>
         </is>
       </c>
-      <c r="F171" s="5" t="n"/>
-      <c r="G171" s="6" t="n"/>
+      <c r="F171" s="7" t="n"/>
+      <c r="G171" s="8" t="n"/>
       <c r="S171" t="inlineStr">
         <is>
           <t>MOBILE EXISTING</t>
@@ -4233,10 +4239,10 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="n">
+      <c r="A172" s="5" t="n">
         <v>163</v>
       </c>
-      <c r="B172" t="n">
+      <c r="B172" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C172" t="inlineStr">
@@ -4244,8 +4250,8 @@
           <t>POLISH STATION TABLE</t>
         </is>
       </c>
-      <c r="F172" s="5" t="n"/>
-      <c r="G172" s="6" t="n"/>
+      <c r="F172" s="7" t="n"/>
+      <c r="G172" s="8" t="n"/>
       <c r="S172" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -4253,10 +4259,10 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="n">
+      <c r="A173" s="5" t="n">
         <v>164</v>
       </c>
-      <c r="B173" t="n">
+      <c r="B173" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C173" t="inlineStr">
@@ -4264,8 +4270,8 @@
           <t>GLASS RACK SHELF</t>
         </is>
       </c>
-      <c r="F173" s="5" t="n"/>
-      <c r="G173" s="6" t="n"/>
+      <c r="F173" s="7" t="n"/>
+      <c r="G173" s="8" t="n"/>
       <c r="S173" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WALL MOUNTED</t>
@@ -4273,10 +4279,10 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="n">
+      <c r="A174" s="5" t="n">
         <v>165</v>
       </c>
-      <c r="B174" t="n">
+      <c r="B174" s="6" t="n">
         <v>4</v>
       </c>
       <c r="C174" t="inlineStr">
@@ -4284,8 +4290,8 @@
           <t>CLEAN DISH STORAGE SHELVING</t>
         </is>
       </c>
-      <c r="F174" s="5" t="n"/>
-      <c r="G174" s="6" t="n"/>
+      <c r="F174" s="7" t="n"/>
+      <c r="G174" s="8" t="n"/>
       <c r="S174" t="inlineStr">
         <is>
           <t>FIXED FOUR TIER</t>
@@ -4293,10 +4299,10 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="n">
+      <c r="A175" s="5" t="n">
         <v>166</v>
       </c>
-      <c r="B175" t="n">
+      <c r="B175" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C175" t="inlineStr">
@@ -4304,8 +4310,8 @@
           <t>SOILED DISH TABLE</t>
         </is>
       </c>
-      <c r="F175" s="5" t="n"/>
-      <c r="G175" s="6" t="n"/>
+      <c r="F175" s="7" t="n"/>
+      <c r="G175" s="8" t="n"/>
       <c r="S175" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH OVERSHELF AND TROUGH EXISTING TO REMAIN</t>
@@ -4313,10 +4319,10 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="n">
+      <c r="A176" s="5" t="n">
         <v>167</v>
       </c>
-      <c r="B176" t="n">
+      <c r="B176" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C176" t="inlineStr">
@@ -4324,8 +4330,8 @@
           <t>HOSE REEL</t>
         </is>
       </c>
-      <c r="F176" s="5" t="n"/>
-      <c r="G176" s="6" t="n"/>
+      <c r="F176" s="7" t="n"/>
+      <c r="G176" s="8" t="n"/>
       <c r="S176" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION COUNTER MOUNTED EXISTING TO REMAIN</t>
@@ -4333,10 +4339,10 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="n">
+      <c r="A177" s="5" t="n">
         <v>168</v>
       </c>
-      <c r="B177" t="n">
+      <c r="B177" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C177" t="inlineStr">
@@ -4344,8 +4350,8 @@
           <t>TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="F177" s="5" t="n"/>
-      <c r="G177" s="6" t="n"/>
+      <c r="F177" s="7" t="n"/>
+      <c r="G177" s="8" t="n"/>
       <c r="S177" t="inlineStr">
         <is>
           <t>SLIM JIM EXISTING TO REMAIN</t>
@@ -4353,10 +4359,10 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="n">
+      <c r="A178" s="5" t="n">
         <v>169</v>
       </c>
-      <c r="B178" t="inlineStr">
+      <c r="B178" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4366,14 +4372,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F178" s="5" t="n"/>
-      <c r="G178" s="6" t="n"/>
+      <c r="F178" s="7" t="n"/>
+      <c r="G178" s="8" t="n"/>
     </row>
     <row r="179">
-      <c r="A179" t="n">
+      <c r="A179" s="5" t="n">
         <v>170</v>
       </c>
-      <c r="B179" t="inlineStr">
+      <c r="B179" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4383,14 +4389,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F179" s="5" t="n"/>
-      <c r="G179" s="6" t="n"/>
+      <c r="F179" s="7" t="n"/>
+      <c r="G179" s="8" t="n"/>
     </row>
     <row r="180">
-      <c r="A180" t="n">
+      <c r="A180" s="5" t="n">
         <v>171</v>
       </c>
-      <c r="B180" t="n">
+      <c r="B180" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C180" t="inlineStr">
@@ -4398,8 +4404,8 @@
           <t>TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="F180" s="5" t="n"/>
-      <c r="G180" s="6" t="n"/>
+      <c r="F180" s="7" t="n"/>
+      <c r="G180" s="8" t="n"/>
       <c r="S180" t="inlineStr">
         <is>
           <t>EXISTING TO REMAIN</t>
@@ -4407,10 +4413,10 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="n">
+      <c r="A181" s="5" t="n">
         <v>172</v>
       </c>
-      <c r="B181" t="n">
+      <c r="B181" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C181" t="inlineStr">
@@ -4418,8 +4424,8 @@
           <t>DUNNAGE RACK</t>
         </is>
       </c>
-      <c r="F181" s="5" t="n"/>
-      <c r="G181" s="6" t="n"/>
+      <c r="F181" s="7" t="n"/>
+      <c r="G181" s="8" t="n"/>
       <c r="S181" t="inlineStr">
         <is>
           <t>EXISTING TO REMAIN</t>
@@ -4427,10 +4433,10 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="n">
+      <c r="A182" s="5" t="n">
         <v>173</v>
       </c>
-      <c r="B182" t="n">
+      <c r="B182" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C182" t="inlineStr">
@@ -4438,8 +4444,8 @@
           <t>PRE-RINSE UNIT</t>
         </is>
       </c>
-      <c r="F182" s="5" t="n"/>
-      <c r="G182" s="6" t="n"/>
+      <c r="F182" s="7" t="n"/>
+      <c r="G182" s="8" t="n"/>
       <c r="S182" t="inlineStr">
         <is>
           <t>WITH FAUCET EXISTING TO REMAIN</t>
@@ -4447,10 +4453,10 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="n">
+      <c r="A183" s="5" t="n">
         <v>174</v>
       </c>
-      <c r="B183" t="n">
+      <c r="B183" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C183" t="inlineStr">
@@ -4458,8 +4464,8 @@
           <t>DISPOSER</t>
         </is>
       </c>
-      <c r="F183" s="5" t="n"/>
-      <c r="G183" s="6" t="n"/>
+      <c r="F183" s="7" t="n"/>
+      <c r="G183" s="8" t="n"/>
       <c r="S183" t="inlineStr">
         <is>
           <t>EXISTING TO REMAIN</t>
@@ -4467,10 +4473,10 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="n">
+      <c r="A184" s="5" t="n">
         <v>175</v>
       </c>
-      <c r="B184" t="inlineStr">
+      <c r="B184" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4480,14 +4486,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F184" s="5" t="n"/>
-      <c r="G184" s="6" t="n"/>
+      <c r="F184" s="7" t="n"/>
+      <c r="G184" s="8" t="n"/>
     </row>
     <row r="185">
-      <c r="A185" t="n">
+      <c r="A185" s="5" t="n">
         <v>176</v>
       </c>
-      <c r="B185" t="n">
+      <c r="B185" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C185" t="inlineStr">
@@ -4495,8 +4501,8 @@
           <t>DISH MACHINE</t>
         </is>
       </c>
-      <c r="F185" s="5" t="n"/>
-      <c r="G185" s="6" t="n"/>
+      <c r="F185" s="7" t="n"/>
+      <c r="G185" s="8" t="n"/>
       <c r="S185" t="inlineStr">
         <is>
           <t>EXISTING TO REMAIN</t>
@@ -4504,10 +4510,10 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="n">
+      <c r="A186" s="5" t="n">
         <v>177</v>
       </c>
-      <c r="B186" t="n">
+      <c r="B186" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C186" t="inlineStr">
@@ -4515,8 +4521,8 @@
           <t>VENT DUCT LOAD END</t>
         </is>
       </c>
-      <c r="F186" s="5" t="n"/>
-      <c r="G186" s="6" t="n"/>
+      <c r="F186" s="7" t="n"/>
+      <c r="G186" s="8" t="n"/>
       <c r="S186" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION EXISTING TO REMAIN</t>
@@ -4524,10 +4530,10 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="n">
+      <c r="A187" s="5" t="n">
         <v>178</v>
       </c>
-      <c r="B187" t="n">
+      <c r="B187" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C187" t="inlineStr">
@@ -4535,8 +4541,8 @@
           <t>VENT DUCT UNLOAD END</t>
         </is>
       </c>
-      <c r="F187" s="5" t="n"/>
-      <c r="G187" s="6" t="n"/>
+      <c r="F187" s="7" t="n"/>
+      <c r="G187" s="8" t="n"/>
       <c r="S187" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION EXISTING TO REMAIN</t>
@@ -4544,10 +4550,10 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="n">
+      <c r="A188" s="5" t="n">
         <v>179</v>
       </c>
-      <c r="B188" t="inlineStr">
+      <c r="B188" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4557,14 +4563,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F188" s="5" t="n"/>
-      <c r="G188" s="6" t="n"/>
+      <c r="F188" s="7" t="n"/>
+      <c r="G188" s="8" t="n"/>
     </row>
     <row r="189">
-      <c r="A189" t="n">
+      <c r="A189" s="5" t="n">
         <v>180</v>
       </c>
-      <c r="B189" t="inlineStr">
+      <c r="B189" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4574,14 +4580,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F189" s="5" t="n"/>
-      <c r="G189" s="6" t="n"/>
+      <c r="F189" s="7" t="n"/>
+      <c r="G189" s="8" t="n"/>
     </row>
     <row r="190">
-      <c r="A190" t="n">
+      <c r="A190" s="5" t="n">
         <v>181</v>
       </c>
-      <c r="B190" t="n">
+      <c r="B190" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C190" t="inlineStr">
@@ -4589,8 +4595,8 @@
           <t>CLEAN DISH TABLE</t>
         </is>
       </c>
-      <c r="F190" s="5" t="n"/>
-      <c r="G190" s="6" t="n"/>
+      <c r="F190" s="7" t="n"/>
+      <c r="G190" s="8" t="n"/>
       <c r="S190" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION EXISTING TO REMAIN</t>
@@ -4598,10 +4604,10 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="n">
+      <c r="A191" s="5" t="n">
         <v>182</v>
       </c>
-      <c r="B191" t="n">
+      <c r="B191" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C191" t="inlineStr">
@@ -4609,8 +4615,8 @@
           <t>GLASS RACK SHELF</t>
         </is>
       </c>
-      <c r="F191" s="5" t="n"/>
-      <c r="G191" s="6" t="n"/>
+      <c r="F191" s="7" t="n"/>
+      <c r="G191" s="8" t="n"/>
       <c r="S191" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WALL MOUNTED</t>
@@ -4618,10 +4624,10 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="n">
+      <c r="A192" s="5" t="n">
         <v>183</v>
       </c>
-      <c r="B192" t="n">
+      <c r="B192" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C192" t="inlineStr">
@@ -4635,10 +4641,10 @@
       <c r="E192" t="n">
         <v>1</v>
       </c>
-      <c r="F192" s="5" t="n">
+      <c r="F192" s="7" t="n">
         <v>30.5</v>
       </c>
-      <c r="G192" s="6">
+      <c r="G192" s="8">
         <f>IF(E192&gt;1,(1.732*D192*F192)/1000,(D192*F192)/1000)</f>
         <v/>
       </c>
@@ -4662,10 +4668,10 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="n">
+      <c r="A193" s="5" t="n">
         <v>184</v>
       </c>
-      <c r="B193" t="inlineStr">
+      <c r="B193" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4675,14 +4681,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F193" s="5" t="n"/>
-      <c r="G193" s="6" t="n"/>
+      <c r="F193" s="7" t="n"/>
+      <c r="G193" s="8" t="n"/>
     </row>
     <row r="194">
-      <c r="A194" t="n">
+      <c r="A194" s="5" t="n">
         <v>185</v>
       </c>
-      <c r="B194" t="inlineStr">
+      <c r="B194" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4692,14 +4698,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F194" s="5" t="n"/>
-      <c r="G194" s="6" t="n"/>
+      <c r="F194" s="7" t="n"/>
+      <c r="G194" s="8" t="n"/>
     </row>
     <row r="195">
-      <c r="A195" t="n">
+      <c r="A195" s="5" t="n">
         <v>186</v>
       </c>
-      <c r="B195" t="n">
+      <c r="B195" s="6" t="n">
         <v>3</v>
       </c>
       <c r="C195" t="inlineStr">
@@ -4707,8 +4713,8 @@
           <t>DRY STORAGE SHELVING</t>
         </is>
       </c>
-      <c r="F195" s="5" t="n"/>
-      <c r="G195" s="6" t="n"/>
+      <c r="F195" s="7" t="n"/>
+      <c r="G195" s="8" t="n"/>
       <c r="S195" t="inlineStr">
         <is>
           <t>FIXED FOUR TIER</t>
@@ -4716,10 +4722,10 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="n">
+      <c r="A196" s="5" t="n">
         <v>187</v>
       </c>
-      <c r="B196" t="n">
+      <c r="B196" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C196" t="inlineStr">
@@ -4733,10 +4739,10 @@
       <c r="E196" t="n">
         <v>1</v>
       </c>
-      <c r="F196" s="5" t="n">
+      <c r="F196" s="7" t="n">
         <v>20</v>
       </c>
-      <c r="G196" s="6">
+      <c r="G196" s="8">
         <f>IF(E196&gt;1,(1.732*D196*F196)/1000,(D196*F196)/1000)</f>
         <v/>
       </c>
@@ -4747,10 +4753,10 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="n">
+      <c r="A197" s="5" t="n">
         <v>188</v>
       </c>
-      <c r="B197" t="n">
+      <c r="B197" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C197" t="inlineStr">
@@ -4764,10 +4770,10 @@
       <c r="E197" t="n">
         <v>3</v>
       </c>
-      <c r="F197" s="5" t="n">
+      <c r="F197" s="7" t="n">
         <v>4.7</v>
       </c>
-      <c r="G197" s="6">
+      <c r="G197" s="8">
         <f>IF(E197&gt;1,(1.732*D197*F197)/1000,(D197*F197)/1000)</f>
         <v/>
       </c>
@@ -4788,10 +4794,10 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="n">
+      <c r="A198" s="5" t="n">
         <v>189</v>
       </c>
-      <c r="B198" t="inlineStr">
+      <c r="B198" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4801,14 +4807,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F198" s="5" t="n"/>
-      <c r="G198" s="6" t="n"/>
+      <c r="F198" s="7" t="n"/>
+      <c r="G198" s="8" t="n"/>
     </row>
     <row r="199">
-      <c r="A199" t="n">
+      <c r="A199" s="5" t="n">
         <v>190</v>
       </c>
-      <c r="B199" t="inlineStr">
+      <c r="B199" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4818,14 +4824,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F199" s="5" t="n"/>
-      <c r="G199" s="6" t="n"/>
+      <c r="F199" s="7" t="n"/>
+      <c r="G199" s="8" t="n"/>
     </row>
     <row r="200">
-      <c r="A200" t="n">
+      <c r="A200" s="5" t="n">
         <v>191</v>
       </c>
-      <c r="B200" t="n">
+      <c r="B200" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C200" t="inlineStr">
@@ -4839,10 +4845,10 @@
       <c r="E200" t="n">
         <v>3</v>
       </c>
-      <c r="F200" s="5" t="n">
+      <c r="F200" s="7" t="n">
         <v>11.4</v>
       </c>
-      <c r="G200" s="6">
+      <c r="G200" s="8">
         <f>IF(E200&gt;1,(1.732*D200*F200)/1000,(D200*F200)/1000)</f>
         <v/>
       </c>
@@ -4863,10 +4869,10 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="n">
+      <c r="A201" s="5" t="n">
         <v>192</v>
       </c>
-      <c r="B201" t="n">
+      <c r="B201" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C201" t="inlineStr">
@@ -4880,10 +4886,10 @@
       <c r="E201" t="n">
         <v>1</v>
       </c>
-      <c r="F201" s="5" t="n">
+      <c r="F201" s="7" t="n">
         <v>1.8</v>
       </c>
-      <c r="G201" s="6">
+      <c r="G201" s="8">
         <f>IF(E201&gt;1,(1.732*D201*F201)/1000,(D201*F201)/1000)</f>
         <v/>
       </c>
@@ -4894,10 +4900,10 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="n">
+      <c r="A202" s="5" t="n">
         <v>193</v>
       </c>
-      <c r="B202" t="n">
+      <c r="B202" s="6" t="n">
         <v>5</v>
       </c>
       <c r="C202" t="inlineStr">
@@ -4905,8 +4911,8 @@
           <t>COOLER STORAGE SHELVING</t>
         </is>
       </c>
-      <c r="F202" s="5" t="n"/>
-      <c r="G202" s="6" t="n"/>
+      <c r="F202" s="7" t="n"/>
+      <c r="G202" s="8" t="n"/>
       <c r="S202" t="inlineStr">
         <is>
           <t>MOBILE FIVE TIER</t>
@@ -4914,10 +4920,10 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="n">
+      <c r="A203" s="5" t="n">
         <v>194</v>
       </c>
-      <c r="B203" t="n">
+      <c r="B203" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C203" t="inlineStr">
@@ -4931,19 +4937,19 @@
       <c r="E203" t="n">
         <v>1</v>
       </c>
-      <c r="F203" s="5" t="n">
+      <c r="F203" s="7" t="n">
         <v>20</v>
       </c>
-      <c r="G203" s="6">
+      <c r="G203" s="8">
         <f>IF(E203&gt;1,(1.732*D203*F203)/1000,(D203*F203)/1000)</f>
         <v/>
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="n">
+      <c r="A204" s="5" t="n">
         <v>195</v>
       </c>
-      <c r="B204" t="inlineStr">
+      <c r="B204" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4953,14 +4959,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F204" s="5" t="n"/>
-      <c r="G204" s="6" t="n"/>
+      <c r="F204" s="7" t="n"/>
+      <c r="G204" s="8" t="n"/>
     </row>
     <row r="205">
-      <c r="A205" t="n">
+      <c r="A205" s="5" t="n">
         <v>196</v>
       </c>
-      <c r="B205" t="n">
+      <c r="B205" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C205" t="inlineStr">
@@ -4974,10 +4980,10 @@
       <c r="E205" t="n">
         <v>1</v>
       </c>
-      <c r="F205" s="5" t="n">
+      <c r="F205" s="7" t="n">
         <v>1.8</v>
       </c>
-      <c r="G205" s="6">
+      <c r="G205" s="8">
         <f>IF(E205&gt;1,(1.732*D205*F205)/1000,(D205*F205)/1000)</f>
         <v/>
       </c>
@@ -4988,10 +4994,10 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" t="n">
+      <c r="A206" s="5" t="n">
         <v>197</v>
       </c>
-      <c r="B206" t="n">
+      <c r="B206" s="6" t="n">
         <v>3</v>
       </c>
       <c r="C206" t="inlineStr">
@@ -4999,8 +5005,8 @@
           <t>FREEZER STORAGE SHELVING</t>
         </is>
       </c>
-      <c r="F206" s="5" t="n"/>
-      <c r="G206" s="6" t="n"/>
+      <c r="F206" s="7" t="n"/>
+      <c r="G206" s="8" t="n"/>
       <c r="S206" t="inlineStr">
         <is>
           <t>MOBILE FIVE TIER</t>
@@ -5008,10 +5014,10 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="n">
+      <c r="A207" s="5" t="n">
         <v>198</v>
       </c>
-      <c r="B207" t="inlineStr">
+      <c r="B207" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5021,14 +5027,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F207" s="5" t="n"/>
-      <c r="G207" s="6" t="n"/>
+      <c r="F207" s="7" t="n"/>
+      <c r="G207" s="8" t="n"/>
     </row>
     <row r="208">
-      <c r="A208" t="n">
+      <c r="A208" s="5" t="n">
         <v>199</v>
       </c>
-      <c r="B208" t="inlineStr">
+      <c r="B208" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5038,16 +5044,16 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F208" s="5" t="n"/>
-      <c r="G208" s="6" t="n"/>
+      <c r="F208" s="7" t="n"/>
+      <c r="G208" s="8" t="n"/>
     </row>
     <row r="209">
-      <c r="A209" t="inlineStr">
+      <c r="A209" s="5" t="inlineStr">
         <is>
           <t>200- 213</t>
         </is>
       </c>
-      <c r="B209" t="inlineStr">
+      <c r="B209" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5057,14 +5063,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F209" s="5" t="n"/>
-      <c r="G209" s="6" t="n"/>
+      <c r="F209" s="7" t="n"/>
+      <c r="G209" s="8" t="n"/>
     </row>
     <row r="210">
-      <c r="A210" t="n">
+      <c r="A210" s="5" t="n">
         <v>214</v>
       </c>
-      <c r="B210" t="n">
+      <c r="B210" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C210" t="inlineStr">
@@ -5072,8 +5078,8 @@
           <t>COOLER CONDENSING UNIT</t>
         </is>
       </c>
-      <c r="F210" s="5" t="n"/>
-      <c r="G210" s="6" t="n"/>
+      <c r="F210" s="7" t="n"/>
+      <c r="G210" s="8" t="n"/>
       <c r="S210" t="inlineStr">
         <is>
           <t>ON EMERGENCY POWER EXISTING TO REMAIN</t>
@@ -5081,12 +5087,12 @@
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="inlineStr">
+      <c r="A211" s="5" t="inlineStr">
         <is>
           <t>215- 300</t>
         </is>
       </c>
-      <c r="B211" t="inlineStr">
+      <c r="B211" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5096,8 +5102,8 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F211" s="5" t="n"/>
-      <c r="G211" s="6" t="n"/>
+      <c r="F211" s="7" t="n"/>
+      <c r="G211" s="8" t="n"/>
     </row>
     <row r="212">
       <c r="A212" s="3" t="inlineStr">
@@ -5125,10 +5131,10 @@
       <c r="S212" s="4" t="n"/>
     </row>
     <row r="213">
-      <c r="A213" t="n">
+      <c r="A213" s="5" t="n">
         <v>301</v>
       </c>
-      <c r="B213" t="n">
+      <c r="B213" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C213" t="inlineStr">
@@ -5136,8 +5142,8 @@
           <t>DUMP SINK</t>
         </is>
       </c>
-      <c r="F213" s="5" t="n"/>
-      <c r="G213" s="6" t="n"/>
+      <c r="F213" s="7" t="n"/>
+      <c r="G213" s="8" t="n"/>
       <c r="H213" t="inlineStr">
         <is>
           <t>1/2"</t>
@@ -5163,10 +5169,10 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="n">
+      <c r="A214" s="5" t="n">
         <v>302</v>
       </c>
-      <c r="B214" t="n">
+      <c r="B214" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C214" t="inlineStr">
@@ -5174,8 +5180,8 @@
           <t>TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="F214" s="5" t="n"/>
-      <c r="G214" s="6" t="n"/>
+      <c r="F214" s="7" t="n"/>
+      <c r="G214" s="8" t="n"/>
       <c r="S214" t="inlineStr">
         <is>
           <t>SLIM JIM EXISTING TO REMAIN</t>
@@ -5183,10 +5189,10 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="n">
+      <c r="A215" s="5" t="n">
         <v>303</v>
       </c>
-      <c r="B215" t="n">
+      <c r="B215" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C215" t="inlineStr">
@@ -5194,8 +5200,8 @@
           <t>WORK TABLE WITH SINK</t>
         </is>
       </c>
-      <c r="F215" s="5" t="n"/>
-      <c r="G215" s="6" t="n"/>
+      <c r="F215" s="7" t="n"/>
+      <c r="G215" s="8" t="n"/>
       <c r="S215" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION EXISTING TO REMAIN</t>
@@ -5203,10 +5209,10 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="n">
+      <c r="A216" s="5" t="n">
         <v>304</v>
       </c>
-      <c r="B216" t="n">
+      <c r="B216" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C216" t="inlineStr">
@@ -5214,8 +5220,8 @@
           <t>GLASS RACK SHELF</t>
         </is>
       </c>
-      <c r="F216" s="5" t="n"/>
-      <c r="G216" s="6" t="n"/>
+      <c r="F216" s="7" t="n"/>
+      <c r="G216" s="8" t="n"/>
       <c r="S216" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WALL MOUNTED EXISTING TO REMAIN</t>
@@ -5223,10 +5229,10 @@
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="n">
+      <c r="A217" s="5" t="n">
         <v>305</v>
       </c>
-      <c r="B217" t="inlineStr">
+      <c r="B217" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5236,14 +5242,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F217" s="5" t="n"/>
-      <c r="G217" s="6" t="n"/>
+      <c r="F217" s="7" t="n"/>
+      <c r="G217" s="8" t="n"/>
     </row>
     <row r="218">
-      <c r="A218" t="n">
+      <c r="A218" s="5" t="n">
         <v>306</v>
       </c>
-      <c r="B218" t="n">
+      <c r="B218" s="6" t="n">
         <v>2</v>
       </c>
       <c r="C218" t="inlineStr">
@@ -5251,8 +5257,8 @@
           <t>GLASS RACK DISH DOLLY</t>
         </is>
       </c>
-      <c r="F218" s="5" t="n"/>
-      <c r="G218" s="6" t="n"/>
+      <c r="F218" s="7" t="n"/>
+      <c r="G218" s="8" t="n"/>
       <c r="S218" t="inlineStr">
         <is>
           <t>MOBILE EXISTING TO REMAIN</t>
@@ -5260,10 +5266,10 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="n">
+      <c r="A219" s="5" t="n">
         <v>307</v>
       </c>
-      <c r="B219" t="n">
+      <c r="B219" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C219" t="inlineStr">
@@ -5277,10 +5283,10 @@
       <c r="E219" t="n">
         <v>1</v>
       </c>
-      <c r="F219" s="5" t="n">
+      <c r="F219" s="7" t="n">
         <v>27.5</v>
       </c>
-      <c r="G219" s="6">
+      <c r="G219" s="8">
         <f>IF(E219&gt;1,(1.732*D219*F219)/1000,(D219*F219)/1000)</f>
         <v/>
       </c>
@@ -5289,10 +5295,10 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="n">
+      <c r="A220" s="5" t="n">
         <v>308</v>
       </c>
-      <c r="B220" t="n">
+      <c r="B220" s="6" t="n">
         <v>3</v>
       </c>
       <c r="C220" t="inlineStr">
@@ -5300,8 +5306,8 @@
           <t>AIR POT</t>
         </is>
       </c>
-      <c r="F220" s="5" t="n"/>
-      <c r="G220" s="6" t="n"/>
+      <c r="F220" s="7" t="n"/>
+      <c r="G220" s="8" t="n"/>
       <c r="S220" t="inlineStr">
         <is>
           <t>BY VENDOR EXISTING TO REMAIN</t>
@@ -5309,10 +5315,10 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="n">
+      <c r="A221" s="5" t="n">
         <v>309</v>
       </c>
-      <c r="B221" t="inlineStr">
+      <c r="B221" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5322,14 +5328,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F221" s="5" t="n"/>
-      <c r="G221" s="6" t="n"/>
+      <c r="F221" s="7" t="n"/>
+      <c r="G221" s="8" t="n"/>
     </row>
     <row r="222">
-      <c r="A222" t="n">
+      <c r="A222" s="5" t="n">
         <v>310</v>
       </c>
-      <c r="B222" t="n">
+      <c r="B222" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C222" t="inlineStr">
@@ -5337,8 +5343,8 @@
           <t>UNDER COUNTER WATER FILTRATION SYSTEM</t>
         </is>
       </c>
-      <c r="F222" s="5" t="n"/>
-      <c r="G222" s="6" t="n"/>
+      <c r="F222" s="7" t="n"/>
+      <c r="G222" s="8" t="n"/>
       <c r="H222" t="inlineStr">
         <is>
           <t>3/8"</t>
@@ -5354,10 +5360,10 @@
       </c>
     </row>
     <row r="223">
-      <c r="A223" t="n">
+      <c r="A223" s="5" t="n">
         <v>311</v>
       </c>
-      <c r="B223" t="n">
+      <c r="B223" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C223" t="inlineStr">
@@ -5365,8 +5371,8 @@
           <t>COFFEE / ESPRESSO MACHINE</t>
         </is>
       </c>
-      <c r="F223" s="5" t="n"/>
-      <c r="G223" s="6" t="n"/>
+      <c r="F223" s="7" t="n"/>
+      <c r="G223" s="8" t="n"/>
       <c r="S223" t="inlineStr">
         <is>
           <t>EXISTING TO REMAIN</t>
@@ -5374,10 +5380,10 @@
       </c>
     </row>
     <row r="224">
-      <c r="A224" t="n">
+      <c r="A224" s="5" t="n">
         <v>312</v>
       </c>
-      <c r="B224" t="n">
+      <c r="B224" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C224" t="inlineStr">
@@ -5385,8 +5391,8 @@
           <t>GLASS RACK</t>
         </is>
       </c>
-      <c r="F224" s="5" t="n"/>
-      <c r="G224" s="6" t="n"/>
+      <c r="F224" s="7" t="n"/>
+      <c r="G224" s="8" t="n"/>
       <c r="S224" t="inlineStr">
         <is>
           <t>EXISTING TO REMAIN</t>
@@ -5394,10 +5400,10 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" t="n">
+      <c r="A225" s="5" t="n">
         <v>313</v>
       </c>
-      <c r="B225" t="n">
+      <c r="B225" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C225" t="inlineStr">
@@ -5405,8 +5411,8 @@
           <t>TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="F225" s="5" t="n"/>
-      <c r="G225" s="6" t="n"/>
+      <c r="F225" s="7" t="n"/>
+      <c r="G225" s="8" t="n"/>
       <c r="S225" t="inlineStr">
         <is>
           <t>SLIM JIM EXISTING TO REMAIN</t>
@@ -5414,10 +5420,10 @@
       </c>
     </row>
     <row r="226">
-      <c r="A226" t="n">
+      <c r="A226" s="5" t="n">
         <v>314</v>
       </c>
-      <c r="B226" t="inlineStr">
+      <c r="B226" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5427,14 +5433,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F226" s="5" t="n"/>
-      <c r="G226" s="6" t="n"/>
+      <c r="F226" s="7" t="n"/>
+      <c r="G226" s="8" t="n"/>
     </row>
     <row r="227">
-      <c r="A227" t="n">
+      <c r="A227" s="5" t="n">
         <v>315</v>
       </c>
-      <c r="B227" t="n">
+      <c r="B227" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C227" t="inlineStr">
@@ -5448,10 +5454,10 @@
       <c r="E227" t="n">
         <v>1</v>
       </c>
-      <c r="F227" s="5" t="n">
+      <c r="F227" s="7" t="n">
         <v>15</v>
       </c>
-      <c r="G227" s="6">
+      <c r="G227" s="8">
         <f>IF(E227&gt;1,(1.732*D227*F227)/1000,(D227*F227)/1000)</f>
         <v/>
       </c>
@@ -5462,10 +5468,10 @@
       </c>
     </row>
     <row r="228">
-      <c r="A228" t="n">
+      <c r="A228" s="5" t="n">
         <v>316</v>
       </c>
-      <c r="B228" t="n">
+      <c r="B228" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C228" t="inlineStr">
@@ -5473,8 +5479,8 @@
           <t>UNDERCOUNTER REFRIGERATOR</t>
         </is>
       </c>
-      <c r="F228" s="5" t="n"/>
-      <c r="G228" s="6" t="n"/>
+      <c r="F228" s="7" t="n"/>
+      <c r="G228" s="8" t="n"/>
       <c r="S228" t="inlineStr">
         <is>
           <t>MOBILE EXISTING TO REMAIN</t>
@@ -5482,10 +5488,10 @@
       </c>
     </row>
     <row r="229">
-      <c r="A229" t="n">
+      <c r="A229" s="5" t="n">
         <v>317</v>
       </c>
-      <c r="B229" t="n">
+      <c r="B229" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C229" t="inlineStr">
@@ -5493,8 +5499,8 @@
           <t>CO2 TANK</t>
         </is>
       </c>
-      <c r="F229" s="5" t="n"/>
-      <c r="G229" s="6" t="n"/>
+      <c r="F229" s="7" t="n"/>
+      <c r="G229" s="8" t="n"/>
       <c r="S229" t="inlineStr">
         <is>
           <t>EXISTING TO REMAIN</t>
@@ -5502,10 +5508,10 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" t="n">
+      <c r="A230" s="5" t="n">
         <v>318</v>
       </c>
-      <c r="B230" t="n">
+      <c r="B230" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C230" t="inlineStr">
@@ -5513,8 +5519,8 @@
           <t>WATER DISPENSER</t>
         </is>
       </c>
-      <c r="F230" s="5" t="n"/>
-      <c r="G230" s="6" t="n"/>
+      <c r="F230" s="7" t="n"/>
+      <c r="G230" s="8" t="n"/>
       <c r="S230" t="inlineStr">
         <is>
           <t>EXISTING TO REMAIN</t>
@@ -5522,10 +5528,10 @@
       </c>
     </row>
     <row r="231">
-      <c r="A231" t="n">
+      <c r="A231" s="5" t="n">
         <v>319</v>
       </c>
-      <c r="B231" t="n">
+      <c r="B231" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C231" t="inlineStr">
@@ -5539,19 +5545,19 @@
       <c r="E231" t="n">
         <v>1</v>
       </c>
-      <c r="F231" s="5" t="n">
+      <c r="F231" s="7" t="n">
         <v>15</v>
       </c>
-      <c r="G231" s="6">
+      <c r="G231" s="8">
         <f>IF(E231&gt;1,(1.732*D231*F231)/1000,(D231*F231)/1000)</f>
         <v/>
       </c>
     </row>
     <row r="232">
-      <c r="A232" t="n">
+      <c r="A232" s="5" t="n">
         <v>320</v>
       </c>
-      <c r="B232" t="n">
+      <c r="B232" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C232" t="inlineStr">
@@ -5559,8 +5565,8 @@
           <t>UNDER COUNTER WATER FILTRATION SYSTEM</t>
         </is>
       </c>
-      <c r="F232" s="5" t="n"/>
-      <c r="G232" s="6" t="n"/>
+      <c r="F232" s="7" t="n"/>
+      <c r="G232" s="8" t="n"/>
       <c r="H232" t="inlineStr">
         <is>
           <t>3/8"</t>
@@ -5576,10 +5582,10 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="n">
+      <c r="A233" s="5" t="n">
         <v>321</v>
       </c>
-      <c r="B233" t="n">
+      <c r="B233" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C233" t="inlineStr">
@@ -5593,19 +5599,19 @@
       <c r="E233" t="n">
         <v>1</v>
       </c>
-      <c r="F233" s="5" t="n">
+      <c r="F233" s="7" t="n">
         <v>2.4</v>
       </c>
-      <c r="G233" s="6">
+      <c r="G233" s="8">
         <f>IF(E233&gt;1,(1.732*D233*F233)/1000,(D233*F233)/1000)</f>
         <v/>
       </c>
     </row>
     <row r="234">
-      <c r="A234" t="n">
+      <c r="A234" s="5" t="n">
         <v>322</v>
       </c>
-      <c r="B234" t="n">
+      <c r="B234" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C234" t="inlineStr">
@@ -5613,8 +5619,8 @@
           <t>GLASS FILLER STATION</t>
         </is>
       </c>
-      <c r="F234" s="5" t="n"/>
-      <c r="G234" s="6" t="n"/>
+      <c r="F234" s="7" t="n"/>
+      <c r="G234" s="8" t="n"/>
       <c r="S234" t="inlineStr">
         <is>
           <t>EXISTING TO REMAIN</t>
@@ -5622,10 +5628,10 @@
       </c>
     </row>
     <row r="235">
-      <c r="A235" t="n">
+      <c r="A235" s="5" t="n">
         <v>323</v>
       </c>
-      <c r="B235" t="n">
+      <c r="B235" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C235" t="inlineStr">
@@ -5633,8 +5639,8 @@
           <t>ICE BIN</t>
         </is>
       </c>
-      <c r="F235" s="5" t="n"/>
-      <c r="G235" s="6" t="n"/>
+      <c r="F235" s="7" t="n"/>
+      <c r="G235" s="8" t="n"/>
       <c r="S235" t="inlineStr">
         <is>
           <t>EXISTING TO REMAIN</t>
@@ -5642,10 +5648,10 @@
       </c>
     </row>
     <row r="236">
-      <c r="A236" t="n">
+      <c r="A236" s="5" t="n">
         <v>324</v>
       </c>
-      <c r="B236" t="n">
+      <c r="B236" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C236" t="inlineStr">
@@ -5653,8 +5659,8 @@
           <t>ICE CART</t>
         </is>
       </c>
-      <c r="F236" s="5" t="n"/>
-      <c r="G236" s="6" t="n"/>
+      <c r="F236" s="7" t="n"/>
+      <c r="G236" s="8" t="n"/>
       <c r="S236" t="inlineStr">
         <is>
           <t>MOBILE EXISTING TO REMAIN</t>
@@ -5662,10 +5668,10 @@
       </c>
     </row>
     <row r="237">
-      <c r="A237" t="n">
+      <c r="A237" s="5" t="n">
         <v>325</v>
       </c>
-      <c r="B237" t="inlineStr">
+      <c r="B237" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5675,14 +5681,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F237" s="5" t="n"/>
-      <c r="G237" s="6" t="n"/>
+      <c r="F237" s="7" t="n"/>
+      <c r="G237" s="8" t="n"/>
     </row>
     <row r="238">
-      <c r="A238" t="n">
+      <c r="A238" s="5" t="n">
         <v>326</v>
       </c>
-      <c r="B238" t="n">
+      <c r="B238" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C238" t="inlineStr">
@@ -5690,8 +5696,8 @@
           <t>POS SYSTEM</t>
         </is>
       </c>
-      <c r="F238" s="5" t="n"/>
-      <c r="G238" s="6" t="n"/>
+      <c r="F238" s="7" t="n"/>
+      <c r="G238" s="8" t="n"/>
       <c r="S238" t="inlineStr">
         <is>
           <t>BY OS&amp;E EXISTING TO REMAIN</t>
@@ -5699,10 +5705,10 @@
       </c>
     </row>
     <row r="239">
-      <c r="A239" t="n">
+      <c r="A239" s="5" t="n">
         <v>327</v>
       </c>
-      <c r="B239" t="n">
+      <c r="B239" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C239" t="inlineStr">
@@ -5710,8 +5716,8 @@
           <t>POS PRINTER</t>
         </is>
       </c>
-      <c r="F239" s="5" t="n"/>
-      <c r="G239" s="6" t="n"/>
+      <c r="F239" s="7" t="n"/>
+      <c r="G239" s="8" t="n"/>
       <c r="S239" t="inlineStr">
         <is>
           <t>EXISTING TO REMAIN</t>
@@ -5719,10 +5725,10 @@
       </c>
     </row>
     <row r="240">
-      <c r="A240" t="n">
+      <c r="A240" s="5" t="n">
         <v>328</v>
       </c>
-      <c r="B240" t="n">
+      <c r="B240" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C240" t="inlineStr">
@@ -5730,8 +5736,8 @@
           <t>POS SYSTEM</t>
         </is>
       </c>
-      <c r="F240" s="5" t="n"/>
-      <c r="G240" s="6" t="n"/>
+      <c r="F240" s="7" t="n"/>
+      <c r="G240" s="8" t="n"/>
       <c r="S240" t="inlineStr">
         <is>
           <t>BY OS&amp;E EXISTING TO REMAIN</t>
@@ -5739,10 +5745,10 @@
       </c>
     </row>
     <row r="241">
-      <c r="A241" t="n">
+      <c r="A241" s="5" t="n">
         <v>329</v>
       </c>
-      <c r="B241" t="inlineStr">
+      <c r="B241" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5752,14 +5758,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F241" s="5" t="n"/>
-      <c r="G241" s="6" t="n"/>
+      <c r="F241" s="7" t="n"/>
+      <c r="G241" s="8" t="n"/>
     </row>
     <row r="242">
-      <c r="A242" t="n">
+      <c r="A242" s="5" t="n">
         <v>330</v>
       </c>
-      <c r="B242" t="inlineStr">
+      <c r="B242" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5769,14 +5775,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F242" s="5" t="n"/>
-      <c r="G242" s="6" t="n"/>
+      <c r="F242" s="7" t="n"/>
+      <c r="G242" s="8" t="n"/>
     </row>
     <row r="243">
-      <c r="A243" t="n">
+      <c r="A243" s="5" t="n">
         <v>331</v>
       </c>
-      <c r="B243" t="n">
+      <c r="B243" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C243" t="inlineStr">
@@ -5784,8 +5790,8 @@
           <t>POS PRINTER</t>
         </is>
       </c>
-      <c r="F243" s="5" t="n"/>
-      <c r="G243" s="6" t="n"/>
+      <c r="F243" s="7" t="n"/>
+      <c r="G243" s="8" t="n"/>
       <c r="S243" t="inlineStr">
         <is>
           <t>EXISTING TO REMAIN</t>
@@ -5793,10 +5799,10 @@
       </c>
     </row>
     <row r="244">
-      <c r="A244" t="n">
+      <c r="A244" s="5" t="n">
         <v>332</v>
       </c>
-      <c r="B244" t="n">
+      <c r="B244" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C244" t="inlineStr">
@@ -5804,8 +5810,8 @@
           <t>GLASS RACK DISH DOLLY</t>
         </is>
       </c>
-      <c r="F244" s="5" t="n"/>
-      <c r="G244" s="6" t="n"/>
+      <c r="F244" s="7" t="n"/>
+      <c r="G244" s="8" t="n"/>
       <c r="S244" t="inlineStr">
         <is>
           <t>MOBILE EXISTING TO REMAIN</t>
@@ -5813,10 +5819,10 @@
       </c>
     </row>
     <row r="245">
-      <c r="A245" t="n">
+      <c r="A245" s="5" t="n">
         <v>333</v>
       </c>
-      <c r="B245" t="n">
+      <c r="B245" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C245" t="inlineStr">
@@ -5824,8 +5830,8 @@
           <t>TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="F245" s="5" t="n"/>
-      <c r="G245" s="6" t="n"/>
+      <c r="F245" s="7" t="n"/>
+      <c r="G245" s="8" t="n"/>
       <c r="S245" t="inlineStr">
         <is>
           <t>SLIM JIM EXISTING TO REMAIN</t>
@@ -5833,10 +5839,10 @@
       </c>
     </row>
     <row r="246">
-      <c r="A246" t="n">
+      <c r="A246" s="5" t="n">
         <v>334</v>
       </c>
-      <c r="B246" t="n">
+      <c r="B246" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C246" t="inlineStr">
@@ -5844,8 +5850,8 @@
           <t>WORK TABLE</t>
         </is>
       </c>
-      <c r="F246" s="5" t="n"/>
-      <c r="G246" s="6" t="n"/>
+      <c r="F246" s="7" t="n"/>
+      <c r="G246" s="8" t="n"/>
       <c r="S246" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION EXISTING TO REMAIN</t>
@@ -5853,10 +5859,10 @@
       </c>
     </row>
     <row r="247">
-      <c r="A247" t="n">
+      <c r="A247" s="5" t="n">
         <v>335</v>
       </c>
-      <c r="B247" t="inlineStr">
+      <c r="B247" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5866,14 +5872,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F247" s="5" t="n"/>
-      <c r="G247" s="6" t="n"/>
+      <c r="F247" s="7" t="n"/>
+      <c r="G247" s="8" t="n"/>
     </row>
     <row r="248">
-      <c r="A248" t="n">
+      <c r="A248" s="5" t="n">
         <v>336</v>
       </c>
-      <c r="B248" t="n">
+      <c r="B248" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C248" t="inlineStr">
@@ -5881,8 +5887,8 @@
           <t>HAND SINK</t>
         </is>
       </c>
-      <c r="F248" s="5" t="n"/>
-      <c r="G248" s="6" t="n"/>
+      <c r="F248" s="7" t="n"/>
+      <c r="G248" s="8" t="n"/>
       <c r="S248" t="inlineStr">
         <is>
           <t>WITH SOAP &amp; TOWEL DISPENSER EXISTING TO REMAIN</t>
@@ -5890,10 +5896,10 @@
       </c>
     </row>
     <row r="249">
-      <c r="A249" t="n">
+      <c r="A249" s="5" t="n">
         <v>337</v>
       </c>
-      <c r="B249" t="n">
+      <c r="B249" s="6" t="n">
         <v>2</v>
       </c>
       <c r="C249" t="inlineStr">
@@ -5907,19 +5913,19 @@
       <c r="E249" t="n">
         <v>1</v>
       </c>
-      <c r="F249" s="5" t="n">
+      <c r="F249" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="G249" s="6">
+      <c r="G249" s="8">
         <f>IF(E249&gt;1,(1.732*D249*F249)/1000,(D249*F249)/1000)</f>
         <v/>
       </c>
     </row>
     <row r="250">
-      <c r="A250" t="n">
+      <c r="A250" s="5" t="n">
         <v>338</v>
       </c>
-      <c r="B250" t="n">
+      <c r="B250" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C250" t="inlineStr">
@@ -5933,10 +5939,10 @@
       <c r="E250" t="n">
         <v>1</v>
       </c>
-      <c r="F250" s="5" t="n">
+      <c r="F250" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="G250" s="6">
+      <c r="G250" s="8">
         <f>IF(E250&gt;1,(1.732*D250*F250)/1000,(D250*F250)/1000)</f>
         <v/>
       </c>
@@ -5947,10 +5953,10 @@
       </c>
     </row>
     <row r="251">
-      <c r="A251" t="n">
+      <c r="A251" s="5" t="n">
         <v>339</v>
       </c>
-      <c r="B251" t="inlineStr">
+      <c r="B251" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5960,16 +5966,16 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F251" s="5" t="n"/>
-      <c r="G251" s="6" t="n"/>
+      <c r="F251" s="7" t="n"/>
+      <c r="G251" s="8" t="n"/>
     </row>
     <row r="252">
-      <c r="A252" t="inlineStr">
+      <c r="A252" s="5" t="inlineStr">
         <is>
           <t>340- 400</t>
         </is>
       </c>
-      <c r="B252" t="inlineStr">
+      <c r="B252" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5979,8 +5985,8 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F252" s="5" t="n"/>
-      <c r="G252" s="6" t="n"/>
+      <c r="F252" s="7" t="n"/>
+      <c r="G252" s="8" t="n"/>
     </row>
     <row r="253">
       <c r="A253" s="3" t="inlineStr">
@@ -6008,10 +6014,10 @@
       <c r="S253" s="4" t="n"/>
     </row>
     <row r="254">
-      <c r="A254" t="n">
+      <c r="A254" s="5" t="n">
         <v>401</v>
       </c>
-      <c r="B254" t="n">
+      <c r="B254" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C254" t="inlineStr">
@@ -6019,8 +6025,8 @@
           <t>BAR TOP AND DIE</t>
         </is>
       </c>
-      <c r="F254" s="5" t="n"/>
-      <c r="G254" s="6" t="n"/>
+      <c r="F254" s="7" t="n"/>
+      <c r="G254" s="8" t="n"/>
       <c r="S254" t="inlineStr">
         <is>
           <t>BY INTERIOR DESIGNER GRANITE TOP WITH DRINK RAIL</t>
@@ -6028,10 +6034,10 @@
       </c>
     </row>
     <row r="255">
-      <c r="A255" t="n">
+      <c r="A255" s="5" t="n">
         <v>402</v>
       </c>
-      <c r="B255" t="n">
+      <c r="B255" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C255" t="inlineStr">
@@ -6045,19 +6051,19 @@
       <c r="E255" t="n">
         <v>1</v>
       </c>
-      <c r="F255" s="5" t="n">
+      <c r="F255" s="7" t="n">
         <v>1.9</v>
       </c>
-      <c r="G255" s="6">
+      <c r="G255" s="8">
         <f>IF(E255&gt;1,(1.732*D255*F255)/1000,(D255*F255)/1000)</f>
         <v/>
       </c>
     </row>
     <row r="256">
-      <c r="A256" t="n">
+      <c r="A256" s="5" t="n">
         <v>403</v>
       </c>
-      <c r="B256" t="n">
+      <c r="B256" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C256" t="inlineStr">
@@ -6065,14 +6071,14 @@
           <t>BAR FILLER</t>
         </is>
       </c>
-      <c r="F256" s="5" t="n"/>
-      <c r="G256" s="6" t="n"/>
+      <c r="F256" s="7" t="n"/>
+      <c r="G256" s="8" t="n"/>
     </row>
     <row r="257">
-      <c r="A257" t="n">
+      <c r="A257" s="5" t="n">
         <v>404</v>
       </c>
-      <c r="B257" t="n">
+      <c r="B257" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C257" t="inlineStr">
@@ -6080,8 +6086,8 @@
           <t>DUMP SINK</t>
         </is>
       </c>
-      <c r="F257" s="5" t="n"/>
-      <c r="G257" s="6" t="n"/>
+      <c r="F257" s="7" t="n"/>
+      <c r="G257" s="8" t="n"/>
       <c r="H257" t="inlineStr">
         <is>
           <t>1/2"</t>
@@ -6102,10 +6108,10 @@
       </c>
     </row>
     <row r="258">
-      <c r="A258" t="n">
+      <c r="A258" s="5" t="n">
         <v>405</v>
       </c>
-      <c r="B258" t="inlineStr">
+      <c r="B258" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6115,14 +6121,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F258" s="5" t="n"/>
-      <c r="G258" s="6" t="n"/>
+      <c r="F258" s="7" t="n"/>
+      <c r="G258" s="8" t="n"/>
     </row>
     <row r="259">
-      <c r="A259" t="n">
+      <c r="A259" s="5" t="n">
         <v>406</v>
       </c>
-      <c r="B259" t="n">
+      <c r="B259" s="6" t="n">
         <v>2</v>
       </c>
       <c r="C259" t="inlineStr">
@@ -6130,8 +6136,8 @@
           <t>GLASS RINSER</t>
         </is>
       </c>
-      <c r="F259" s="5" t="n"/>
-      <c r="G259" s="6" t="n"/>
+      <c r="F259" s="7" t="n"/>
+      <c r="G259" s="8" t="n"/>
       <c r="H259" t="inlineStr">
         <is>
           <t>1/2"</t>
@@ -6144,10 +6150,10 @@
       </c>
     </row>
     <row r="260">
-      <c r="A260" t="n">
+      <c r="A260" s="5" t="n">
         <v>407</v>
       </c>
-      <c r="B260" t="n">
+      <c r="B260" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C260" t="inlineStr">
@@ -6155,8 +6161,8 @@
           <t>SODA GUN HOLDER</t>
         </is>
       </c>
-      <c r="F260" s="5" t="n"/>
-      <c r="G260" s="6" t="n"/>
+      <c r="F260" s="7" t="n"/>
+      <c r="G260" s="8" t="n"/>
       <c r="S260" t="inlineStr">
         <is>
           <t>WITH SODA GUN</t>
@@ -6164,10 +6170,10 @@
       </c>
     </row>
     <row r="261">
-      <c r="A261" t="n">
+      <c r="A261" s="5" t="n">
         <v>408</v>
       </c>
-      <c r="B261" t="n">
+      <c r="B261" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C261" t="inlineStr">
@@ -6175,14 +6181,14 @@
           <t>BAR FILLER</t>
         </is>
       </c>
-      <c r="F261" s="5" t="n"/>
-      <c r="G261" s="6" t="n"/>
+      <c r="F261" s="7" t="n"/>
+      <c r="G261" s="8" t="n"/>
     </row>
     <row r="262">
-      <c r="A262" t="n">
+      <c r="A262" s="5" t="n">
         <v>409</v>
       </c>
-      <c r="B262" t="inlineStr">
+      <c r="B262" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6192,14 +6198,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F262" s="5" t="n"/>
-      <c r="G262" s="6" t="n"/>
+      <c r="F262" s="7" t="n"/>
+      <c r="G262" s="8" t="n"/>
     </row>
     <row r="263">
-      <c r="A263" t="n">
+      <c r="A263" s="5" t="n">
         <v>410</v>
       </c>
-      <c r="B263" t="inlineStr">
+      <c r="B263" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6209,14 +6215,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F263" s="5" t="n"/>
-      <c r="G263" s="6" t="n"/>
+      <c r="F263" s="7" t="n"/>
+      <c r="G263" s="8" t="n"/>
     </row>
     <row r="264">
-      <c r="A264" t="n">
+      <c r="A264" s="5" t="n">
         <v>411</v>
       </c>
-      <c r="B264" t="n">
+      <c r="B264" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C264" t="inlineStr">
@@ -6224,8 +6230,8 @@
           <t>COCKTAIL STATION</t>
         </is>
       </c>
-      <c r="F264" s="5" t="n"/>
-      <c r="G264" s="6" t="n"/>
+      <c r="F264" s="7" t="n"/>
+      <c r="G264" s="8" t="n"/>
       <c r="K264" t="inlineStr">
         <is>
           <t>1/2"</t>
@@ -6233,10 +6239,10 @@
       </c>
     </row>
     <row r="265">
-      <c r="A265" t="n">
+      <c r="A265" s="5" t="n">
         <v>412</v>
       </c>
-      <c r="B265" t="n">
+      <c r="B265" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C265" t="inlineStr">
@@ -6244,14 +6250,14 @@
           <t>SPEED RAIL</t>
         </is>
       </c>
-      <c r="F265" s="5" t="n"/>
-      <c r="G265" s="6" t="n"/>
+      <c r="F265" s="7" t="n"/>
+      <c r="G265" s="8" t="n"/>
     </row>
     <row r="266">
-      <c r="A266" t="n">
+      <c r="A266" s="5" t="n">
         <v>413</v>
       </c>
-      <c r="B266" t="n">
+      <c r="B266" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C266" t="inlineStr">
@@ -6259,14 +6265,14 @@
           <t>BAR FILLER</t>
         </is>
       </c>
-      <c r="F266" s="5" t="n"/>
-      <c r="G266" s="6" t="n"/>
+      <c r="F266" s="7" t="n"/>
+      <c r="G266" s="8" t="n"/>
     </row>
     <row r="267">
-      <c r="A267" t="n">
+      <c r="A267" s="5" t="n">
         <v>414</v>
       </c>
-      <c r="B267" t="n">
+      <c r="B267" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C267" t="inlineStr">
@@ -6274,8 +6280,8 @@
           <t>TRASH UNIT</t>
         </is>
       </c>
-      <c r="F267" s="5" t="n"/>
-      <c r="G267" s="6" t="n"/>
+      <c r="F267" s="7" t="n"/>
+      <c r="G267" s="8" t="n"/>
       <c r="S267" t="inlineStr">
         <is>
           <t>WITH SLIM JIM TRASH RECEPTACLE</t>
@@ -6283,10 +6289,10 @@
       </c>
     </row>
     <row r="268">
-      <c r="A268" t="n">
+      <c r="A268" s="5" t="n">
         <v>415</v>
       </c>
-      <c r="B268" t="inlineStr">
+      <c r="B268" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6296,14 +6302,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F268" s="5" t="n"/>
-      <c r="G268" s="6" t="n"/>
+      <c r="F268" s="7" t="n"/>
+      <c r="G268" s="8" t="n"/>
     </row>
     <row r="269">
-      <c r="A269" t="n">
+      <c r="A269" s="5" t="n">
         <v>416</v>
       </c>
-      <c r="B269" t="n">
+      <c r="B269" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C269" t="inlineStr">
@@ -6311,14 +6317,14 @@
           <t>BAR FILLER</t>
         </is>
       </c>
-      <c r="F269" s="5" t="n"/>
-      <c r="G269" s="6" t="n"/>
+      <c r="F269" s="7" t="n"/>
+      <c r="G269" s="8" t="n"/>
     </row>
     <row r="270">
-      <c r="A270" t="n">
+      <c r="A270" s="5" t="n">
         <v>417</v>
       </c>
-      <c r="B270" t="n">
+      <c r="B270" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C270" t="inlineStr">
@@ -6326,14 +6332,14 @@
           <t>POS CABINET</t>
         </is>
       </c>
-      <c r="F270" s="5" t="n"/>
-      <c r="G270" s="6" t="n"/>
+      <c r="F270" s="7" t="n"/>
+      <c r="G270" s="8" t="n"/>
     </row>
     <row r="271">
-      <c r="A271" t="n">
+      <c r="A271" s="5" t="n">
         <v>418</v>
       </c>
-      <c r="B271" t="n">
+      <c r="B271" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C271" t="inlineStr">
@@ -6347,10 +6353,10 @@
       <c r="E271" t="n">
         <v>1</v>
       </c>
-      <c r="F271" s="5" t="n">
+      <c r="F271" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="G271" s="6">
+      <c r="G271" s="8">
         <f>IF(E271&gt;1,(1.732*D271*F271)/1000,(D271*F271)/1000)</f>
         <v/>
       </c>
@@ -6361,10 +6367,10 @@
       </c>
     </row>
     <row r="272">
-      <c r="A272" t="n">
+      <c r="A272" s="5" t="n">
         <v>419</v>
       </c>
-      <c r="B272" t="inlineStr">
+      <c r="B272" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6374,14 +6380,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F272" s="5" t="n"/>
-      <c r="G272" s="6" t="n"/>
+      <c r="F272" s="7" t="n"/>
+      <c r="G272" s="8" t="n"/>
     </row>
     <row r="273">
-      <c r="A273" t="n">
+      <c r="A273" s="5" t="n">
         <v>420</v>
       </c>
-      <c r="B273" t="inlineStr">
+      <c r="B273" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6391,14 +6397,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F273" s="5" t="n"/>
-      <c r="G273" s="6" t="n"/>
+      <c r="F273" s="7" t="n"/>
+      <c r="G273" s="8" t="n"/>
     </row>
     <row r="274">
-      <c r="A274" t="n">
+      <c r="A274" s="5" t="n">
         <v>421</v>
       </c>
-      <c r="B274" t="n">
+      <c r="B274" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C274" t="inlineStr">
@@ -6412,10 +6418,10 @@
       <c r="E274" t="n">
         <v>1</v>
       </c>
-      <c r="F274" s="5" t="n">
+      <c r="F274" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="G274" s="6">
+      <c r="G274" s="8">
         <f>IF(E274&gt;1,(1.732*D274*F274)/1000,(D274*F274)/1000)</f>
         <v/>
       </c>
@@ -6426,10 +6432,10 @@
       </c>
     </row>
     <row r="275">
-      <c r="A275" t="n">
+      <c r="A275" s="5" t="n">
         <v>422</v>
       </c>
-      <c r="B275" t="n">
+      <c r="B275" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C275" t="inlineStr">
@@ -6437,14 +6443,14 @@
           <t>BAR FILLER</t>
         </is>
       </c>
-      <c r="F275" s="5" t="n"/>
-      <c r="G275" s="6" t="n"/>
+      <c r="F275" s="7" t="n"/>
+      <c r="G275" s="8" t="n"/>
     </row>
     <row r="276">
-      <c r="A276" t="n">
+      <c r="A276" s="5" t="n">
         <v>423</v>
       </c>
-      <c r="B276" t="n">
+      <c r="B276" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C276" t="inlineStr">
@@ -6452,8 +6458,8 @@
           <t>DUMP SINK</t>
         </is>
       </c>
-      <c r="F276" s="5" t="n"/>
-      <c r="G276" s="6" t="n"/>
+      <c r="F276" s="7" t="n"/>
+      <c r="G276" s="8" t="n"/>
       <c r="H276" t="inlineStr">
         <is>
           <t>1/2"</t>
@@ -6474,10 +6480,10 @@
       </c>
     </row>
     <row r="277">
-      <c r="A277" t="n">
+      <c r="A277" s="5" t="n">
         <v>424</v>
       </c>
-      <c r="B277" t="n">
+      <c r="B277" s="6" t="n">
         <v>2</v>
       </c>
       <c r="C277" t="inlineStr">
@@ -6485,8 +6491,8 @@
           <t>GLASS RINSER</t>
         </is>
       </c>
-      <c r="F277" s="5" t="n"/>
-      <c r="G277" s="6" t="n"/>
+      <c r="F277" s="7" t="n"/>
+      <c r="G277" s="8" t="n"/>
       <c r="H277" t="inlineStr">
         <is>
           <t>1/2"</t>
@@ -6499,10 +6505,10 @@
       </c>
     </row>
     <row r="278">
-      <c r="A278" t="n">
+      <c r="A278" s="5" t="n">
         <v>425</v>
       </c>
-      <c r="B278" t="inlineStr">
+      <c r="B278" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6512,14 +6518,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F278" s="5" t="n"/>
-      <c r="G278" s="6" t="n"/>
+      <c r="F278" s="7" t="n"/>
+      <c r="G278" s="8" t="n"/>
     </row>
     <row r="279">
-      <c r="A279" t="n">
+      <c r="A279" s="5" t="n">
         <v>426</v>
       </c>
-      <c r="B279" t="n">
+      <c r="B279" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C279" t="inlineStr">
@@ -6527,8 +6533,8 @@
           <t>SODA GUN HOLDER</t>
         </is>
       </c>
-      <c r="F279" s="5" t="n"/>
-      <c r="G279" s="6" t="n"/>
+      <c r="F279" s="7" t="n"/>
+      <c r="G279" s="8" t="n"/>
       <c r="S279" t="inlineStr">
         <is>
           <t>WITH SODA GUN</t>
@@ -6536,10 +6542,10 @@
       </c>
     </row>
     <row r="280">
-      <c r="A280" t="n">
+      <c r="A280" s="5" t="n">
         <v>427</v>
       </c>
-      <c r="B280" t="n">
+      <c r="B280" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C280" t="inlineStr">
@@ -6547,14 +6553,14 @@
           <t>BAR FILLER</t>
         </is>
       </c>
-      <c r="F280" s="5" t="n"/>
-      <c r="G280" s="6" t="n"/>
+      <c r="F280" s="7" t="n"/>
+      <c r="G280" s="8" t="n"/>
     </row>
     <row r="281">
-      <c r="A281" t="n">
+      <c r="A281" s="5" t="n">
         <v>428</v>
       </c>
-      <c r="B281" t="n">
+      <c r="B281" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C281" t="inlineStr">
@@ -6562,8 +6568,8 @@
           <t>COCKTAIL STATION</t>
         </is>
       </c>
-      <c r="F281" s="5" t="n"/>
-      <c r="G281" s="6" t="n"/>
+      <c r="F281" s="7" t="n"/>
+      <c r="G281" s="8" t="n"/>
       <c r="K281" t="inlineStr">
         <is>
           <t>1/2"</t>
@@ -6571,10 +6577,10 @@
       </c>
     </row>
     <row r="282">
-      <c r="A282" t="n">
+      <c r="A282" s="5" t="n">
         <v>429</v>
       </c>
-      <c r="B282" t="inlineStr">
+      <c r="B282" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6584,14 +6590,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F282" s="5" t="n"/>
-      <c r="G282" s="6" t="n"/>
+      <c r="F282" s="7" t="n"/>
+      <c r="G282" s="8" t="n"/>
     </row>
     <row r="283">
-      <c r="A283" t="n">
+      <c r="A283" s="5" t="n">
         <v>430</v>
       </c>
-      <c r="B283" t="inlineStr">
+      <c r="B283" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6601,14 +6607,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F283" s="5" t="n"/>
-      <c r="G283" s="6" t="n"/>
+      <c r="F283" s="7" t="n"/>
+      <c r="G283" s="8" t="n"/>
     </row>
     <row r="284">
-      <c r="A284" t="n">
+      <c r="A284" s="5" t="n">
         <v>431</v>
       </c>
-      <c r="B284" t="n">
+      <c r="B284" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C284" t="inlineStr">
@@ -6616,14 +6622,14 @@
           <t>SPEED RAIL</t>
         </is>
       </c>
-      <c r="F284" s="5" t="n"/>
-      <c r="G284" s="6" t="n"/>
+      <c r="F284" s="7" t="n"/>
+      <c r="G284" s="8" t="n"/>
     </row>
     <row r="285">
-      <c r="A285" t="n">
+      <c r="A285" s="5" t="n">
         <v>432</v>
       </c>
-      <c r="B285" t="n">
+      <c r="B285" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C285" t="inlineStr">
@@ -6631,14 +6637,14 @@
           <t>BOTTLE STORAGE BIN</t>
         </is>
       </c>
-      <c r="F285" s="5" t="n"/>
-      <c r="G285" s="6" t="n"/>
+      <c r="F285" s="7" t="n"/>
+      <c r="G285" s="8" t="n"/>
     </row>
     <row r="286">
-      <c r="A286" t="n">
+      <c r="A286" s="5" t="n">
         <v>433</v>
       </c>
-      <c r="B286" t="n">
+      <c r="B286" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C286" t="inlineStr">
@@ -6646,14 +6652,14 @@
           <t>BAR FILLER</t>
         </is>
       </c>
-      <c r="F286" s="5" t="n"/>
-      <c r="G286" s="6" t="n"/>
+      <c r="F286" s="7" t="n"/>
+      <c r="G286" s="8" t="n"/>
     </row>
     <row r="287">
-      <c r="A287" t="n">
+      <c r="A287" s="5" t="n">
         <v>434</v>
       </c>
-      <c r="B287" t="n">
+      <c r="B287" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C287" t="inlineStr">
@@ -6661,8 +6667,8 @@
           <t>TRASH UNIT</t>
         </is>
       </c>
-      <c r="F287" s="5" t="n"/>
-      <c r="G287" s="6" t="n"/>
+      <c r="F287" s="7" t="n"/>
+      <c r="G287" s="8" t="n"/>
       <c r="S287" t="inlineStr">
         <is>
           <t>WITH SLIM JIM TRASH RECEPTACLE</t>
@@ -6670,10 +6676,10 @@
       </c>
     </row>
     <row r="288">
-      <c r="A288" t="n">
+      <c r="A288" s="5" t="n">
         <v>435</v>
       </c>
-      <c r="B288" t="inlineStr">
+      <c r="B288" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6683,14 +6689,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F288" s="5" t="n"/>
-      <c r="G288" s="6" t="n"/>
+      <c r="F288" s="7" t="n"/>
+      <c r="G288" s="8" t="n"/>
     </row>
     <row r="289">
-      <c r="A289" t="n">
+      <c r="A289" s="5" t="n">
         <v>436</v>
       </c>
-      <c r="B289" t="n">
+      <c r="B289" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C289" t="inlineStr">
@@ -6698,14 +6704,14 @@
           <t>BAR FILLER</t>
         </is>
       </c>
-      <c r="F289" s="5" t="n"/>
-      <c r="G289" s="6" t="n"/>
+      <c r="F289" s="7" t="n"/>
+      <c r="G289" s="8" t="n"/>
     </row>
     <row r="290">
-      <c r="A290" t="n">
+      <c r="A290" s="5" t="n">
         <v>437</v>
       </c>
-      <c r="B290" t="n">
+      <c r="B290" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C290" t="inlineStr">
@@ -6713,14 +6719,14 @@
           <t>POS CABINET</t>
         </is>
       </c>
-      <c r="F290" s="5" t="n"/>
-      <c r="G290" s="6" t="n"/>
+      <c r="F290" s="7" t="n"/>
+      <c r="G290" s="8" t="n"/>
     </row>
     <row r="291">
-      <c r="A291" t="n">
+      <c r="A291" s="5" t="n">
         <v>438</v>
       </c>
-      <c r="B291" t="n">
+      <c r="B291" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C291" t="inlineStr">
@@ -6734,10 +6740,10 @@
       <c r="E291" t="n">
         <v>1</v>
       </c>
-      <c r="F291" s="5" t="n">
+      <c r="F291" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="G291" s="6">
+      <c r="G291" s="8">
         <f>IF(E291&gt;1,(1.732*D291*F291)/1000,(D291*F291)/1000)</f>
         <v/>
       </c>
@@ -6748,10 +6754,10 @@
       </c>
     </row>
     <row r="292">
-      <c r="A292" t="n">
+      <c r="A292" s="5" t="n">
         <v>439</v>
       </c>
-      <c r="B292" t="inlineStr">
+      <c r="B292" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6761,14 +6767,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F292" s="5" t="n"/>
-      <c r="G292" s="6" t="n"/>
+      <c r="F292" s="7" t="n"/>
+      <c r="G292" s="8" t="n"/>
     </row>
     <row r="293">
-      <c r="A293" t="n">
+      <c r="A293" s="5" t="n">
         <v>440</v>
       </c>
-      <c r="B293" t="inlineStr">
+      <c r="B293" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6778,14 +6784,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F293" s="5" t="n"/>
-      <c r="G293" s="6" t="n"/>
+      <c r="F293" s="7" t="n"/>
+      <c r="G293" s="8" t="n"/>
     </row>
     <row r="294">
-      <c r="A294" t="n">
+      <c r="A294" s="5" t="n">
         <v>441</v>
       </c>
-      <c r="B294" t="n">
+      <c r="B294" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C294" t="inlineStr">
@@ -6799,10 +6805,10 @@
       <c r="E294" t="n">
         <v>1</v>
       </c>
-      <c r="F294" s="5" t="n">
+      <c r="F294" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="G294" s="6">
+      <c r="G294" s="8">
         <f>IF(E294&gt;1,(1.732*D294*F294)/1000,(D294*F294)/1000)</f>
         <v/>
       </c>
@@ -6813,10 +6819,10 @@
       </c>
     </row>
     <row r="295">
-      <c r="A295" t="n">
+      <c r="A295" s="5" t="n">
         <v>442</v>
       </c>
-      <c r="B295" t="n">
+      <c r="B295" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C295" t="inlineStr">
@@ -6824,14 +6830,14 @@
           <t>BAR FILLER</t>
         </is>
       </c>
-      <c r="F295" s="5" t="n"/>
-      <c r="G295" s="6" t="n"/>
+      <c r="F295" s="7" t="n"/>
+      <c r="G295" s="8" t="n"/>
     </row>
     <row r="296">
-      <c r="A296" t="n">
+      <c r="A296" s="5" t="n">
         <v>443</v>
       </c>
-      <c r="B296" t="n">
+      <c r="B296" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C296" t="inlineStr">
@@ -6839,8 +6845,8 @@
           <t>TRASH UNIT</t>
         </is>
       </c>
-      <c r="F296" s="5" t="n"/>
-      <c r="G296" s="6" t="n"/>
+      <c r="F296" s="7" t="n"/>
+      <c r="G296" s="8" t="n"/>
       <c r="S296" t="inlineStr">
         <is>
           <t>WITH SLIM JIM TRASH RECEPTACLE</t>
@@ -6848,10 +6854,10 @@
       </c>
     </row>
     <row r="297">
-      <c r="A297" t="n">
+      <c r="A297" s="5" t="n">
         <v>444</v>
       </c>
-      <c r="B297" t="n">
+      <c r="B297" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C297" t="inlineStr">
@@ -6859,14 +6865,14 @@
           <t>BAR FILLER</t>
         </is>
       </c>
-      <c r="F297" s="5" t="n"/>
-      <c r="G297" s="6" t="n"/>
+      <c r="F297" s="7" t="n"/>
+      <c r="G297" s="8" t="n"/>
     </row>
     <row r="298">
-      <c r="A298" t="n">
+      <c r="A298" s="5" t="n">
         <v>445</v>
       </c>
-      <c r="B298" t="inlineStr">
+      <c r="B298" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6876,14 +6882,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F298" s="5" t="n"/>
-      <c r="G298" s="6" t="n"/>
+      <c r="F298" s="7" t="n"/>
+      <c r="G298" s="8" t="n"/>
     </row>
     <row r="299">
-      <c r="A299" t="n">
+      <c r="A299" s="5" t="n">
         <v>446</v>
       </c>
-      <c r="B299" t="n">
+      <c r="B299" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C299" t="inlineStr">
@@ -6891,8 +6897,8 @@
           <t>HAND SINK</t>
         </is>
       </c>
-      <c r="F299" s="5" t="n"/>
-      <c r="G299" s="6" t="n"/>
+      <c r="F299" s="7" t="n"/>
+      <c r="G299" s="8" t="n"/>
       <c r="H299" t="inlineStr">
         <is>
           <t>1/2"</t>
@@ -6913,10 +6919,10 @@
       </c>
     </row>
     <row r="300">
-      <c r="A300" t="n">
+      <c r="A300" s="5" t="n">
         <v>447</v>
       </c>
-      <c r="B300" t="n">
+      <c r="B300" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C300" t="inlineStr">
@@ -6924,14 +6930,14 @@
           <t>BAR FILLER</t>
         </is>
       </c>
-      <c r="F300" s="5" t="n"/>
-      <c r="G300" s="6" t="n"/>
+      <c r="F300" s="7" t="n"/>
+      <c r="G300" s="8" t="n"/>
     </row>
     <row r="301">
-      <c r="A301" t="n">
+      <c r="A301" s="5" t="n">
         <v>448</v>
       </c>
-      <c r="B301" t="n">
+      <c r="B301" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C301" t="inlineStr">
@@ -6939,8 +6945,8 @@
           <t>DRAINBOARD</t>
         </is>
       </c>
-      <c r="F301" s="5" t="n"/>
-      <c r="G301" s="6" t="n"/>
+      <c r="F301" s="7" t="n"/>
+      <c r="G301" s="8" t="n"/>
       <c r="K301" t="inlineStr">
         <is>
           <t>1-1/2"</t>
@@ -6948,10 +6954,10 @@
       </c>
     </row>
     <row r="302">
-      <c r="A302" t="n">
+      <c r="A302" s="5" t="n">
         <v>449</v>
       </c>
-      <c r="B302" t="inlineStr">
+      <c r="B302" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6961,14 +6967,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F302" s="5" t="n"/>
-      <c r="G302" s="6" t="n"/>
+      <c r="F302" s="7" t="n"/>
+      <c r="G302" s="8" t="n"/>
     </row>
     <row r="303">
-      <c r="A303" t="n">
+      <c r="A303" s="5" t="n">
         <v>450</v>
       </c>
-      <c r="B303" t="inlineStr">
+      <c r="B303" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6978,14 +6984,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F303" s="5" t="n"/>
-      <c r="G303" s="6" t="n"/>
+      <c r="F303" s="7" t="n"/>
+      <c r="G303" s="8" t="n"/>
     </row>
     <row r="304">
-      <c r="A304" t="n">
+      <c r="A304" s="5" t="n">
         <v>451</v>
       </c>
-      <c r="B304" t="n">
+      <c r="B304" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C304" t="inlineStr">
@@ -6993,14 +6999,14 @@
           <t>BAR FILLER</t>
         </is>
       </c>
-      <c r="F304" s="5" t="n"/>
-      <c r="G304" s="6" t="n"/>
+      <c r="F304" s="7" t="n"/>
+      <c r="G304" s="8" t="n"/>
     </row>
     <row r="305">
-      <c r="A305" t="n">
+      <c r="A305" s="5" t="n">
         <v>452</v>
       </c>
-      <c r="B305" t="n">
+      <c r="B305" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C305" t="inlineStr">
@@ -7014,10 +7020,10 @@
       <c r="E305" t="n">
         <v>1</v>
       </c>
-      <c r="F305" s="5" t="n">
+      <c r="F305" s="7" t="n">
         <v>33</v>
       </c>
-      <c r="G305" s="6">
+      <c r="G305" s="8">
         <f>IF(E305&gt;1,(1.732*D305*F305)/1000,(D305*F305)/1000)</f>
         <v/>
       </c>
@@ -7041,10 +7047,10 @@
       </c>
     </row>
     <row r="306">
-      <c r="A306" t="n">
+      <c r="A306" s="5" t="n">
         <v>453</v>
       </c>
-      <c r="B306" t="n">
+      <c r="B306" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C306" t="inlineStr">
@@ -7052,14 +7058,14 @@
           <t>BAR FILLER</t>
         </is>
       </c>
-      <c r="F306" s="5" t="n"/>
-      <c r="G306" s="6" t="n"/>
+      <c r="F306" s="7" t="n"/>
+      <c r="G306" s="8" t="n"/>
     </row>
     <row r="307">
-      <c r="A307" t="n">
+      <c r="A307" s="5" t="n">
         <v>454</v>
       </c>
-      <c r="B307" t="n">
+      <c r="B307" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C307" t="inlineStr">
@@ -7067,8 +7073,8 @@
           <t>DRAINBOARD</t>
         </is>
       </c>
-      <c r="F307" s="5" t="n"/>
-      <c r="G307" s="6" t="n"/>
+      <c r="F307" s="7" t="n"/>
+      <c r="G307" s="8" t="n"/>
       <c r="K307" t="inlineStr">
         <is>
           <t>1-1/2"</t>
@@ -7076,10 +7082,10 @@
       </c>
     </row>
     <row r="308">
-      <c r="A308" t="n">
+      <c r="A308" s="5" t="n">
         <v>455</v>
       </c>
-      <c r="B308" t="inlineStr">
+      <c r="B308" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7089,14 +7095,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F308" s="5" t="n"/>
-      <c r="G308" s="6" t="n"/>
+      <c r="F308" s="7" t="n"/>
+      <c r="G308" s="8" t="n"/>
     </row>
     <row r="309">
-      <c r="A309" t="n">
+      <c r="A309" s="5" t="n">
         <v>456</v>
       </c>
-      <c r="B309" t="n">
+      <c r="B309" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C309" t="inlineStr">
@@ -7104,14 +7110,14 @@
           <t>BAR FILLER</t>
         </is>
       </c>
-      <c r="F309" s="5" t="n"/>
-      <c r="G309" s="6" t="n"/>
+      <c r="F309" s="7" t="n"/>
+      <c r="G309" s="8" t="n"/>
     </row>
     <row r="310">
-      <c r="A310" t="n">
+      <c r="A310" s="5" t="n">
         <v>457</v>
       </c>
-      <c r="B310" t="n">
+      <c r="B310" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C310" t="inlineStr">
@@ -7119,8 +7125,8 @@
           <t>DUMP SINK</t>
         </is>
       </c>
-      <c r="F310" s="5" t="n"/>
-      <c r="G310" s="6" t="n"/>
+      <c r="F310" s="7" t="n"/>
+      <c r="G310" s="8" t="n"/>
       <c r="H310" t="inlineStr">
         <is>
           <t>1/2"</t>
@@ -7141,10 +7147,10 @@
       </c>
     </row>
     <row r="311">
-      <c r="A311" t="n">
+      <c r="A311" s="5" t="n">
         <v>458</v>
       </c>
-      <c r="B311" t="n">
+      <c r="B311" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C311" t="inlineStr">
@@ -7152,14 +7158,14 @@
           <t>BAR FILLER</t>
         </is>
       </c>
-      <c r="F311" s="5" t="n"/>
-      <c r="G311" s="6" t="n"/>
+      <c r="F311" s="7" t="n"/>
+      <c r="G311" s="8" t="n"/>
     </row>
     <row r="312">
-      <c r="A312" t="n">
+      <c r="A312" s="5" t="n">
         <v>459</v>
       </c>
-      <c r="B312" t="inlineStr">
+      <c r="B312" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7169,14 +7175,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F312" s="5" t="n"/>
-      <c r="G312" s="6" t="n"/>
+      <c r="F312" s="7" t="n"/>
+      <c r="G312" s="8" t="n"/>
     </row>
     <row r="313">
-      <c r="A313" t="n">
+      <c r="A313" s="5" t="n">
         <v>460</v>
       </c>
-      <c r="B313" t="inlineStr">
+      <c r="B313" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7186,14 +7192,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F313" s="5" t="n"/>
-      <c r="G313" s="6" t="n"/>
+      <c r="F313" s="7" t="n"/>
+      <c r="G313" s="8" t="n"/>
     </row>
     <row r="314">
-      <c r="A314" t="n">
+      <c r="A314" s="5" t="n">
         <v>461</v>
       </c>
-      <c r="B314" t="inlineStr">
+      <c r="B314" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7203,14 +7209,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F314" s="5" t="n"/>
-      <c r="G314" s="6" t="n"/>
+      <c r="F314" s="7" t="n"/>
+      <c r="G314" s="8" t="n"/>
     </row>
     <row r="315">
-      <c r="A315" t="n">
+      <c r="A315" s="5" t="n">
         <v>462</v>
       </c>
-      <c r="B315" t="inlineStr">
+      <c r="B315" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7220,14 +7226,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F315" s="5" t="n"/>
-      <c r="G315" s="6" t="n"/>
+      <c r="F315" s="7" t="n"/>
+      <c r="G315" s="8" t="n"/>
     </row>
     <row r="316">
-      <c r="A316" t="n">
+      <c r="A316" s="5" t="n">
         <v>463</v>
       </c>
-      <c r="B316" t="inlineStr">
+      <c r="B316" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7237,14 +7243,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F316" s="5" t="n"/>
-      <c r="G316" s="6" t="n"/>
+      <c r="F316" s="7" t="n"/>
+      <c r="G316" s="8" t="n"/>
     </row>
     <row r="317">
-      <c r="A317" t="n">
+      <c r="A317" s="5" t="n">
         <v>464</v>
       </c>
-      <c r="B317" t="inlineStr">
+      <c r="B317" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7254,14 +7260,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F317" s="5" t="n"/>
-      <c r="G317" s="6" t="n"/>
+      <c r="F317" s="7" t="n"/>
+      <c r="G317" s="8" t="n"/>
     </row>
     <row r="318">
-      <c r="A318" t="n">
+      <c r="A318" s="5" t="n">
         <v>465</v>
       </c>
-      <c r="B318" t="inlineStr">
+      <c r="B318" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7271,14 +7277,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F318" s="5" t="n"/>
-      <c r="G318" s="6" t="n"/>
+      <c r="F318" s="7" t="n"/>
+      <c r="G318" s="8" t="n"/>
     </row>
     <row r="319">
-      <c r="A319" t="n">
+      <c r="A319" s="5" t="n">
         <v>466</v>
       </c>
-      <c r="B319" t="inlineStr">
+      <c r="B319" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7288,14 +7294,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F319" s="5" t="n"/>
-      <c r="G319" s="6" t="n"/>
+      <c r="F319" s="7" t="n"/>
+      <c r="G319" s="8" t="n"/>
     </row>
     <row r="320">
-      <c r="A320" t="n">
+      <c r="A320" s="5" t="n">
         <v>467</v>
       </c>
-      <c r="B320" t="inlineStr">
+      <c r="B320" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7305,14 +7311,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F320" s="5" t="n"/>
-      <c r="G320" s="6" t="n"/>
+      <c r="F320" s="7" t="n"/>
+      <c r="G320" s="8" t="n"/>
     </row>
     <row r="321">
-      <c r="A321" t="n">
+      <c r="A321" s="5" t="n">
         <v>468</v>
       </c>
-      <c r="B321" t="inlineStr">
+      <c r="B321" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7322,14 +7328,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F321" s="5" t="n"/>
-      <c r="G321" s="6" t="n"/>
+      <c r="F321" s="7" t="n"/>
+      <c r="G321" s="8" t="n"/>
     </row>
     <row r="322">
-      <c r="A322" t="n">
+      <c r="A322" s="5" t="n">
         <v>469</v>
       </c>
-      <c r="B322" t="inlineStr">
+      <c r="B322" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7339,14 +7345,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F322" s="5" t="n"/>
-      <c r="G322" s="6" t="n"/>
+      <c r="F322" s="7" t="n"/>
+      <c r="G322" s="8" t="n"/>
     </row>
     <row r="323">
-      <c r="A323" t="n">
+      <c r="A323" s="5" t="n">
         <v>470</v>
       </c>
-      <c r="B323" t="inlineStr">
+      <c r="B323" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7356,14 +7362,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F323" s="5" t="n"/>
-      <c r="G323" s="6" t="n"/>
+      <c r="F323" s="7" t="n"/>
+      <c r="G323" s="8" t="n"/>
     </row>
     <row r="324">
-      <c r="A324" t="n">
+      <c r="A324" s="5" t="n">
         <v>471</v>
       </c>
-      <c r="B324" t="n">
+      <c r="B324" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C324" t="inlineStr">
@@ -7371,8 +7377,8 @@
           <t>BACK BAR COUNTER</t>
         </is>
       </c>
-      <c r="F324" s="5" t="n"/>
-      <c r="G324" s="6" t="n"/>
+      <c r="F324" s="7" t="n"/>
+      <c r="G324" s="8" t="n"/>
       <c r="S324" t="inlineStr">
         <is>
           <t>BY INTERIOR DESIGNER GRANITE TOP</t>
@@ -7380,10 +7386,10 @@
       </c>
     </row>
     <row r="325">
-      <c r="A325" t="n">
+      <c r="A325" s="5" t="n">
         <v>472</v>
       </c>
-      <c r="B325" t="n">
+      <c r="B325" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C325" t="inlineStr">
@@ -7397,10 +7403,10 @@
       <c r="E325" t="n">
         <v>1</v>
       </c>
-      <c r="F325" s="5" t="n">
+      <c r="F325" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="G325" s="6">
+      <c r="G325" s="8">
         <f>IF(E325&gt;1,(1.732*D325*F325)/1000,(D325*F325)/1000)</f>
         <v/>
       </c>
@@ -7416,10 +7422,10 @@
       </c>
     </row>
     <row r="326">
-      <c r="A326" t="n">
+      <c r="A326" s="5" t="n">
         <v>473</v>
       </c>
-      <c r="B326" t="inlineStr">
+      <c r="B326" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7429,14 +7435,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F326" s="5" t="n"/>
-      <c r="G326" s="6" t="n"/>
+      <c r="F326" s="7" t="n"/>
+      <c r="G326" s="8" t="n"/>
     </row>
     <row r="327">
-      <c r="A327" t="n">
+      <c r="A327" s="5" t="n">
         <v>474</v>
       </c>
-      <c r="B327" t="inlineStr">
+      <c r="B327" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7446,14 +7452,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F327" s="5" t="n"/>
-      <c r="G327" s="6" t="n"/>
+      <c r="F327" s="7" t="n"/>
+      <c r="G327" s="8" t="n"/>
     </row>
     <row r="328">
-      <c r="A328" t="n">
+      <c r="A328" s="5" t="n">
         <v>475</v>
       </c>
-      <c r="B328" t="inlineStr">
+      <c r="B328" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7463,14 +7469,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F328" s="5" t="n"/>
-      <c r="G328" s="6" t="n"/>
+      <c r="F328" s="7" t="n"/>
+      <c r="G328" s="8" t="n"/>
     </row>
     <row r="329">
-      <c r="A329" t="n">
+      <c r="A329" s="5" t="n">
         <v>476</v>
       </c>
-      <c r="B329" t="inlineStr">
+      <c r="B329" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7480,14 +7486,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F329" s="5" t="n"/>
-      <c r="G329" s="6" t="n"/>
+      <c r="F329" s="7" t="n"/>
+      <c r="G329" s="8" t="n"/>
     </row>
     <row r="330">
-      <c r="A330" t="n">
+      <c r="A330" s="5" t="n">
         <v>477</v>
       </c>
-      <c r="B330" t="inlineStr">
+      <c r="B330" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7497,14 +7503,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F330" s="5" t="n"/>
-      <c r="G330" s="6" t="n"/>
+      <c r="F330" s="7" t="n"/>
+      <c r="G330" s="8" t="n"/>
     </row>
     <row r="331">
-      <c r="A331" t="n">
+      <c r="A331" s="5" t="n">
         <v>478</v>
       </c>
-      <c r="B331" t="inlineStr">
+      <c r="B331" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7514,14 +7520,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F331" s="5" t="n"/>
-      <c r="G331" s="6" t="n"/>
+      <c r="F331" s="7" t="n"/>
+      <c r="G331" s="8" t="n"/>
     </row>
     <row r="332">
-      <c r="A332" t="n">
+      <c r="A332" s="5" t="n">
         <v>479</v>
       </c>
-      <c r="B332" t="inlineStr">
+      <c r="B332" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7531,16 +7537,16 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F332" s="5" t="n"/>
-      <c r="G332" s="6" t="n"/>
+      <c r="F332" s="7" t="n"/>
+      <c r="G332" s="8" t="n"/>
     </row>
     <row r="333">
-      <c r="A333" t="inlineStr">
+      <c r="A333" s="5" t="inlineStr">
         <is>
           <t>480-500</t>
         </is>
       </c>
-      <c r="B333" t="inlineStr">
+      <c r="B333" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7550,8 +7556,8 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F333" s="5" t="n"/>
-      <c r="G333" s="6" t="n"/>
+      <c r="F333" s="7" t="n"/>
+      <c r="G333" s="8" t="n"/>
     </row>
     <row r="334">
       <c r="A334" s="3" t="inlineStr">
@@ -7579,10 +7585,10 @@
       <c r="S334" s="4" t="n"/>
     </row>
     <row r="335">
-      <c r="A335" t="n">
+      <c r="A335" s="5" t="n">
         <v>501</v>
       </c>
-      <c r="B335" t="n">
+      <c r="B335" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C335" t="inlineStr">
@@ -7596,10 +7602,10 @@
       <c r="E335" t="n">
         <v>1</v>
       </c>
-      <c r="F335" s="5" t="n">
+      <c r="F335" s="7" t="n">
         <v>140</v>
       </c>
-      <c r="G335" s="6">
+      <c r="G335" s="8">
         <f>IF(E335&gt;1,(1.732*D335*F335)/1000,(D335*F335)/1000)</f>
         <v/>
       </c>
@@ -7610,10 +7616,10 @@
       </c>
     </row>
     <row r="336">
-      <c r="A336" t="n">
+      <c r="A336" s="5" t="n">
         <v>502</v>
       </c>
-      <c r="B336" t="n">
+      <c r="B336" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C336" t="inlineStr">
@@ -7621,8 +7627,8 @@
           <t>SUSHI COUNTER</t>
         </is>
       </c>
-      <c r="F336" s="5" t="n"/>
-      <c r="G336" s="6" t="n"/>
+      <c r="F336" s="7" t="n"/>
+      <c r="G336" s="8" t="n"/>
       <c r="S336" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -7630,10 +7636,10 @@
       </c>
     </row>
     <row r="337">
-      <c r="A337" t="n">
+      <c r="A337" s="5" t="n">
         <v>503</v>
       </c>
-      <c r="B337" t="n">
+      <c r="B337" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C337" t="inlineStr">
@@ -7641,8 +7647,8 @@
           <t>RICE WARMER STAND</t>
         </is>
       </c>
-      <c r="F337" s="5" t="n"/>
-      <c r="G337" s="6" t="n"/>
+      <c r="F337" s="7" t="n"/>
+      <c r="G337" s="8" t="n"/>
       <c r="S337" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION MOBILE</t>
@@ -7650,10 +7656,10 @@
       </c>
     </row>
     <row r="338">
-      <c r="A338" t="n">
+      <c r="A338" s="5" t="n">
         <v>504</v>
       </c>
-      <c r="B338" t="n">
+      <c r="B338" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C338" t="inlineStr">
@@ -7667,19 +7673,19 @@
       <c r="E338" t="n">
         <v>1</v>
       </c>
-      <c r="F338" s="5" t="n">
+      <c r="F338" s="7" t="n">
         <v>18</v>
       </c>
-      <c r="G338" s="6">
+      <c r="G338" s="8">
         <f>IF(E338&gt;1,(1.732*D338*F338)/1000,(D338*F338)/1000)</f>
         <v/>
       </c>
     </row>
     <row r="339">
-      <c r="A339" t="n">
+      <c r="A339" s="5" t="n">
         <v>505</v>
       </c>
-      <c r="B339" t="inlineStr">
+      <c r="B339" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7689,14 +7695,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F339" s="5" t="n"/>
-      <c r="G339" s="6" t="n"/>
+      <c r="F339" s="7" t="n"/>
+      <c r="G339" s="8" t="n"/>
     </row>
     <row r="340">
-      <c r="A340" t="n">
+      <c r="A340" s="5" t="n">
         <v>506</v>
       </c>
-      <c r="B340" t="n">
+      <c r="B340" s="6" t="n">
         <v>8</v>
       </c>
       <c r="C340" t="inlineStr">
@@ -7710,10 +7716,10 @@
       <c r="E340" t="n">
         <v>1</v>
       </c>
-      <c r="F340" s="5" t="n">
+      <c r="F340" s="7" t="n">
         <v>64</v>
       </c>
-      <c r="G340" s="6">
+      <c r="G340" s="8">
         <f>IF(E340&gt;1,(1.732*D340*F340)/1000,(D340*F340)/1000)</f>
         <v/>
       </c>
@@ -7724,10 +7730,10 @@
       </c>
     </row>
     <row r="341">
-      <c r="A341" t="n">
+      <c r="A341" s="5" t="n">
         <v>507</v>
       </c>
-      <c r="B341" t="n">
+      <c r="B341" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C341" t="inlineStr">
@@ -7735,8 +7741,8 @@
           <t>PREPARATION SINK</t>
         </is>
       </c>
-      <c r="F341" s="5" t="n"/>
-      <c r="G341" s="6" t="n"/>
+      <c r="F341" s="7" t="n"/>
+      <c r="G341" s="8" t="n"/>
       <c r="H341" t="inlineStr">
         <is>
           <t>1/2"</t>
@@ -7762,10 +7768,10 @@
       </c>
     </row>
     <row r="342">
-      <c r="A342" t="n">
+      <c r="A342" s="5" t="n">
         <v>508</v>
       </c>
-      <c r="B342" t="n">
+      <c r="B342" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C342" t="inlineStr">
@@ -7773,8 +7779,8 @@
           <t>TRASH CHUTE</t>
         </is>
       </c>
-      <c r="F342" s="5" t="n"/>
-      <c r="G342" s="6" t="n"/>
+      <c r="F342" s="7" t="n"/>
+      <c r="G342" s="8" t="n"/>
       <c r="S342" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #502</t>
@@ -7782,10 +7788,10 @@
       </c>
     </row>
     <row r="343">
-      <c r="A343" t="n">
+      <c r="A343" s="5" t="n">
         <v>509</v>
       </c>
-      <c r="B343" t="inlineStr">
+      <c r="B343" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7795,14 +7801,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F343" s="5" t="n"/>
-      <c r="G343" s="6" t="n"/>
+      <c r="F343" s="7" t="n"/>
+      <c r="G343" s="8" t="n"/>
     </row>
     <row r="344">
-      <c r="A344" t="n">
+      <c r="A344" s="5" t="n">
         <v>510</v>
       </c>
-      <c r="B344" t="inlineStr">
+      <c r="B344" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7812,14 +7818,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F344" s="5" t="n"/>
-      <c r="G344" s="6" t="n"/>
+      <c r="F344" s="7" t="n"/>
+      <c r="G344" s="8" t="n"/>
     </row>
     <row r="345">
-      <c r="A345" t="n">
+      <c r="A345" s="5" t="n">
         <v>511</v>
       </c>
-      <c r="B345" t="n">
+      <c r="B345" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C345" t="inlineStr">
@@ -7827,8 +7833,8 @@
           <t>STAINLESS STEEL TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="F345" s="5" t="n"/>
-      <c r="G345" s="6" t="n"/>
+      <c r="F345" s="7" t="n"/>
+      <c r="G345" s="8" t="n"/>
       <c r="S345" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -7836,10 +7842,10 @@
       </c>
     </row>
     <row r="346">
-      <c r="A346" t="n">
+      <c r="A346" s="5" t="n">
         <v>512</v>
       </c>
-      <c r="B346" t="n">
+      <c r="B346" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C346" t="inlineStr">
@@ -7853,19 +7859,19 @@
       <c r="E346" t="n">
         <v>1</v>
       </c>
-      <c r="F346" s="5" t="n">
+      <c r="F346" s="7" t="n">
         <v>0.14</v>
       </c>
-      <c r="G346" s="6">
+      <c r="G346" s="8">
         <f>IF(E346&gt;1,(1.732*D346*F346)/1000,(D346*F346)/1000)</f>
         <v/>
       </c>
     </row>
     <row r="347">
-      <c r="A347" t="n">
+      <c r="A347" s="5" t="n">
         <v>513</v>
       </c>
-      <c r="B347" t="n">
+      <c r="B347" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C347" t="inlineStr">
@@ -7879,10 +7885,10 @@
       <c r="E347" t="n">
         <v>1</v>
       </c>
-      <c r="F347" s="5" t="n">
+      <c r="F347" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="G347" s="6">
+      <c r="G347" s="8">
         <f>IF(E347&gt;1,(1.732*D347*F347)/1000,(D347*F347)/1000)</f>
         <v/>
       </c>
@@ -7898,10 +7904,10 @@
       </c>
     </row>
     <row r="348">
-      <c r="A348" t="n">
+      <c r="A348" s="5" t="n">
         <v>514</v>
       </c>
-      <c r="B348" t="n">
+      <c r="B348" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C348" t="inlineStr">
@@ -7909,8 +7915,8 @@
           <t>CUTTING BOARD</t>
         </is>
       </c>
-      <c r="F348" s="5" t="n"/>
-      <c r="G348" s="6" t="n"/>
+      <c r="F348" s="7" t="n"/>
+      <c r="G348" s="8" t="n"/>
       <c r="S348" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION RECESSED PART OF ITEM #502</t>
@@ -7918,10 +7924,10 @@
       </c>
     </row>
     <row r="349">
-      <c r="A349" t="n">
+      <c r="A349" s="5" t="n">
         <v>515</v>
       </c>
-      <c r="B349" t="inlineStr">
+      <c r="B349" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7931,14 +7937,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F349" s="5" t="n"/>
-      <c r="G349" s="6" t="n"/>
+      <c r="F349" s="7" t="n"/>
+      <c r="G349" s="8" t="n"/>
     </row>
     <row r="350">
-      <c r="A350" t="n">
+      <c r="A350" s="5" t="n">
         <v>516</v>
       </c>
-      <c r="B350" t="n">
+      <c r="B350" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C350" t="inlineStr">
@@ -7946,8 +7952,8 @@
           <t>PREPARATION SINK</t>
         </is>
       </c>
-      <c r="F350" s="5" t="n"/>
-      <c r="G350" s="6" t="n"/>
+      <c r="F350" s="7" t="n"/>
+      <c r="G350" s="8" t="n"/>
       <c r="H350" t="inlineStr">
         <is>
           <t>1/2"</t>
@@ -7973,10 +7979,10 @@
       </c>
     </row>
     <row r="351">
-      <c r="A351" t="n">
+      <c r="A351" s="5" t="n">
         <v>517</v>
       </c>
-      <c r="B351" t="n">
+      <c r="B351" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C351" t="inlineStr">
@@ -7984,8 +7990,8 @@
           <t>RICE WARMER STAND</t>
         </is>
       </c>
-      <c r="F351" s="5" t="n"/>
-      <c r="G351" s="6" t="n"/>
+      <c r="F351" s="7" t="n"/>
+      <c r="G351" s="8" t="n"/>
       <c r="S351" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION MOBILE</t>
@@ -7993,10 +7999,10 @@
       </c>
     </row>
     <row r="352">
-      <c r="A352" t="n">
+      <c r="A352" s="5" t="n">
         <v>518</v>
       </c>
-      <c r="B352" t="n">
+      <c r="B352" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C352" t="inlineStr">
@@ -8010,19 +8016,19 @@
       <c r="E352" t="n">
         <v>1</v>
       </c>
-      <c r="F352" s="5" t="n">
+      <c r="F352" s="7" t="n">
         <v>18</v>
       </c>
-      <c r="G352" s="6">
+      <c r="G352" s="8">
         <f>IF(E352&gt;1,(1.732*D352*F352)/1000,(D352*F352)/1000)</f>
         <v/>
       </c>
     </row>
     <row r="353">
-      <c r="A353" t="n">
+      <c r="A353" s="5" t="n">
         <v>519</v>
       </c>
-      <c r="B353" t="inlineStr">
+      <c r="B353" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -8032,14 +8038,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F353" s="5" t="n"/>
-      <c r="G353" s="6" t="n"/>
+      <c r="F353" s="7" t="n"/>
+      <c r="G353" s="8" t="n"/>
     </row>
     <row r="354">
-      <c r="A354" t="n">
+      <c r="A354" s="5" t="n">
         <v>520</v>
       </c>
-      <c r="B354" t="inlineStr">
+      <c r="B354" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -8049,14 +8055,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F354" s="5" t="n"/>
-      <c r="G354" s="6" t="n"/>
+      <c r="F354" s="7" t="n"/>
+      <c r="G354" s="8" t="n"/>
     </row>
     <row r="355">
-      <c r="A355" t="n">
+      <c r="A355" s="5" t="n">
         <v>521</v>
       </c>
-      <c r="B355" t="n">
+      <c r="B355" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C355" t="inlineStr">
@@ -8064,8 +8070,8 @@
           <t>TRASH CHUTE</t>
         </is>
       </c>
-      <c r="F355" s="5" t="n"/>
-      <c r="G355" s="6" t="n"/>
+      <c r="F355" s="7" t="n"/>
+      <c r="G355" s="8" t="n"/>
       <c r="S355" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #502</t>
@@ -8073,10 +8079,10 @@
       </c>
     </row>
     <row r="356">
-      <c r="A356" t="n">
+      <c r="A356" s="5" t="n">
         <v>522</v>
       </c>
-      <c r="B356" t="n">
+      <c r="B356" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C356" t="inlineStr">
@@ -8084,8 +8090,8 @@
           <t>STAINLESS STEEL TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="F356" s="5" t="n"/>
-      <c r="G356" s="6" t="n"/>
+      <c r="F356" s="7" t="n"/>
+      <c r="G356" s="8" t="n"/>
       <c r="S356" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -8093,10 +8099,10 @@
       </c>
     </row>
     <row r="357">
-      <c r="A357" t="n">
+      <c r="A357" s="5" t="n">
         <v>523</v>
       </c>
-      <c r="B357" t="n">
+      <c r="B357" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C357" t="inlineStr">
@@ -8110,19 +8116,19 @@
       <c r="E357" t="n">
         <v>1</v>
       </c>
-      <c r="F357" s="5" t="n">
+      <c r="F357" s="7" t="n">
         <v>0.14</v>
       </c>
-      <c r="G357" s="6">
+      <c r="G357" s="8">
         <f>IF(E357&gt;1,(1.732*D357*F357)/1000,(D357*F357)/1000)</f>
         <v/>
       </c>
     </row>
     <row r="358">
-      <c r="A358" t="n">
+      <c r="A358" s="5" t="n">
         <v>524</v>
       </c>
-      <c r="B358" t="n">
+      <c r="B358" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C358" t="inlineStr">
@@ -8136,10 +8142,10 @@
       <c r="E358" t="n">
         <v>1</v>
       </c>
-      <c r="F358" s="5" t="n">
+      <c r="F358" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="G358" s="6">
+      <c r="G358" s="8">
         <f>IF(E358&gt;1,(1.732*D358*F358)/1000,(D358*F358)/1000)</f>
         <v/>
       </c>
@@ -8155,10 +8161,10 @@
       </c>
     </row>
     <row r="359">
-      <c r="A359" t="n">
+      <c r="A359" s="5" t="n">
         <v>525</v>
       </c>
-      <c r="B359" t="inlineStr">
+      <c r="B359" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -8168,14 +8174,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F359" s="5" t="n"/>
-      <c r="G359" s="6" t="n"/>
+      <c r="F359" s="7" t="n"/>
+      <c r="G359" s="8" t="n"/>
     </row>
     <row r="360">
-      <c r="A360" t="n">
+      <c r="A360" s="5" t="n">
         <v>526</v>
       </c>
-      <c r="B360" t="n">
+      <c r="B360" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C360" t="inlineStr">
@@ -8183,8 +8189,8 @@
           <t>CUTTING BOARD</t>
         </is>
       </c>
-      <c r="F360" s="5" t="n"/>
-      <c r="G360" s="6" t="n"/>
+      <c r="F360" s="7" t="n"/>
+      <c r="G360" s="8" t="n"/>
       <c r="S360" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION RECESSED PART OF ITEM #502</t>
@@ -8192,10 +8198,10 @@
       </c>
     </row>
     <row r="361">
-      <c r="A361" t="n">
+      <c r="A361" s="5" t="n">
         <v>527</v>
       </c>
-      <c r="B361" t="n">
+      <c r="B361" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C361" t="inlineStr">
@@ -8203,8 +8209,8 @@
           <t>RICE WARMER STAND</t>
         </is>
       </c>
-      <c r="F361" s="5" t="n"/>
-      <c r="G361" s="6" t="n"/>
+      <c r="F361" s="7" t="n"/>
+      <c r="G361" s="8" t="n"/>
       <c r="S361" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION MOBILE</t>
@@ -8212,10 +8218,10 @@
       </c>
     </row>
     <row r="362">
-      <c r="A362" t="n">
+      <c r="A362" s="5" t="n">
         <v>528</v>
       </c>
-      <c r="B362" t="n">
+      <c r="B362" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C362" t="inlineStr">
@@ -8229,19 +8235,19 @@
       <c r="E362" t="n">
         <v>1</v>
       </c>
-      <c r="F362" s="5" t="n">
+      <c r="F362" s="7" t="n">
         <v>18</v>
       </c>
-      <c r="G362" s="6">
+      <c r="G362" s="8">
         <f>IF(E362&gt;1,(1.732*D362*F362)/1000,(D362*F362)/1000)</f>
         <v/>
       </c>
     </row>
     <row r="363">
-      <c r="A363" t="n">
+      <c r="A363" s="5" t="n">
         <v>529</v>
       </c>
-      <c r="B363" t="inlineStr">
+      <c r="B363" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -8251,14 +8257,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F363" s="5" t="n"/>
-      <c r="G363" s="6" t="n"/>
+      <c r="F363" s="7" t="n"/>
+      <c r="G363" s="8" t="n"/>
     </row>
     <row r="364">
-      <c r="A364" t="n">
+      <c r="A364" s="5" t="n">
         <v>530</v>
       </c>
-      <c r="B364" t="inlineStr">
+      <c r="B364" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -8268,14 +8274,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F364" s="5" t="n"/>
-      <c r="G364" s="6" t="n"/>
+      <c r="F364" s="7" t="n"/>
+      <c r="G364" s="8" t="n"/>
     </row>
     <row r="365">
-      <c r="A365" t="n">
+      <c r="A365" s="5" t="n">
         <v>531</v>
       </c>
-      <c r="B365" t="n">
+      <c r="B365" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C365" t="inlineStr">
@@ -8283,8 +8289,8 @@
           <t>PREPARATION SINK</t>
         </is>
       </c>
-      <c r="F365" s="5" t="n"/>
-      <c r="G365" s="6" t="n"/>
+      <c r="F365" s="7" t="n"/>
+      <c r="G365" s="8" t="n"/>
       <c r="H365" t="inlineStr">
         <is>
           <t>1/2"</t>
@@ -8310,10 +8316,10 @@
       </c>
     </row>
     <row r="366">
-      <c r="A366" t="n">
+      <c r="A366" s="5" t="n">
         <v>532</v>
       </c>
-      <c r="B366" t="n">
+      <c r="B366" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C366" t="inlineStr">
@@ -8321,8 +8327,8 @@
           <t>TRASH CHUTE</t>
         </is>
       </c>
-      <c r="F366" s="5" t="n"/>
-      <c r="G366" s="6" t="n"/>
+      <c r="F366" s="7" t="n"/>
+      <c r="G366" s="8" t="n"/>
       <c r="S366" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #502</t>
@@ -8330,10 +8336,10 @@
       </c>
     </row>
     <row r="367">
-      <c r="A367" t="n">
+      <c r="A367" s="5" t="n">
         <v>533</v>
       </c>
-      <c r="B367" t="n">
+      <c r="B367" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C367" t="inlineStr">
@@ -8341,8 +8347,8 @@
           <t>STAINLESS STEEL TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="F367" s="5" t="n"/>
-      <c r="G367" s="6" t="n"/>
+      <c r="F367" s="7" t="n"/>
+      <c r="G367" s="8" t="n"/>
       <c r="S367" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -8350,10 +8356,10 @@
       </c>
     </row>
     <row r="368">
-      <c r="A368" t="n">
+      <c r="A368" s="5" t="n">
         <v>534</v>
       </c>
-      <c r="B368" t="n">
+      <c r="B368" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C368" t="inlineStr">
@@ -8367,19 +8373,19 @@
       <c r="E368" t="n">
         <v>1</v>
       </c>
-      <c r="F368" s="5" t="n">
+      <c r="F368" s="7" t="n">
         <v>0.14</v>
       </c>
-      <c r="G368" s="6">
+      <c r="G368" s="8">
         <f>IF(E368&gt;1,(1.732*D368*F368)/1000,(D368*F368)/1000)</f>
         <v/>
       </c>
     </row>
     <row r="369">
-      <c r="A369" t="n">
+      <c r="A369" s="5" t="n">
         <v>535</v>
       </c>
-      <c r="B369" t="inlineStr">
+      <c r="B369" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -8389,14 +8395,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F369" s="5" t="n"/>
-      <c r="G369" s="6" t="n"/>
+      <c r="F369" s="7" t="n"/>
+      <c r="G369" s="8" t="n"/>
     </row>
     <row r="370">
-      <c r="A370" t="n">
+      <c r="A370" s="5" t="n">
         <v>536</v>
       </c>
-      <c r="B370" t="n">
+      <c r="B370" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C370" t="inlineStr">
@@ -8410,10 +8416,10 @@
       <c r="E370" t="n">
         <v>1</v>
       </c>
-      <c r="F370" s="5" t="n">
+      <c r="F370" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="G370" s="6">
+      <c r="G370" s="8">
         <f>IF(E370&gt;1,(1.732*D370*F370)/1000,(D370*F370)/1000)</f>
         <v/>
       </c>
@@ -8429,10 +8435,10 @@
       </c>
     </row>
     <row r="371">
-      <c r="A371" t="n">
+      <c r="A371" s="5" t="n">
         <v>537</v>
       </c>
-      <c r="B371" t="n">
+      <c r="B371" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C371" t="inlineStr">
@@ -8440,8 +8446,8 @@
           <t>CUTTING BOARD</t>
         </is>
       </c>
-      <c r="F371" s="5" t="n"/>
-      <c r="G371" s="6" t="n"/>
+      <c r="F371" s="7" t="n"/>
+      <c r="G371" s="8" t="n"/>
       <c r="S371" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION RECESSED PART OF ITEM #502</t>
@@ -8449,10 +8455,10 @@
       </c>
     </row>
     <row r="372">
-      <c r="A372" t="n">
+      <c r="A372" s="5" t="n">
         <v>538</v>
       </c>
-      <c r="B372" t="n">
+      <c r="B372" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C372" t="inlineStr">
@@ -8460,8 +8466,8 @@
           <t>PREPARATION SINK</t>
         </is>
       </c>
-      <c r="F372" s="5" t="n"/>
-      <c r="G372" s="6" t="n"/>
+      <c r="F372" s="7" t="n"/>
+      <c r="G372" s="8" t="n"/>
       <c r="H372" t="inlineStr">
         <is>
           <t>1/2"</t>
@@ -8487,10 +8493,10 @@
       </c>
     </row>
     <row r="373">
-      <c r="A373" t="n">
+      <c r="A373" s="5" t="n">
         <v>539</v>
       </c>
-      <c r="B373" t="inlineStr">
+      <c r="B373" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -8500,14 +8506,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F373" s="5" t="n"/>
-      <c r="G373" s="6" t="n"/>
+      <c r="F373" s="7" t="n"/>
+      <c r="G373" s="8" t="n"/>
     </row>
     <row r="374">
-      <c r="A374" t="n">
+      <c r="A374" s="5" t="n">
         <v>540</v>
       </c>
-      <c r="B374" t="inlineStr">
+      <c r="B374" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -8517,14 +8523,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F374" s="5" t="n"/>
-      <c r="G374" s="6" t="n"/>
+      <c r="F374" s="7" t="n"/>
+      <c r="G374" s="8" t="n"/>
     </row>
     <row r="375">
-      <c r="A375" t="n">
+      <c r="A375" s="5" t="n">
         <v>541</v>
       </c>
-      <c r="B375" t="n">
+      <c r="B375" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C375" t="inlineStr">
@@ -8532,8 +8538,8 @@
           <t>RICE WARMER STAND</t>
         </is>
       </c>
-      <c r="F375" s="5" t="n"/>
-      <c r="G375" s="6" t="n"/>
+      <c r="F375" s="7" t="n"/>
+      <c r="G375" s="8" t="n"/>
       <c r="S375" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION MOBILE</t>
@@ -8541,10 +8547,10 @@
       </c>
     </row>
     <row r="376">
-      <c r="A376" t="n">
+      <c r="A376" s="5" t="n">
         <v>542</v>
       </c>
-      <c r="B376" t="n">
+      <c r="B376" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C376" t="inlineStr">
@@ -8558,19 +8564,19 @@
       <c r="E376" t="n">
         <v>1</v>
       </c>
-      <c r="F376" s="5" t="n">
+      <c r="F376" s="7" t="n">
         <v>18</v>
       </c>
-      <c r="G376" s="6">
+      <c r="G376" s="8">
         <f>IF(E376&gt;1,(1.732*D376*F376)/1000,(D376*F376)/1000)</f>
         <v/>
       </c>
     </row>
     <row r="377">
-      <c r="A377" t="n">
+      <c r="A377" s="5" t="n">
         <v>543</v>
       </c>
-      <c r="B377" t="n">
+      <c r="B377" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C377" t="inlineStr">
@@ -8578,8 +8584,8 @@
           <t>TRASH CHUTE</t>
         </is>
       </c>
-      <c r="F377" s="5" t="n"/>
-      <c r="G377" s="6" t="n"/>
+      <c r="F377" s="7" t="n"/>
+      <c r="G377" s="8" t="n"/>
       <c r="S377" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #502</t>
@@ -8587,10 +8593,10 @@
       </c>
     </row>
     <row r="378">
-      <c r="A378" t="n">
+      <c r="A378" s="5" t="n">
         <v>544</v>
       </c>
-      <c r="B378" t="n">
+      <c r="B378" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C378" t="inlineStr">
@@ -8598,8 +8604,8 @@
           <t>STAINLESS STEEL TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="F378" s="5" t="n"/>
-      <c r="G378" s="6" t="n"/>
+      <c r="F378" s="7" t="n"/>
+      <c r="G378" s="8" t="n"/>
       <c r="S378" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -8607,10 +8613,10 @@
       </c>
     </row>
     <row r="379">
-      <c r="A379" t="n">
+      <c r="A379" s="5" t="n">
         <v>545</v>
       </c>
-      <c r="B379" t="inlineStr">
+      <c r="B379" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -8620,14 +8626,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F379" s="5" t="n"/>
-      <c r="G379" s="6" t="n"/>
+      <c r="F379" s="7" t="n"/>
+      <c r="G379" s="8" t="n"/>
     </row>
     <row r="380">
-      <c r="A380" t="n">
+      <c r="A380" s="5" t="n">
         <v>546</v>
       </c>
-      <c r="B380" t="n">
+      <c r="B380" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C380" t="inlineStr">
@@ -8641,19 +8647,19 @@
       <c r="E380" t="n">
         <v>1</v>
       </c>
-      <c r="F380" s="5" t="n">
+      <c r="F380" s="7" t="n">
         <v>0.14</v>
       </c>
-      <c r="G380" s="6">
+      <c r="G380" s="8">
         <f>IF(E380&gt;1,(1.732*D380*F380)/1000,(D380*F380)/1000)</f>
         <v/>
       </c>
     </row>
     <row r="381">
-      <c r="A381" t="n">
+      <c r="A381" s="5" t="n">
         <v>547</v>
       </c>
-      <c r="B381" t="n">
+      <c r="B381" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C381" t="inlineStr">
@@ -8667,10 +8673,10 @@
       <c r="E381" t="n">
         <v>1</v>
       </c>
-      <c r="F381" s="5" t="n">
+      <c r="F381" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="G381" s="6">
+      <c r="G381" s="8">
         <f>IF(E381&gt;1,(1.732*D381*F381)/1000,(D381*F381)/1000)</f>
         <v/>
       </c>
@@ -8686,10 +8692,10 @@
       </c>
     </row>
     <row r="382">
-      <c r="A382" t="n">
+      <c r="A382" s="5" t="n">
         <v>548</v>
       </c>
-      <c r="B382" t="n">
+      <c r="B382" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C382" t="inlineStr">
@@ -8697,8 +8703,8 @@
           <t>CUTTING BOARD</t>
         </is>
       </c>
-      <c r="F382" s="5" t="n"/>
-      <c r="G382" s="6" t="n"/>
+      <c r="F382" s="7" t="n"/>
+      <c r="G382" s="8" t="n"/>
       <c r="S382" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION RECESSED PART OF ITEM #502</t>
@@ -8706,10 +8712,10 @@
       </c>
     </row>
     <row r="383">
-      <c r="A383" t="n">
+      <c r="A383" s="5" t="n">
         <v>549</v>
       </c>
-      <c r="B383" t="inlineStr">
+      <c r="B383" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -8719,14 +8725,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F383" s="5" t="n"/>
-      <c r="G383" s="6" t="n"/>
+      <c r="F383" s="7" t="n"/>
+      <c r="G383" s="8" t="n"/>
     </row>
     <row r="384">
-      <c r="A384" t="n">
+      <c r="A384" s="5" t="n">
         <v>550</v>
       </c>
-      <c r="B384" t="inlineStr">
+      <c r="B384" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -8736,14 +8742,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F384" s="5" t="n"/>
-      <c r="G384" s="6" t="n"/>
+      <c r="F384" s="7" t="n"/>
+      <c r="G384" s="8" t="n"/>
     </row>
     <row r="385">
-      <c r="A385" t="n">
+      <c r="A385" s="5" t="n">
         <v>551</v>
       </c>
-      <c r="B385" t="n">
+      <c r="B385" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C385" t="inlineStr">
@@ -8751,8 +8757,8 @@
           <t>TRASH CHUTE</t>
         </is>
       </c>
-      <c r="F385" s="5" t="n"/>
-      <c r="G385" s="6" t="n"/>
+      <c r="F385" s="7" t="n"/>
+      <c r="G385" s="8" t="n"/>
       <c r="S385" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #502</t>
@@ -8760,10 +8766,10 @@
       </c>
     </row>
     <row r="386">
-      <c r="A386" t="n">
+      <c r="A386" s="5" t="n">
         <v>552</v>
       </c>
-      <c r="B386" t="n">
+      <c r="B386" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C386" t="inlineStr">
@@ -8771,8 +8777,8 @@
           <t>STAINLESS STEEL TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="F386" s="5" t="n"/>
-      <c r="G386" s="6" t="n"/>
+      <c r="F386" s="7" t="n"/>
+      <c r="G386" s="8" t="n"/>
       <c r="S386" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -8780,10 +8786,10 @@
       </c>
     </row>
     <row r="387">
-      <c r="A387" t="n">
+      <c r="A387" s="5" t="n">
         <v>553</v>
       </c>
-      <c r="B387" t="n">
+      <c r="B387" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C387" t="inlineStr">
@@ -8791,8 +8797,8 @@
           <t>HAND SINK</t>
         </is>
       </c>
-      <c r="F387" s="5" t="n"/>
-      <c r="G387" s="6" t="n"/>
+      <c r="F387" s="7" t="n"/>
+      <c r="G387" s="8" t="n"/>
       <c r="H387" t="inlineStr">
         <is>
           <t>1/2"</t>
@@ -8818,10 +8824,10 @@
       </c>
     </row>
     <row r="388">
-      <c r="A388" t="n">
+      <c r="A388" s="5" t="n">
         <v>554</v>
       </c>
-      <c r="B388" t="inlineStr">
+      <c r="B388" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -8831,16 +8837,16 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F388" s="5" t="n"/>
-      <c r="G388" s="6" t="n"/>
+      <c r="F388" s="7" t="n"/>
+      <c r="G388" s="8" t="n"/>
     </row>
     <row r="389">
-      <c r="A389" t="inlineStr">
+      <c r="A389" s="5" t="inlineStr">
         <is>
           <t>555-600</t>
         </is>
       </c>
-      <c r="B389" t="inlineStr">
+      <c r="B389" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -8850,39 +8856,39 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F389" s="5" t="n"/>
-      <c r="G389" s="6" t="n"/>
+      <c r="F389" s="7" t="n"/>
+      <c r="G389" s="8" t="n"/>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr"/>
     </row>
     <row r="391">
-      <c r="A391" s="7" t="inlineStr">
+      <c r="A391" s="9" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="G391" s="8">
+      <c r="G391" s="10">
         <f>SUM(G7:G390)</f>
         <v/>
       </c>
-      <c r="J391" s="8">
+      <c r="J391" s="10">
         <f>SUM(J7:J390)</f>
         <v/>
       </c>
-      <c r="M391" s="8">
+      <c r="M391" s="10">
         <f>SUM(M7:M390)</f>
         <v/>
       </c>
-      <c r="N391" s="8">
+      <c r="N391" s="10">
         <f>SUM(N7:N390)</f>
         <v/>
       </c>
-      <c r="O391" s="8">
+      <c r="O391" s="10">
         <f>SUM(O7:O390)</f>
         <v/>
       </c>
-      <c r="P391" s="8">
+      <c r="P391" s="10">
         <f>SUM(P7:P390)</f>
         <v/>
       </c>

--- a/Bulk Loads/3423/_PRELIMINARY UTILITY EXPORT - FS_formatted.xlsx
+++ b/Bulk Loads/3423/_PRELIMINARY UTILITY EXPORT - FS_formatted.xlsx
@@ -69,7 +69,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -83,6 +83,9 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
@@ -478,7 +481,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A3:S391"/>
   <sheetViews>
@@ -499,6 +502,7 @@
     <col width="10" customWidth="1" min="6" max="6"/>
     <col width="10" customWidth="1" min="7" max="7"/>
     <col width="10" customWidth="1" min="8" max="8"/>
+    <col width="30" customWidth="1" min="19" max="19"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1"/>
@@ -513,7 +517,7 @@
     <row r="4" ht="27" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>August 29, 2024</t>
+          <t>September 18, 2024</t>
         </is>
       </c>
     </row>
@@ -657,7 +661,7 @@
       </c>
       <c r="F9" s="7" t="n"/>
       <c r="G9" s="8" t="n"/>
-      <c r="S9" t="inlineStr">
+      <c r="S9" s="9" t="inlineStr">
         <is>
           <t>EXISTING TO REMAIN</t>
         </is>
@@ -677,7 +681,7 @@
       </c>
       <c r="F10" s="7" t="n"/>
       <c r="G10" s="8" t="n"/>
-      <c r="S10" t="inlineStr">
+      <c r="S10" s="9" t="inlineStr">
         <is>
           <t>FIXED FOUR TIER EXISTING TO REMAIN</t>
         </is>
@@ -697,7 +701,7 @@
       </c>
       <c r="F11" s="7" t="n"/>
       <c r="G11" s="8" t="n"/>
-      <c r="S11" t="inlineStr">
+      <c r="S11" s="9" t="inlineStr">
         <is>
           <t>FIXED FIVE TIER EXISTING TO REMAIN</t>
         </is>
@@ -717,7 +721,7 @@
       </c>
       <c r="F12" s="7" t="n"/>
       <c r="G12" s="8" t="n"/>
-      <c r="S12" t="inlineStr">
+      <c r="S12" s="9" t="inlineStr">
         <is>
           <t>FIXED FOUR TIER EXISTING TO REMAIN</t>
         </is>
@@ -739,6 +743,7 @@
       </c>
       <c r="F13" s="7" t="n"/>
       <c r="G13" s="8" t="n"/>
+      <c r="S13" s="9" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="5" t="n">
@@ -754,7 +759,7 @@
       </c>
       <c r="F14" s="7" t="n"/>
       <c r="G14" s="8" t="n"/>
-      <c r="S14" t="inlineStr">
+      <c r="S14" s="9" t="inlineStr">
         <is>
           <t>MOBILE FIVE TIER</t>
         </is>
@@ -776,6 +781,7 @@
       </c>
       <c r="F15" s="7" t="n"/>
       <c r="G15" s="8" t="n"/>
+      <c r="S15" s="9" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="5" t="n">
@@ -791,7 +797,7 @@
       </c>
       <c r="F16" s="7" t="n"/>
       <c r="G16" s="8" t="n"/>
-      <c r="S16" t="inlineStr">
+      <c r="S16" s="9" t="inlineStr">
         <is>
           <t>MOBILE EXISTING TO REMAIN</t>
         </is>
@@ -813,6 +819,7 @@
       </c>
       <c r="F17" s="7" t="n"/>
       <c r="G17" s="8" t="n"/>
+      <c r="S17" s="9" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="5" t="n">
@@ -830,6 +837,7 @@
       </c>
       <c r="F18" s="7" t="n"/>
       <c r="G18" s="8" t="n"/>
+      <c r="S18" s="9" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="5" t="n">
@@ -845,7 +853,7 @@
       </c>
       <c r="F19" s="7" t="n"/>
       <c r="G19" s="8" t="n"/>
-      <c r="S19" t="inlineStr">
+      <c r="S19" s="9" t="inlineStr">
         <is>
           <t>MOBILE EXISTING TO REMAIN</t>
         </is>
@@ -865,7 +873,7 @@
       </c>
       <c r="F20" s="7" t="n"/>
       <c r="G20" s="8" t="n"/>
-      <c r="S20" t="inlineStr">
+      <c r="S20" s="9" t="inlineStr">
         <is>
           <t>MOBILE EXISTING TO REMAIN</t>
         </is>
@@ -885,7 +893,7 @@
       </c>
       <c r="F21" s="7" t="n"/>
       <c r="G21" s="8" t="n"/>
-      <c r="S21" t="inlineStr">
+      <c r="S21" s="9" t="inlineStr">
         <is>
           <t>EXISTING TO REMAIN</t>
         </is>
@@ -907,6 +915,7 @@
       </c>
       <c r="F22" s="7" t="n"/>
       <c r="G22" s="8" t="n"/>
+      <c r="S22" s="9" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="5" t="n">
@@ -924,6 +933,7 @@
       </c>
       <c r="F23" s="7" t="n"/>
       <c r="G23" s="8" t="n"/>
+      <c r="S23" s="9" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="5" t="n">
@@ -939,7 +949,7 @@
       </c>
       <c r="F24" s="7" t="n"/>
       <c r="G24" s="8" t="n"/>
-      <c r="S24" t="inlineStr">
+      <c r="S24" s="9" t="inlineStr">
         <is>
           <t>WITH SOAP &amp; TOWEL DISPENSER EXISTING TO REMAIN</t>
         </is>
@@ -988,7 +998,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S25" t="inlineStr">
+      <c r="S25" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -1019,6 +1029,7 @@
         <f>IF(E26&gt;1,(1.732*D26*F26)/1000,(D26*F26)/1000)</f>
         <v/>
       </c>
+      <c r="S26" s="9" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="5" t="n">
@@ -1034,7 +1045,7 @@
       </c>
       <c r="F27" s="7" t="n"/>
       <c r="G27" s="8" t="n"/>
-      <c r="S27" t="inlineStr">
+      <c r="S27" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -1065,7 +1076,7 @@
         <f>IF(E28&gt;1,(1.732*D28*F28)/1000,(D28*F28)/1000)</f>
         <v/>
       </c>
-      <c r="S28" t="inlineStr">
+      <c r="S28" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -1085,7 +1096,7 @@
       </c>
       <c r="F29" s="7" t="n"/>
       <c r="G29" s="8" t="n"/>
-      <c r="S29" t="inlineStr">
+      <c r="S29" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #17</t>
         </is>
@@ -1116,7 +1127,7 @@
         <f>IF(E30&gt;1,(1.732*D30*F30)/1000,(D30*F30)/1000)</f>
         <v/>
       </c>
-      <c r="S30" t="inlineStr">
+      <c r="S30" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -1136,7 +1147,7 @@
       </c>
       <c r="F31" s="7" t="n"/>
       <c r="G31" s="8" t="n"/>
-      <c r="S31" t="inlineStr">
+      <c r="S31" s="9" t="inlineStr">
         <is>
           <t>MOBILE EXISTING TO REMAIN</t>
         </is>
@@ -1167,7 +1178,7 @@
         <f>IF(E32&gt;1,(1.732*D32*F32)/1000,(D32*F32)/1000)</f>
         <v/>
       </c>
-      <c r="S32" t="inlineStr">
+      <c r="S32" s="9" t="inlineStr">
         <is>
           <t>1 RING</t>
         </is>
@@ -1189,6 +1200,7 @@
       </c>
       <c r="F33" s="7" t="n"/>
       <c r="G33" s="8" t="n"/>
+      <c r="S33" s="9" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="5" t="n">
@@ -1215,7 +1227,7 @@
         <f>IF(E34&gt;1,(1.732*D34*F34)/1000,(D34*F34)/1000)</f>
         <v/>
       </c>
-      <c r="S34" t="inlineStr">
+      <c r="S34" s="9" t="inlineStr">
         <is>
           <t>2 RING</t>
         </is>
@@ -1259,7 +1271,7 @@
           <t>1 1/2"</t>
         </is>
       </c>
-      <c r="S35" t="inlineStr">
+      <c r="S35" s="9" t="inlineStr">
         <is>
           <t>VENTLESS</t>
         </is>
@@ -1300,7 +1312,7 @@
           <t>1/2"</t>
         </is>
       </c>
-      <c r="S36" t="inlineStr">
+      <c r="S36" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -1325,7 +1337,7 @@
           <t>3/4"</t>
         </is>
       </c>
-      <c r="S37" t="inlineStr">
+      <c r="S37" s="9" t="inlineStr">
         <is>
           <t>FOR ITEM #27</t>
         </is>
@@ -1347,6 +1359,7 @@
       </c>
       <c r="F38" s="7" t="n"/>
       <c r="G38" s="8" t="n"/>
+      <c r="S38" s="9" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="5" t="n">
@@ -1362,7 +1375,7 @@
       </c>
       <c r="F39" s="7" t="n"/>
       <c r="G39" s="8" t="n"/>
-      <c r="S39" t="inlineStr">
+      <c r="S39" s="9" t="inlineStr">
         <is>
           <t>MOBILE EXISTING TO REMAIN</t>
         </is>
@@ -1382,7 +1395,7 @@
       </c>
       <c r="F40" s="7" t="n"/>
       <c r="G40" s="8" t="n"/>
-      <c r="S40" t="inlineStr">
+      <c r="S40" s="9" t="inlineStr">
         <is>
           <t>MOBILE EXISTING TO REMAIN</t>
         </is>
@@ -1402,7 +1415,7 @@
       </c>
       <c r="F41" s="7" t="n"/>
       <c r="G41" s="8" t="n"/>
-      <c r="S41" t="inlineStr">
+      <c r="S41" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION EXISTING TO REMAIN</t>
         </is>
@@ -1422,7 +1435,7 @@
       </c>
       <c r="F42" s="7" t="n"/>
       <c r="G42" s="8" t="n"/>
-      <c r="S42" t="inlineStr">
+      <c r="S42" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #37 EXISTING TO REMAIN</t>
         </is>
@@ -1444,6 +1457,7 @@
       </c>
       <c r="F43" s="7" t="n"/>
       <c r="G43" s="8" t="n"/>
+      <c r="S43" s="9" t="n"/>
     </row>
     <row r="44">
       <c r="A44" s="5" t="n">
@@ -1459,7 +1473,7 @@
       </c>
       <c r="F44" s="7" t="n"/>
       <c r="G44" s="8" t="n"/>
-      <c r="S44" t="inlineStr">
+      <c r="S44" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION EXISTING TO REMAIN</t>
         </is>
@@ -1479,7 +1493,7 @@
       </c>
       <c r="F45" s="7" t="n"/>
       <c r="G45" s="8" t="n"/>
-      <c r="S45" t="inlineStr">
+      <c r="S45" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATIONPART OF ITEM #33 EXISTING TO REMAIN</t>
         </is>
@@ -1499,7 +1513,7 @@
       </c>
       <c r="F46" s="7" t="n"/>
       <c r="G46" s="8" t="n"/>
-      <c r="S46" t="inlineStr">
+      <c r="S46" s="9" t="inlineStr">
         <is>
           <t>SLIM JIM EXISTING TO REMAIN</t>
         </is>
@@ -1521,6 +1535,7 @@
       </c>
       <c r="F47" s="7" t="n"/>
       <c r="G47" s="8" t="n"/>
+      <c r="S47" s="9" t="n"/>
     </row>
     <row r="48">
       <c r="A48" s="5" t="n">
@@ -1538,6 +1553,7 @@
       </c>
       <c r="F48" s="7" t="n"/>
       <c r="G48" s="8" t="n"/>
+      <c r="S48" s="9" t="n"/>
     </row>
     <row r="49">
       <c r="A49" s="5" t="n">
@@ -1553,7 +1569,7 @@
       </c>
       <c r="F49" s="7" t="n"/>
       <c r="G49" s="8" t="n"/>
-      <c r="S49" t="inlineStr">
+      <c r="S49" s="9" t="inlineStr">
         <is>
           <t>EXISTING TO REMAIN</t>
         </is>
@@ -1573,7 +1589,7 @@
       </c>
       <c r="F50" s="7" t="n"/>
       <c r="G50" s="8" t="n"/>
-      <c r="S50" t="inlineStr">
+      <c r="S50" s="9" t="inlineStr">
         <is>
           <t>EXISTING TO REMAIN</t>
         </is>
@@ -1593,7 +1609,7 @@
       </c>
       <c r="F51" s="7" t="n"/>
       <c r="G51" s="8" t="n"/>
-      <c r="S51" t="inlineStr">
+      <c r="S51" s="9" t="inlineStr">
         <is>
           <t>MOBILE EXISTING TO REMAIN</t>
         </is>
@@ -1613,7 +1629,7 @@
       </c>
       <c r="F52" s="7" t="n"/>
       <c r="G52" s="8" t="n"/>
-      <c r="S52" t="inlineStr">
+      <c r="S52" s="9" t="inlineStr">
         <is>
           <t>MOBILE EXISTING TO REMAIN</t>
         </is>
@@ -1635,6 +1651,7 @@
       </c>
       <c r="F53" s="7" t="n"/>
       <c r="G53" s="8" t="n"/>
+      <c r="S53" s="9" t="n"/>
     </row>
     <row r="54">
       <c r="A54" s="5" t="n">
@@ -1650,7 +1667,7 @@
       </c>
       <c r="F54" s="7" t="n"/>
       <c r="G54" s="8" t="n"/>
-      <c r="S54" t="inlineStr">
+      <c r="S54" s="9" t="inlineStr">
         <is>
           <t>MOBILE EXISTING TO REMAIN</t>
         </is>
@@ -1670,7 +1687,7 @@
       </c>
       <c r="F55" s="7" t="n"/>
       <c r="G55" s="8" t="n"/>
-      <c r="S55" t="inlineStr">
+      <c r="S55" s="9" t="inlineStr">
         <is>
           <t>MOBILE EXISTING TO REMAIN</t>
         </is>
@@ -1690,7 +1707,7 @@
       </c>
       <c r="F56" s="7" t="n"/>
       <c r="G56" s="8" t="n"/>
-      <c r="S56" t="inlineStr">
+      <c r="S56" s="9" t="inlineStr">
         <is>
           <t>EXISTING TO REMAIN</t>
         </is>
@@ -1712,6 +1729,7 @@
       </c>
       <c r="F57" s="7" t="n"/>
       <c r="G57" s="8" t="n"/>
+      <c r="S57" s="9" t="n"/>
     </row>
     <row r="58">
       <c r="A58" s="5" t="n">
@@ -1729,6 +1747,7 @@
       </c>
       <c r="F58" s="7" t="n"/>
       <c r="G58" s="8" t="n"/>
+      <c r="S58" s="9" t="n"/>
     </row>
     <row r="59">
       <c r="A59" s="5" t="n">
@@ -1744,7 +1763,7 @@
       </c>
       <c r="F59" s="7" t="n"/>
       <c r="G59" s="8" t="n"/>
-      <c r="S59" t="inlineStr">
+      <c r="S59" s="9" t="inlineStr">
         <is>
           <t>EXISTING TO REMAIN</t>
         </is>
@@ -1764,7 +1783,7 @@
       </c>
       <c r="F60" s="7" t="n"/>
       <c r="G60" s="8" t="n"/>
-      <c r="S60" t="inlineStr">
+      <c r="S60" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #37 EXISTING TO REMAIN</t>
         </is>
@@ -1784,7 +1803,7 @@
       </c>
       <c r="F61" s="7" t="n"/>
       <c r="G61" s="8" t="n"/>
-      <c r="S61" t="inlineStr">
+      <c r="S61" s="9" t="inlineStr">
         <is>
           <t>SLIM JIM EXISTING TO REMAIN</t>
         </is>
@@ -1804,7 +1823,7 @@
       </c>
       <c r="F62" s="7" t="n"/>
       <c r="G62" s="8" t="n"/>
-      <c r="S62" t="inlineStr">
+      <c r="S62" s="9" t="inlineStr">
         <is>
           <t>EXISTING TO REMAIN</t>
         </is>
@@ -1826,6 +1845,7 @@
       </c>
       <c r="F63" s="7" t="n"/>
       <c r="G63" s="8" t="n"/>
+      <c r="S63" s="9" t="n"/>
     </row>
     <row r="64">
       <c r="A64" s="5" t="n">
@@ -1841,7 +1861,7 @@
       </c>
       <c r="F64" s="7" t="n"/>
       <c r="G64" s="8" t="n"/>
-      <c r="S64" t="inlineStr">
+      <c r="S64" s="9" t="inlineStr">
         <is>
           <t>MOBILE EXISTING TO REMAIN</t>
         </is>
@@ -1861,7 +1881,7 @@
       </c>
       <c r="F65" s="7" t="n"/>
       <c r="G65" s="8" t="n"/>
-      <c r="S65" t="inlineStr">
+      <c r="S65" s="9" t="inlineStr">
         <is>
           <t>EXISTING TO REMAIN</t>
         </is>
@@ -1881,7 +1901,7 @@
       </c>
       <c r="F66" s="7" t="n"/>
       <c r="G66" s="8" t="n"/>
-      <c r="S66" t="inlineStr">
+      <c r="S66" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #37 EXISTING TO REMAIN</t>
         </is>
@@ -1903,6 +1923,7 @@
       </c>
       <c r="F67" s="7" t="n"/>
       <c r="G67" s="8" t="n"/>
+      <c r="S67" s="9" t="n"/>
     </row>
     <row r="68">
       <c r="A68" s="5" t="n">
@@ -1920,6 +1941,7 @@
       </c>
       <c r="F68" s="7" t="n"/>
       <c r="G68" s="8" t="n"/>
+      <c r="S68" s="9" t="n"/>
     </row>
     <row r="69">
       <c r="A69" s="5" t="n">
@@ -1935,7 +1957,7 @@
       </c>
       <c r="F69" s="7" t="n"/>
       <c r="G69" s="8" t="n"/>
-      <c r="S69" t="inlineStr">
+      <c r="S69" s="9" t="inlineStr">
         <is>
           <t>MOBILE EXISTING TO REMAIN</t>
         </is>
@@ -1955,7 +1977,7 @@
       </c>
       <c r="F70" s="7" t="n"/>
       <c r="G70" s="8" t="n"/>
-      <c r="S70" t="inlineStr">
+      <c r="S70" s="9" t="inlineStr">
         <is>
           <t>WITH MAKE-UP AIR EXISTING TO REMAIN</t>
         </is>
@@ -1975,6 +1997,7 @@
       </c>
       <c r="F71" s="7" t="n"/>
       <c r="G71" s="8" t="n"/>
+      <c r="S71" s="9" t="n"/>
     </row>
     <row r="72">
       <c r="A72" s="5" t="n">
@@ -1992,6 +2015,7 @@
       </c>
       <c r="F72" s="7" t="n"/>
       <c r="G72" s="8" t="n"/>
+      <c r="S72" s="9" t="n"/>
     </row>
     <row r="73">
       <c r="A73" s="5" t="n">
@@ -2009,6 +2033,7 @@
       </c>
       <c r="F73" s="7" t="n"/>
       <c r="G73" s="8" t="n"/>
+      <c r="S73" s="9" t="n"/>
     </row>
     <row r="74">
       <c r="A74" s="5" t="n">
@@ -2026,6 +2051,7 @@
       </c>
       <c r="F74" s="7" t="n"/>
       <c r="G74" s="8" t="n"/>
+      <c r="S74" s="9" t="n"/>
     </row>
     <row r="75">
       <c r="A75" s="5" t="n">
@@ -2043,6 +2069,7 @@
       </c>
       <c r="F75" s="7" t="n"/>
       <c r="G75" s="8" t="n"/>
+      <c r="S75" s="9" t="n"/>
     </row>
     <row r="76">
       <c r="A76" s="5" t="n">
@@ -2072,7 +2099,7 @@
       <c r="M76" t="n">
         <v>80000</v>
       </c>
-      <c r="S76" t="inlineStr">
+      <c r="S76" s="9" t="inlineStr">
         <is>
           <t>MOBILE EXISTING TO BE RELOCATED</t>
         </is>
@@ -2094,6 +2121,7 @@
       </c>
       <c r="F77" s="7" t="n"/>
       <c r="G77" s="8" t="n"/>
+      <c r="S77" s="9" t="n"/>
     </row>
     <row r="78">
       <c r="A78" s="5" t="n">
@@ -2109,6 +2137,7 @@
       </c>
       <c r="F78" s="7" t="n"/>
       <c r="G78" s="8" t="n"/>
+      <c r="S78" s="9" t="n"/>
     </row>
     <row r="79">
       <c r="A79" s="5" t="n">
@@ -2127,7 +2156,7 @@
       <c r="M79" t="n">
         <v>90000</v>
       </c>
-      <c r="S79" t="inlineStr">
+      <c r="S79" s="9" t="inlineStr">
         <is>
           <t>EXISTING TO BE RELOCATED</t>
         </is>
@@ -2158,7 +2187,7 @@
         <f>IF(E80&gt;1,(1.732*D80*F80)/1000,(D80*F80)/1000)</f>
         <v/>
       </c>
-      <c r="S80" t="inlineStr">
+      <c r="S80" s="9" t="inlineStr">
         <is>
           <t>MOBILE EXISTING TO BE RELOCATED</t>
         </is>
@@ -2192,7 +2221,7 @@
       <c r="M81" t="n">
         <v>245000</v>
       </c>
-      <c r="S81" t="inlineStr">
+      <c r="S81" s="9" t="inlineStr">
         <is>
           <t>WITH OVEN MOBILE EXISTING TO BE RELOCATED</t>
         </is>
@@ -2215,7 +2244,7 @@
       <c r="M82" t="n">
         <v>35000</v>
       </c>
-      <c r="S82" t="inlineStr">
+      <c r="S82" s="9" t="inlineStr">
         <is>
           <t>RANGE MOUNTED EXISTING TO BE RELOCATED</t>
         </is>
@@ -2237,6 +2266,7 @@
       </c>
       <c r="F83" s="7" t="n"/>
       <c r="G83" s="8" t="n"/>
+      <c r="S83" s="9" t="n"/>
     </row>
     <row r="84">
       <c r="A84" s="5" t="n">
@@ -2266,7 +2296,7 @@
       <c r="M84" t="n">
         <v>245000</v>
       </c>
-      <c r="S84" t="inlineStr">
+      <c r="S84" s="9" t="inlineStr">
         <is>
           <t>WITH OVEN MOBILE EXISTING TO BE RELOCATED</t>
         </is>
@@ -2289,7 +2319,7 @@
       <c r="M85" t="n">
         <v>35000</v>
       </c>
-      <c r="S85" t="inlineStr">
+      <c r="S85" s="9" t="inlineStr">
         <is>
           <t>RANGE MOUNTED EXISTING TO BE RELOCATED</t>
         </is>
@@ -2322,7 +2352,7 @@
       <c r="M86" t="n">
         <v>80000</v>
       </c>
-      <c r="S86" t="inlineStr">
+      <c r="S86" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -2344,6 +2374,7 @@
       </c>
       <c r="F87" s="7" t="n"/>
       <c r="G87" s="8" t="n"/>
+      <c r="S87" s="9" t="n"/>
     </row>
     <row r="88">
       <c r="A88" s="5" t="n">
@@ -2361,6 +2392,7 @@
       </c>
       <c r="F88" s="7" t="n"/>
       <c r="G88" s="8" t="n"/>
+      <c r="S88" s="9" t="n"/>
     </row>
     <row r="89">
       <c r="A89" s="5" t="n">
@@ -2387,7 +2419,7 @@
         <f>IF(E89&gt;1,(1.732*D89*F89)/1000,(D89*F89)/1000)</f>
         <v/>
       </c>
-      <c r="S89" t="inlineStr">
+      <c r="S89" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -2410,6 +2442,7 @@
       <c r="M90" t="n">
         <v>105000</v>
       </c>
+      <c r="S90" s="9" t="n"/>
     </row>
     <row r="91">
       <c r="A91" s="5" t="n">
@@ -2452,7 +2485,7 @@
       <c r="M91" t="n">
         <v>106500</v>
       </c>
-      <c r="S91" t="inlineStr">
+      <c r="S91" s="9" t="inlineStr">
         <is>
           <t>WITH STAND MOBILE EXISTING TO BE RELOCATED</t>
         </is>
@@ -2477,7 +2510,7 @@
           <t>3/4"</t>
         </is>
       </c>
-      <c r="S92" t="inlineStr">
+      <c r="S92" s="9" t="inlineStr">
         <is>
           <t>FOR ITEM #83</t>
         </is>
@@ -2515,7 +2548,7 @@
           <t>(3)2"</t>
         </is>
       </c>
-      <c r="S93" t="inlineStr">
+      <c r="S93" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -2535,7 +2568,7 @@
       </c>
       <c r="F94" s="7" t="n"/>
       <c r="G94" s="8" t="n"/>
-      <c r="S94" t="inlineStr">
+      <c r="S94" s="9" t="inlineStr">
         <is>
           <t>FOR ITEM #62 EXISTING TO REMAIN</t>
         </is>
@@ -2568,7 +2601,7 @@
       <c r="J95" t="n">
         <v>50</v>
       </c>
-      <c r="S95" t="inlineStr">
+      <c r="S95" s="9" t="inlineStr">
         <is>
           <t>WITH FAUCET</t>
         </is>
@@ -2588,7 +2621,7 @@
       </c>
       <c r="F96" s="7" t="n"/>
       <c r="G96" s="8" t="n"/>
-      <c r="S96" t="inlineStr">
+      <c r="S96" s="9" t="inlineStr">
         <is>
           <t>EXISTING TO BE RELOCATED</t>
         </is>
@@ -2610,6 +2643,7 @@
       </c>
       <c r="F97" s="7" t="n"/>
       <c r="G97" s="8" t="n"/>
+      <c r="S97" s="9" t="n"/>
     </row>
     <row r="98">
       <c r="A98" s="5" t="n">
@@ -2627,6 +2661,7 @@
       </c>
       <c r="F98" s="7" t="n"/>
       <c r="G98" s="8" t="n"/>
+      <c r="S98" s="9" t="n"/>
     </row>
     <row r="99">
       <c r="A99" s="5" t="n">
@@ -2642,7 +2677,7 @@
       </c>
       <c r="F99" s="7" t="n"/>
       <c r="G99" s="8" t="n"/>
-      <c r="S99" t="inlineStr">
+      <c r="S99" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -2662,7 +2697,7 @@
       </c>
       <c r="F100" s="7" t="n"/>
       <c r="G100" s="8" t="n"/>
-      <c r="S100" t="inlineStr">
+      <c r="S100" s="9" t="inlineStr">
         <is>
           <t>FIXED FIVE TIER EXISTING TO BE RELOCATED</t>
         </is>
@@ -2682,7 +2717,7 @@
       </c>
       <c r="F101" s="7" t="n"/>
       <c r="G101" s="8" t="n"/>
-      <c r="S101" t="inlineStr">
+      <c r="S101" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -2702,7 +2737,7 @@
       </c>
       <c r="F102" s="7" t="n"/>
       <c r="G102" s="8" t="n"/>
-      <c r="S102" t="inlineStr">
+      <c r="S102" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION MOBILE</t>
         </is>
@@ -2724,6 +2759,7 @@
       </c>
       <c r="F103" s="7" t="n"/>
       <c r="G103" s="8" t="n"/>
+      <c r="S103" s="9" t="n"/>
     </row>
     <row r="104">
       <c r="A104" s="5" t="n">
@@ -2750,6 +2786,7 @@
         <f>IF(E104&gt;1,(1.732*D104*F104)/1000,(D104*F104)/1000)</f>
         <v/>
       </c>
+      <c r="S104" s="9" t="n"/>
     </row>
     <row r="105">
       <c r="A105" s="5" t="n">
@@ -2767,6 +2804,7 @@
       </c>
       <c r="F105" s="7" t="n"/>
       <c r="G105" s="8" t="n"/>
+      <c r="S105" s="9" t="n"/>
     </row>
     <row r="106">
       <c r="A106" s="5" t="n">
@@ -2793,7 +2831,7 @@
         <f>IF(E106&gt;1,(1.732*D106*F106)/1000,(D106*F106)/1000)</f>
         <v/>
       </c>
-      <c r="S106" t="inlineStr">
+      <c r="S106" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -2815,6 +2853,7 @@
       </c>
       <c r="F107" s="7" t="n"/>
       <c r="G107" s="8" t="n"/>
+      <c r="S107" s="9" t="n"/>
     </row>
     <row r="108">
       <c r="A108" s="5" t="n">
@@ -2843,7 +2882,7 @@
       <c r="J108" t="n">
         <v>50</v>
       </c>
-      <c r="S108" t="inlineStr">
+      <c r="S108" s="9" t="inlineStr">
         <is>
           <t>WITH FAUCET</t>
         </is>
@@ -2881,7 +2920,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S109" t="inlineStr">
+      <c r="S109" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH PERFORATED BOTTOM AND CUTTING BOARD</t>
         </is>
@@ -2901,7 +2940,7 @@
       </c>
       <c r="F110" s="7" t="n"/>
       <c r="G110" s="8" t="n"/>
-      <c r="S110" t="inlineStr">
+      <c r="S110" s="9" t="inlineStr">
         <is>
           <t>WITH LID AND DOLLY</t>
         </is>
@@ -2921,7 +2960,7 @@
       </c>
       <c r="F111" s="7" t="n"/>
       <c r="G111" s="8" t="n"/>
-      <c r="S111" t="inlineStr">
+      <c r="S111" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -2959,7 +2998,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S112" t="inlineStr">
+      <c r="S112" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH PERFORATED BOTTOM AND CUTTING BOARD</t>
         </is>
@@ -2992,7 +3031,7 @@
       <c r="J113" t="n">
         <v>50</v>
       </c>
-      <c r="S113" t="inlineStr">
+      <c r="S113" s="9" t="inlineStr">
         <is>
           <t>WITH FAUCET</t>
         </is>
@@ -3041,7 +3080,7 @@
           <t>(2)1-1/2"</t>
         </is>
       </c>
-      <c r="S114" t="inlineStr">
+      <c r="S114" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION MOBILE</t>
         </is>
@@ -3061,7 +3100,7 @@
       </c>
       <c r="F115" s="7" t="n"/>
       <c r="G115" s="8" t="n"/>
-      <c r="S115" t="inlineStr">
+      <c r="S115" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -3083,6 +3122,7 @@
       </c>
       <c r="F116" s="7" t="n"/>
       <c r="G116" s="8" t="n"/>
+      <c r="S116" s="9" t="n"/>
     </row>
     <row r="117">
       <c r="A117" s="5" t="n">
@@ -3100,6 +3140,7 @@
       </c>
       <c r="F117" s="7" t="n"/>
       <c r="G117" s="8" t="n"/>
+      <c r="S117" s="9" t="n"/>
     </row>
     <row r="118">
       <c r="A118" s="5" t="n">
@@ -3117,6 +3158,7 @@
       </c>
       <c r="F118" s="7" t="n"/>
       <c r="G118" s="8" t="n"/>
+      <c r="S118" s="9" t="n"/>
     </row>
     <row r="119">
       <c r="A119" s="5" t="n">
@@ -3134,6 +3176,7 @@
       </c>
       <c r="F119" s="7" t="n"/>
       <c r="G119" s="8" t="n"/>
+      <c r="S119" s="9" t="n"/>
     </row>
     <row r="120">
       <c r="A120" s="5" t="n">
@@ -3151,6 +3194,7 @@
       </c>
       <c r="F120" s="7" t="n"/>
       <c r="G120" s="8" t="n"/>
+      <c r="S120" s="9" t="n"/>
     </row>
     <row r="121">
       <c r="A121" s="5" t="n">
@@ -3177,7 +3221,7 @@
         <f>IF(E121&gt;1,(1.732*D121*F121)/1000,(D121*F121)/1000)</f>
         <v/>
       </c>
-      <c r="S121" t="inlineStr">
+      <c r="S121" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION MOBILE EXISTING TO BE RELOCATED</t>
         </is>
@@ -3197,7 +3241,7 @@
       </c>
       <c r="F122" s="7" t="n"/>
       <c r="G122" s="8" t="n"/>
-      <c r="S122" t="inlineStr">
+      <c r="S122" s="9" t="inlineStr">
         <is>
           <t>EXISTING TO BE RELOCATED</t>
         </is>
@@ -3219,6 +3263,7 @@
       </c>
       <c r="F123" s="7" t="n"/>
       <c r="G123" s="8" t="n"/>
+      <c r="S123" s="9" t="n"/>
     </row>
     <row r="124">
       <c r="A124" s="5" t="n">
@@ -3234,7 +3279,7 @@
       </c>
       <c r="F124" s="7" t="n"/>
       <c r="G124" s="8" t="n"/>
-      <c r="S124" t="inlineStr">
+      <c r="S124" s="9" t="inlineStr">
         <is>
           <t>ON EMERGENCY POWER EXISTING TO REMAIN</t>
         </is>
@@ -3256,6 +3301,7 @@
       </c>
       <c r="F125" s="7" t="n"/>
       <c r="G125" s="8" t="n"/>
+      <c r="S125" s="9" t="n"/>
     </row>
     <row r="126">
       <c r="A126" s="5" t="n">
@@ -3273,6 +3319,7 @@
       </c>
       <c r="F126" s="7" t="n"/>
       <c r="G126" s="8" t="n"/>
+      <c r="S126" s="9" t="n"/>
     </row>
     <row r="127">
       <c r="A127" s="5" t="n">
@@ -3290,6 +3337,7 @@
       </c>
       <c r="F127" s="7" t="n"/>
       <c r="G127" s="8" t="n"/>
+      <c r="S127" s="9" t="n"/>
     </row>
     <row r="128">
       <c r="A128" s="5" t="n">
@@ -3307,6 +3355,7 @@
       </c>
       <c r="F128" s="7" t="n"/>
       <c r="G128" s="8" t="n"/>
+      <c r="S128" s="9" t="n"/>
     </row>
     <row r="129">
       <c r="A129" s="3" t="inlineStr">
@@ -3347,7 +3396,7 @@
       </c>
       <c r="F130" s="7" t="n"/>
       <c r="G130" s="8" t="n"/>
-      <c r="S130" t="inlineStr">
+      <c r="S130" s="9" t="inlineStr">
         <is>
           <t>EXISTING TO REMAIN</t>
         </is>
@@ -3367,7 +3416,7 @@
       </c>
       <c r="F131" s="7" t="n"/>
       <c r="G131" s="8" t="n"/>
-      <c r="S131" t="inlineStr">
+      <c r="S131" s="9" t="inlineStr">
         <is>
           <t>FIXED FOUR TIER EXISTING TO REMAIN</t>
         </is>
@@ -3387,7 +3436,7 @@
       </c>
       <c r="F132" s="7" t="n"/>
       <c r="G132" s="8" t="n"/>
-      <c r="S132" t="inlineStr">
+      <c r="S132" s="9" t="inlineStr">
         <is>
           <t>FIXED FOUR TIER EXISTING TO REMAIN</t>
         </is>
@@ -3407,7 +3456,7 @@
       </c>
       <c r="F133" s="7" t="n"/>
       <c r="G133" s="8" t="n"/>
-      <c r="S133" t="inlineStr">
+      <c r="S133" s="9" t="inlineStr">
         <is>
           <t>MOBILE FIVE TIER</t>
         </is>
@@ -3429,6 +3478,7 @@
       </c>
       <c r="F134" s="7" t="n"/>
       <c r="G134" s="8" t="n"/>
+      <c r="S134" s="9" t="n"/>
     </row>
     <row r="135">
       <c r="A135" s="5" t="n">
@@ -3444,7 +3494,7 @@
       </c>
       <c r="F135" s="7" t="n"/>
       <c r="G135" s="8" t="n"/>
-      <c r="S135" t="inlineStr">
+      <c r="S135" s="9" t="inlineStr">
         <is>
           <t>FIXED FOURTEEN TIER</t>
         </is>
@@ -3466,6 +3516,7 @@
       </c>
       <c r="F136" s="7" t="n"/>
       <c r="G136" s="8" t="n"/>
+      <c r="S136" s="9" t="n"/>
     </row>
     <row r="137">
       <c r="A137" s="5" t="n">
@@ -3483,6 +3534,7 @@
       </c>
       <c r="F137" s="7" t="n"/>
       <c r="G137" s="8" t="n"/>
+      <c r="S137" s="9" t="n"/>
     </row>
     <row r="138">
       <c r="A138" s="5" t="n">
@@ -3500,6 +3552,7 @@
       </c>
       <c r="F138" s="7" t="n"/>
       <c r="G138" s="8" t="n"/>
+      <c r="S138" s="9" t="n"/>
     </row>
     <row r="139">
       <c r="A139" s="5" t="n">
@@ -3517,6 +3570,7 @@
       </c>
       <c r="F139" s="7" t="n"/>
       <c r="G139" s="8" t="n"/>
+      <c r="S139" s="9" t="n"/>
     </row>
     <row r="140">
       <c r="A140" s="5" t="n">
@@ -3534,6 +3588,7 @@
       </c>
       <c r="F140" s="7" t="n"/>
       <c r="G140" s="8" t="n"/>
+      <c r="S140" s="9" t="n"/>
     </row>
     <row r="141">
       <c r="A141" s="5" t="n">
@@ -3549,7 +3604,7 @@
       </c>
       <c r="F141" s="7" t="n"/>
       <c r="G141" s="8" t="n"/>
-      <c r="S141" t="inlineStr">
+      <c r="S141" s="9" t="inlineStr">
         <is>
           <t>EXISTING TO REMAIN</t>
         </is>
@@ -3569,7 +3624,7 @@
       </c>
       <c r="F142" s="7" t="n"/>
       <c r="G142" s="8" t="n"/>
-      <c r="S142" t="inlineStr">
+      <c r="S142" s="9" t="inlineStr">
         <is>
           <t>EXISTING TO REMAIN</t>
         </is>
@@ -3589,7 +3644,7 @@
       </c>
       <c r="F143" s="7" t="n"/>
       <c r="G143" s="8" t="n"/>
-      <c r="S143" t="inlineStr">
+      <c r="S143" s="9" t="inlineStr">
         <is>
           <t>EXISTING TO REMAIN</t>
         </is>
@@ -3611,6 +3666,7 @@
       </c>
       <c r="F144" s="7" t="n"/>
       <c r="G144" s="8" t="n"/>
+      <c r="S144" s="9" t="n"/>
     </row>
     <row r="145">
       <c r="A145" s="5" t="n">
@@ -3626,7 +3682,7 @@
       </c>
       <c r="F145" s="7" t="n"/>
       <c r="G145" s="8" t="n"/>
-      <c r="S145" t="inlineStr">
+      <c r="S145" s="9" t="inlineStr">
         <is>
           <t>EXISTING TO REMAIN</t>
         </is>
@@ -3662,7 +3718,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S146" t="inlineStr">
+      <c r="S146" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -3682,7 +3738,7 @@
       </c>
       <c r="F147" s="7" t="n"/>
       <c r="G147" s="8" t="n"/>
-      <c r="S147" t="inlineStr">
+      <c r="S147" s="9" t="inlineStr">
         <is>
           <t>FIXED FOUR TIER</t>
         </is>
@@ -3704,6 +3760,7 @@
       </c>
       <c r="F148" s="7" t="n"/>
       <c r="G148" s="8" t="n"/>
+      <c r="S148" s="9" t="n"/>
     </row>
     <row r="149">
       <c r="A149" s="5" t="n">
@@ -3721,6 +3778,7 @@
       </c>
       <c r="F149" s="7" t="n"/>
       <c r="G149" s="8" t="n"/>
+      <c r="S149" s="9" t="n"/>
     </row>
     <row r="150">
       <c r="A150" s="5" t="n">
@@ -3736,7 +3794,7 @@
       </c>
       <c r="F150" s="7" t="n"/>
       <c r="G150" s="8" t="n"/>
-      <c r="S150" t="inlineStr">
+      <c r="S150" s="9" t="inlineStr">
         <is>
           <t>FIXED FIVE TIER EXISTING TO REMAIN</t>
         </is>
@@ -3756,7 +3814,7 @@
       </c>
       <c r="F151" s="7" t="n"/>
       <c r="G151" s="8" t="n"/>
-      <c r="S151" t="inlineStr">
+      <c r="S151" s="9" t="inlineStr">
         <is>
           <t>FIXED FOURTEEN TIER</t>
         </is>
@@ -3776,7 +3834,7 @@
       </c>
       <c r="F152" s="7" t="n"/>
       <c r="G152" s="8" t="n"/>
-      <c r="S152" t="inlineStr">
+      <c r="S152" s="9" t="inlineStr">
         <is>
           <t>FOR ITEM #62 EXISTING TO REMAIN</t>
         </is>
@@ -3801,7 +3859,7 @@
           <t>3/8"</t>
         </is>
       </c>
-      <c r="S153" t="inlineStr">
+      <c r="S153" s="9" t="inlineStr">
         <is>
           <t>FOR ITEM #147</t>
         </is>
@@ -3823,6 +3881,7 @@
       </c>
       <c r="F154" s="7" t="n"/>
       <c r="G154" s="8" t="n"/>
+      <c r="S154" s="9" t="n"/>
     </row>
     <row r="155">
       <c r="A155" s="5" t="n">
@@ -3838,7 +3897,7 @@
       </c>
       <c r="F155" s="7" t="n"/>
       <c r="G155" s="8" t="n"/>
-      <c r="S155" t="inlineStr">
+      <c r="S155" s="9" t="inlineStr">
         <is>
           <t>700LBS. EXISTING TO REMAIN</t>
         </is>
@@ -3858,7 +3917,7 @@
       </c>
       <c r="F156" s="7" t="n"/>
       <c r="G156" s="8" t="n"/>
-      <c r="S156" t="inlineStr">
+      <c r="S156" s="9" t="inlineStr">
         <is>
           <t>500LBS AIR COOLED LARGE CUBE STYLE EXISTING TO REMAIN</t>
         </is>
@@ -3907,7 +3966,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S157" t="inlineStr">
+      <c r="S157" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -3927,7 +3986,7 @@
       </c>
       <c r="F158" s="7" t="n"/>
       <c r="G158" s="8" t="n"/>
-      <c r="S158" t="inlineStr">
+      <c r="S158" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -3958,6 +4017,7 @@
         <f>IF(E159&gt;1,(1.732*D159*F159)/1000,(D159*F159)/1000)</f>
         <v/>
       </c>
+      <c r="S159" s="9" t="n"/>
     </row>
     <row r="160">
       <c r="A160" s="5" t="n">
@@ -3973,7 +4033,7 @@
       </c>
       <c r="F160" s="7" t="n"/>
       <c r="G160" s="8" t="n"/>
-      <c r="S160" t="inlineStr">
+      <c r="S160" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #502</t>
         </is>
@@ -3993,7 +4053,7 @@
       </c>
       <c r="F161" s="7" t="n"/>
       <c r="G161" s="8" t="n"/>
-      <c r="S161" t="inlineStr">
+      <c r="S161" s="9" t="inlineStr">
         <is>
           <t>SLIM JIM EXISTING TO REMAIN</t>
         </is>
@@ -4029,7 +4089,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S162" t="inlineStr">
+      <c r="S162" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH PAN SLIDES PART OF ITEM #502</t>
         </is>
@@ -4060,6 +4120,7 @@
         <f>IF(E163&gt;1,(1.732*D163*F163)/1000,(D163*F163)/1000)</f>
         <v/>
       </c>
+      <c r="S163" s="9" t="n"/>
     </row>
     <row r="164">
       <c r="A164" s="5" t="n">
@@ -4075,7 +4136,7 @@
       </c>
       <c r="F164" s="7" t="n"/>
       <c r="G164" s="8" t="n"/>
-      <c r="S164" t="inlineStr">
+      <c r="S164" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION RECESSED PART OF ITEM #502</t>
         </is>
@@ -4095,7 +4156,7 @@
       </c>
       <c r="F165" s="7" t="n"/>
       <c r="G165" s="8" t="n"/>
-      <c r="S165" t="inlineStr">
+      <c r="S165" s="9" t="inlineStr">
         <is>
           <t>EXISTING TO REMAIN</t>
         </is>
@@ -4115,7 +4176,7 @@
       </c>
       <c r="F166" s="7" t="n"/>
       <c r="G166" s="8" t="n"/>
-      <c r="S166" t="inlineStr">
+      <c r="S166" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION MOBILE</t>
         </is>
@@ -4146,6 +4207,7 @@
         <f>IF(E167&gt;1,(1.732*D167*F167)/1000,(D167*F167)/1000)</f>
         <v/>
       </c>
+      <c r="S167" s="9" t="n"/>
     </row>
     <row r="168">
       <c r="A168" s="5" t="n">
@@ -4161,7 +4223,7 @@
       </c>
       <c r="F168" s="7" t="n"/>
       <c r="G168" s="8" t="n"/>
-      <c r="S168" t="inlineStr">
+      <c r="S168" s="9" t="inlineStr">
         <is>
           <t>MOBILE EXISTING TO REMAIN</t>
         </is>
@@ -4192,7 +4254,7 @@
         <f>IF(E169&gt;1,(1.732*D169*F169)/1000,(D169*F169)/1000)</f>
         <v/>
       </c>
-      <c r="S169" t="inlineStr">
+      <c r="S169" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -4212,7 +4274,7 @@
       </c>
       <c r="F170" s="7" t="n"/>
       <c r="G170" s="8" t="n"/>
-      <c r="S170" t="inlineStr">
+      <c r="S170" s="9" t="inlineStr">
         <is>
           <t>WITH SOAP &amp; TOWEL DISPENSER EXISTING TO REMAIN</t>
         </is>
@@ -4232,7 +4294,7 @@
       </c>
       <c r="F171" s="7" t="n"/>
       <c r="G171" s="8" t="n"/>
-      <c r="S171" t="inlineStr">
+      <c r="S171" s="9" t="inlineStr">
         <is>
           <t>MOBILE EXISTING</t>
         </is>
@@ -4252,7 +4314,7 @@
       </c>
       <c r="F172" s="7" t="n"/>
       <c r="G172" s="8" t="n"/>
-      <c r="S172" t="inlineStr">
+      <c r="S172" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -4272,7 +4334,7 @@
       </c>
       <c r="F173" s="7" t="n"/>
       <c r="G173" s="8" t="n"/>
-      <c r="S173" t="inlineStr">
+      <c r="S173" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WALL MOUNTED</t>
         </is>
@@ -4292,7 +4354,7 @@
       </c>
       <c r="F174" s="7" t="n"/>
       <c r="G174" s="8" t="n"/>
-      <c r="S174" t="inlineStr">
+      <c r="S174" s="9" t="inlineStr">
         <is>
           <t>FIXED FOUR TIER</t>
         </is>
@@ -4312,7 +4374,7 @@
       </c>
       <c r="F175" s="7" t="n"/>
       <c r="G175" s="8" t="n"/>
-      <c r="S175" t="inlineStr">
+      <c r="S175" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH OVERSHELF AND TROUGH EXISTING TO REMAIN</t>
         </is>
@@ -4332,7 +4394,7 @@
       </c>
       <c r="F176" s="7" t="n"/>
       <c r="G176" s="8" t="n"/>
-      <c r="S176" t="inlineStr">
+      <c r="S176" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION COUNTER MOUNTED EXISTING TO REMAIN</t>
         </is>
@@ -4352,7 +4414,7 @@
       </c>
       <c r="F177" s="7" t="n"/>
       <c r="G177" s="8" t="n"/>
-      <c r="S177" t="inlineStr">
+      <c r="S177" s="9" t="inlineStr">
         <is>
           <t>SLIM JIM EXISTING TO REMAIN</t>
         </is>
@@ -4374,6 +4436,7 @@
       </c>
       <c r="F178" s="7" t="n"/>
       <c r="G178" s="8" t="n"/>
+      <c r="S178" s="9" t="n"/>
     </row>
     <row r="179">
       <c r="A179" s="5" t="n">
@@ -4391,6 +4454,7 @@
       </c>
       <c r="F179" s="7" t="n"/>
       <c r="G179" s="8" t="n"/>
+      <c r="S179" s="9" t="n"/>
     </row>
     <row r="180">
       <c r="A180" s="5" t="n">
@@ -4406,7 +4470,7 @@
       </c>
       <c r="F180" s="7" t="n"/>
       <c r="G180" s="8" t="n"/>
-      <c r="S180" t="inlineStr">
+      <c r="S180" s="9" t="inlineStr">
         <is>
           <t>EXISTING TO REMAIN</t>
         </is>
@@ -4426,7 +4490,7 @@
       </c>
       <c r="F181" s="7" t="n"/>
       <c r="G181" s="8" t="n"/>
-      <c r="S181" t="inlineStr">
+      <c r="S181" s="9" t="inlineStr">
         <is>
           <t>EXISTING TO REMAIN</t>
         </is>
@@ -4446,7 +4510,7 @@
       </c>
       <c r="F182" s="7" t="n"/>
       <c r="G182" s="8" t="n"/>
-      <c r="S182" t="inlineStr">
+      <c r="S182" s="9" t="inlineStr">
         <is>
           <t>WITH FAUCET EXISTING TO REMAIN</t>
         </is>
@@ -4466,7 +4530,7 @@
       </c>
       <c r="F183" s="7" t="n"/>
       <c r="G183" s="8" t="n"/>
-      <c r="S183" t="inlineStr">
+      <c r="S183" s="9" t="inlineStr">
         <is>
           <t>EXISTING TO REMAIN</t>
         </is>
@@ -4488,6 +4552,7 @@
       </c>
       <c r="F184" s="7" t="n"/>
       <c r="G184" s="8" t="n"/>
+      <c r="S184" s="9" t="n"/>
     </row>
     <row r="185">
       <c r="A185" s="5" t="n">
@@ -4503,7 +4568,7 @@
       </c>
       <c r="F185" s="7" t="n"/>
       <c r="G185" s="8" t="n"/>
-      <c r="S185" t="inlineStr">
+      <c r="S185" s="9" t="inlineStr">
         <is>
           <t>EXISTING TO REMAIN</t>
         </is>
@@ -4523,7 +4588,7 @@
       </c>
       <c r="F186" s="7" t="n"/>
       <c r="G186" s="8" t="n"/>
-      <c r="S186" t="inlineStr">
+      <c r="S186" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION EXISTING TO REMAIN</t>
         </is>
@@ -4543,7 +4608,7 @@
       </c>
       <c r="F187" s="7" t="n"/>
       <c r="G187" s="8" t="n"/>
-      <c r="S187" t="inlineStr">
+      <c r="S187" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION EXISTING TO REMAIN</t>
         </is>
@@ -4565,6 +4630,7 @@
       </c>
       <c r="F188" s="7" t="n"/>
       <c r="G188" s="8" t="n"/>
+      <c r="S188" s="9" t="n"/>
     </row>
     <row r="189">
       <c r="A189" s="5" t="n">
@@ -4582,6 +4648,7 @@
       </c>
       <c r="F189" s="7" t="n"/>
       <c r="G189" s="8" t="n"/>
+      <c r="S189" s="9" t="n"/>
     </row>
     <row r="190">
       <c r="A190" s="5" t="n">
@@ -4597,7 +4664,7 @@
       </c>
       <c r="F190" s="7" t="n"/>
       <c r="G190" s="8" t="n"/>
-      <c r="S190" t="inlineStr">
+      <c r="S190" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION EXISTING TO REMAIN</t>
         </is>
@@ -4617,7 +4684,7 @@
       </c>
       <c r="F191" s="7" t="n"/>
       <c r="G191" s="8" t="n"/>
-      <c r="S191" t="inlineStr">
+      <c r="S191" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WALL MOUNTED</t>
         </is>
@@ -4661,7 +4728,7 @@
           <t>5/8"</t>
         </is>
       </c>
-      <c r="S192" t="inlineStr">
+      <c r="S192" s="9" t="inlineStr">
         <is>
           <t>180 DEGREE RINSE</t>
         </is>
@@ -4683,6 +4750,7 @@
       </c>
       <c r="F193" s="7" t="n"/>
       <c r="G193" s="8" t="n"/>
+      <c r="S193" s="9" t="n"/>
     </row>
     <row r="194">
       <c r="A194" s="5" t="n">
@@ -4700,6 +4768,7 @@
       </c>
       <c r="F194" s="7" t="n"/>
       <c r="G194" s="8" t="n"/>
+      <c r="S194" s="9" t="n"/>
     </row>
     <row r="195">
       <c r="A195" s="5" t="n">
@@ -4715,7 +4784,7 @@
       </c>
       <c r="F195" s="7" t="n"/>
       <c r="G195" s="8" t="n"/>
-      <c r="S195" t="inlineStr">
+      <c r="S195" s="9" t="inlineStr">
         <is>
           <t>FIXED FOUR TIER</t>
         </is>
@@ -4746,7 +4815,7 @@
         <f>IF(E196&gt;1,(1.732*D196*F196)/1000,(D196*F196)/1000)</f>
         <v/>
       </c>
-      <c r="S196" t="inlineStr">
+      <c r="S196" s="9" t="inlineStr">
         <is>
           <t>WITH RAMP</t>
         </is>
@@ -4787,7 +4856,7 @@
           <t>1/2"</t>
         </is>
       </c>
-      <c r="S197" t="inlineStr">
+      <c r="S197" s="9" t="inlineStr">
         <is>
           <t>ON EMERGENCY POWER</t>
         </is>
@@ -4809,6 +4878,7 @@
       </c>
       <c r="F198" s="7" t="n"/>
       <c r="G198" s="8" t="n"/>
+      <c r="S198" s="9" t="n"/>
     </row>
     <row r="199">
       <c r="A199" s="5" t="n">
@@ -4826,6 +4896,7 @@
       </c>
       <c r="F199" s="7" t="n"/>
       <c r="G199" s="8" t="n"/>
+      <c r="S199" s="9" t="n"/>
     </row>
     <row r="200">
       <c r="A200" s="5" t="n">
@@ -4862,7 +4933,7 @@
           <t>1/2"</t>
         </is>
       </c>
-      <c r="S200" t="inlineStr">
+      <c r="S200" s="9" t="inlineStr">
         <is>
           <t>ON EMERGENCY POWER</t>
         </is>
@@ -4898,6 +4969,7 @@
           <t>3/4"</t>
         </is>
       </c>
+      <c r="S201" s="9" t="n"/>
     </row>
     <row r="202">
       <c r="A202" s="5" t="n">
@@ -4913,7 +4985,7 @@
       </c>
       <c r="F202" s="7" t="n"/>
       <c r="G202" s="8" t="n"/>
-      <c r="S202" t="inlineStr">
+      <c r="S202" s="9" t="inlineStr">
         <is>
           <t>MOBILE FIVE TIER</t>
         </is>
@@ -4944,6 +5016,7 @@
         <f>IF(E203&gt;1,(1.732*D203*F203)/1000,(D203*F203)/1000)</f>
         <v/>
       </c>
+      <c r="S203" s="9" t="n"/>
     </row>
     <row r="204">
       <c r="A204" s="5" t="n">
@@ -4961,6 +5034,7 @@
       </c>
       <c r="F204" s="7" t="n"/>
       <c r="G204" s="8" t="n"/>
+      <c r="S204" s="9" t="n"/>
     </row>
     <row r="205">
       <c r="A205" s="5" t="n">
@@ -4992,6 +5066,7 @@
           <t>3/4"</t>
         </is>
       </c>
+      <c r="S205" s="9" t="n"/>
     </row>
     <row r="206">
       <c r="A206" s="5" t="n">
@@ -5007,7 +5082,7 @@
       </c>
       <c r="F206" s="7" t="n"/>
       <c r="G206" s="8" t="n"/>
-      <c r="S206" t="inlineStr">
+      <c r="S206" s="9" t="inlineStr">
         <is>
           <t>MOBILE FIVE TIER</t>
         </is>
@@ -5029,6 +5104,7 @@
       </c>
       <c r="F207" s="7" t="n"/>
       <c r="G207" s="8" t="n"/>
+      <c r="S207" s="9" t="n"/>
     </row>
     <row r="208">
       <c r="A208" s="5" t="n">
@@ -5046,6 +5122,7 @@
       </c>
       <c r="F208" s="7" t="n"/>
       <c r="G208" s="8" t="n"/>
+      <c r="S208" s="9" t="n"/>
     </row>
     <row r="209">
       <c r="A209" s="5" t="inlineStr">
@@ -5065,6 +5142,7 @@
       </c>
       <c r="F209" s="7" t="n"/>
       <c r="G209" s="8" t="n"/>
+      <c r="S209" s="9" t="n"/>
     </row>
     <row r="210">
       <c r="A210" s="5" t="n">
@@ -5080,7 +5158,7 @@
       </c>
       <c r="F210" s="7" t="n"/>
       <c r="G210" s="8" t="n"/>
-      <c r="S210" t="inlineStr">
+      <c r="S210" s="9" t="inlineStr">
         <is>
           <t>ON EMERGENCY POWER EXISTING TO REMAIN</t>
         </is>
@@ -5104,6 +5182,7 @@
       </c>
       <c r="F211" s="7" t="n"/>
       <c r="G211" s="8" t="n"/>
+      <c r="S211" s="9" t="n"/>
     </row>
     <row r="212">
       <c r="A212" s="3" t="inlineStr">
@@ -5162,7 +5241,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S213" t="inlineStr">
+      <c r="S213" s="9" t="inlineStr">
         <is>
           <t>EXISTING TO REMAIN</t>
         </is>
@@ -5182,7 +5261,7 @@
       </c>
       <c r="F214" s="7" t="n"/>
       <c r="G214" s="8" t="n"/>
-      <c r="S214" t="inlineStr">
+      <c r="S214" s="9" t="inlineStr">
         <is>
           <t>SLIM JIM EXISTING TO REMAIN</t>
         </is>
@@ -5202,7 +5281,7 @@
       </c>
       <c r="F215" s="7" t="n"/>
       <c r="G215" s="8" t="n"/>
-      <c r="S215" t="inlineStr">
+      <c r="S215" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION EXISTING TO REMAIN</t>
         </is>
@@ -5222,7 +5301,7 @@
       </c>
       <c r="F216" s="7" t="n"/>
       <c r="G216" s="8" t="n"/>
-      <c r="S216" t="inlineStr">
+      <c r="S216" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WALL MOUNTED EXISTING TO REMAIN</t>
         </is>
@@ -5244,6 +5323,7 @@
       </c>
       <c r="F217" s="7" t="n"/>
       <c r="G217" s="8" t="n"/>
+      <c r="S217" s="9" t="n"/>
     </row>
     <row r="218">
       <c r="A218" s="5" t="n">
@@ -5259,7 +5339,7 @@
       </c>
       <c r="F218" s="7" t="n"/>
       <c r="G218" s="8" t="n"/>
-      <c r="S218" t="inlineStr">
+      <c r="S218" s="9" t="inlineStr">
         <is>
           <t>MOBILE EXISTING TO REMAIN</t>
         </is>
@@ -5293,6 +5373,7 @@
       <c r="J219" t="n">
         <v>17</v>
       </c>
+      <c r="S219" s="9" t="n"/>
     </row>
     <row r="220">
       <c r="A220" s="5" t="n">
@@ -5308,7 +5389,7 @@
       </c>
       <c r="F220" s="7" t="n"/>
       <c r="G220" s="8" t="n"/>
-      <c r="S220" t="inlineStr">
+      <c r="S220" s="9" t="inlineStr">
         <is>
           <t>BY VENDOR EXISTING TO REMAIN</t>
         </is>
@@ -5330,6 +5411,7 @@
       </c>
       <c r="F221" s="7" t="n"/>
       <c r="G221" s="8" t="n"/>
+      <c r="S221" s="9" t="n"/>
     </row>
     <row r="222">
       <c r="A222" s="5" t="n">
@@ -5353,7 +5435,7 @@
       <c r="J222" t="n">
         <v>10</v>
       </c>
-      <c r="S222" t="inlineStr">
+      <c r="S222" s="9" t="inlineStr">
         <is>
           <t>FOR ITEM #308 #311 #315</t>
         </is>
@@ -5373,7 +5455,7 @@
       </c>
       <c r="F223" s="7" t="n"/>
       <c r="G223" s="8" t="n"/>
-      <c r="S223" t="inlineStr">
+      <c r="S223" s="9" t="inlineStr">
         <is>
           <t>EXISTING TO REMAIN</t>
         </is>
@@ -5393,7 +5475,7 @@
       </c>
       <c r="F224" s="7" t="n"/>
       <c r="G224" s="8" t="n"/>
-      <c r="S224" t="inlineStr">
+      <c r="S224" s="9" t="inlineStr">
         <is>
           <t>EXISTING TO REMAIN</t>
         </is>
@@ -5413,7 +5495,7 @@
       </c>
       <c r="F225" s="7" t="n"/>
       <c r="G225" s="8" t="n"/>
-      <c r="S225" t="inlineStr">
+      <c r="S225" s="9" t="inlineStr">
         <is>
           <t>SLIM JIM EXISTING TO REMAIN</t>
         </is>
@@ -5435,6 +5517,7 @@
       </c>
       <c r="F226" s="7" t="n"/>
       <c r="G226" s="8" t="n"/>
+      <c r="S226" s="9" t="n"/>
     </row>
     <row r="227">
       <c r="A227" s="5" t="n">
@@ -5466,6 +5549,7 @@
           <t>1/4"</t>
         </is>
       </c>
+      <c r="S227" s="9" t="n"/>
     </row>
     <row r="228">
       <c r="A228" s="5" t="n">
@@ -5481,7 +5565,7 @@
       </c>
       <c r="F228" s="7" t="n"/>
       <c r="G228" s="8" t="n"/>
-      <c r="S228" t="inlineStr">
+      <c r="S228" s="9" t="inlineStr">
         <is>
           <t>MOBILE EXISTING TO REMAIN</t>
         </is>
@@ -5501,7 +5585,7 @@
       </c>
       <c r="F229" s="7" t="n"/>
       <c r="G229" s="8" t="n"/>
-      <c r="S229" t="inlineStr">
+      <c r="S229" s="9" t="inlineStr">
         <is>
           <t>EXISTING TO REMAIN</t>
         </is>
@@ -5521,7 +5605,7 @@
       </c>
       <c r="F230" s="7" t="n"/>
       <c r="G230" s="8" t="n"/>
-      <c r="S230" t="inlineStr">
+      <c r="S230" s="9" t="inlineStr">
         <is>
           <t>EXISTING TO REMAIN</t>
         </is>
@@ -5552,6 +5636,7 @@
         <f>IF(E231&gt;1,(1.732*D231*F231)/1000,(D231*F231)/1000)</f>
         <v/>
       </c>
+      <c r="S231" s="9" t="n"/>
     </row>
     <row r="232">
       <c r="A232" s="5" t="n">
@@ -5575,7 +5660,7 @@
       <c r="J232" t="n">
         <v>10</v>
       </c>
-      <c r="S232" t="inlineStr">
+      <c r="S232" s="9" t="inlineStr">
         <is>
           <t>FOR ITEM #322</t>
         </is>
@@ -5606,6 +5691,7 @@
         <f>IF(E233&gt;1,(1.732*D233*F233)/1000,(D233*F233)/1000)</f>
         <v/>
       </c>
+      <c r="S233" s="9" t="n"/>
     </row>
     <row r="234">
       <c r="A234" s="5" t="n">
@@ -5621,7 +5707,7 @@
       </c>
       <c r="F234" s="7" t="n"/>
       <c r="G234" s="8" t="n"/>
-      <c r="S234" t="inlineStr">
+      <c r="S234" s="9" t="inlineStr">
         <is>
           <t>EXISTING TO REMAIN</t>
         </is>
@@ -5641,7 +5727,7 @@
       </c>
       <c r="F235" s="7" t="n"/>
       <c r="G235" s="8" t="n"/>
-      <c r="S235" t="inlineStr">
+      <c r="S235" s="9" t="inlineStr">
         <is>
           <t>EXISTING TO REMAIN</t>
         </is>
@@ -5661,7 +5747,7 @@
       </c>
       <c r="F236" s="7" t="n"/>
       <c r="G236" s="8" t="n"/>
-      <c r="S236" t="inlineStr">
+      <c r="S236" s="9" t="inlineStr">
         <is>
           <t>MOBILE EXISTING TO REMAIN</t>
         </is>
@@ -5683,6 +5769,7 @@
       </c>
       <c r="F237" s="7" t="n"/>
       <c r="G237" s="8" t="n"/>
+      <c r="S237" s="9" t="n"/>
     </row>
     <row r="238">
       <c r="A238" s="5" t="n">
@@ -5698,7 +5785,7 @@
       </c>
       <c r="F238" s="7" t="n"/>
       <c r="G238" s="8" t="n"/>
-      <c r="S238" t="inlineStr">
+      <c r="S238" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E EXISTING TO REMAIN</t>
         </is>
@@ -5718,7 +5805,7 @@
       </c>
       <c r="F239" s="7" t="n"/>
       <c r="G239" s="8" t="n"/>
-      <c r="S239" t="inlineStr">
+      <c r="S239" s="9" t="inlineStr">
         <is>
           <t>EXISTING TO REMAIN</t>
         </is>
@@ -5738,7 +5825,7 @@
       </c>
       <c r="F240" s="7" t="n"/>
       <c r="G240" s="8" t="n"/>
-      <c r="S240" t="inlineStr">
+      <c r="S240" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E EXISTING TO REMAIN</t>
         </is>
@@ -5760,6 +5847,7 @@
       </c>
       <c r="F241" s="7" t="n"/>
       <c r="G241" s="8" t="n"/>
+      <c r="S241" s="9" t="n"/>
     </row>
     <row r="242">
       <c r="A242" s="5" t="n">
@@ -5777,6 +5865,7 @@
       </c>
       <c r="F242" s="7" t="n"/>
       <c r="G242" s="8" t="n"/>
+      <c r="S242" s="9" t="n"/>
     </row>
     <row r="243">
       <c r="A243" s="5" t="n">
@@ -5792,7 +5881,7 @@
       </c>
       <c r="F243" s="7" t="n"/>
       <c r="G243" s="8" t="n"/>
-      <c r="S243" t="inlineStr">
+      <c r="S243" s="9" t="inlineStr">
         <is>
           <t>EXISTING TO REMAIN</t>
         </is>
@@ -5812,7 +5901,7 @@
       </c>
       <c r="F244" s="7" t="n"/>
       <c r="G244" s="8" t="n"/>
-      <c r="S244" t="inlineStr">
+      <c r="S244" s="9" t="inlineStr">
         <is>
           <t>MOBILE EXISTING TO REMAIN</t>
         </is>
@@ -5832,7 +5921,7 @@
       </c>
       <c r="F245" s="7" t="n"/>
       <c r="G245" s="8" t="n"/>
-      <c r="S245" t="inlineStr">
+      <c r="S245" s="9" t="inlineStr">
         <is>
           <t>SLIM JIM EXISTING TO REMAIN</t>
         </is>
@@ -5852,7 +5941,7 @@
       </c>
       <c r="F246" s="7" t="n"/>
       <c r="G246" s="8" t="n"/>
-      <c r="S246" t="inlineStr">
+      <c r="S246" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION EXISTING TO REMAIN</t>
         </is>
@@ -5874,6 +5963,7 @@
       </c>
       <c r="F247" s="7" t="n"/>
       <c r="G247" s="8" t="n"/>
+      <c r="S247" s="9" t="n"/>
     </row>
     <row r="248">
       <c r="A248" s="5" t="n">
@@ -5889,7 +5979,7 @@
       </c>
       <c r="F248" s="7" t="n"/>
       <c r="G248" s="8" t="n"/>
-      <c r="S248" t="inlineStr">
+      <c r="S248" s="9" t="inlineStr">
         <is>
           <t>WITH SOAP &amp; TOWEL DISPENSER EXISTING TO REMAIN</t>
         </is>
@@ -5920,6 +6010,7 @@
         <f>IF(E249&gt;1,(1.732*D249*F249)/1000,(D249*F249)/1000)</f>
         <v/>
       </c>
+      <c r="S249" s="9" t="n"/>
     </row>
     <row r="250">
       <c r="A250" s="5" t="n">
@@ -5946,7 +6037,7 @@
         <f>IF(E250&gt;1,(1.732*D250*F250)/1000,(D250*F250)/1000)</f>
         <v/>
       </c>
-      <c r="S250" t="inlineStr">
+      <c r="S250" s="9" t="inlineStr">
         <is>
           <t>EXISTING TO BE RELOCATED</t>
         </is>
@@ -5968,6 +6059,7 @@
       </c>
       <c r="F251" s="7" t="n"/>
       <c r="G251" s="8" t="n"/>
+      <c r="S251" s="9" t="n"/>
     </row>
     <row r="252">
       <c r="A252" s="5" t="inlineStr">
@@ -5987,6 +6079,7 @@
       </c>
       <c r="F252" s="7" t="n"/>
       <c r="G252" s="8" t="n"/>
+      <c r="S252" s="9" t="n"/>
     </row>
     <row r="253">
       <c r="A253" s="3" t="inlineStr">
@@ -6027,7 +6120,7 @@
       </c>
       <c r="F254" s="7" t="n"/>
       <c r="G254" s="8" t="n"/>
-      <c r="S254" t="inlineStr">
+      <c r="S254" s="9" t="inlineStr">
         <is>
           <t>BY INTERIOR DESIGNER GRANITE TOP WITH DRINK RAIL</t>
         </is>
@@ -6058,6 +6151,7 @@
         <f>IF(E255&gt;1,(1.732*D255*F255)/1000,(D255*F255)/1000)</f>
         <v/>
       </c>
+      <c r="S255" s="9" t="n"/>
     </row>
     <row r="256">
       <c r="A256" s="5" t="n">
@@ -6073,6 +6167,7 @@
       </c>
       <c r="F256" s="7" t="n"/>
       <c r="G256" s="8" t="n"/>
+      <c r="S256" s="9" t="n"/>
     </row>
     <row r="257">
       <c r="A257" s="5" t="n">
@@ -6106,6 +6201,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
+      <c r="S257" s="9" t="n"/>
     </row>
     <row r="258">
       <c r="A258" s="5" t="n">
@@ -6123,6 +6219,7 @@
       </c>
       <c r="F258" s="7" t="n"/>
       <c r="G258" s="8" t="n"/>
+      <c r="S258" s="9" t="n"/>
     </row>
     <row r="259">
       <c r="A259" s="5" t="n">
@@ -6148,6 +6245,7 @@
           <t>1/2"</t>
         </is>
       </c>
+      <c r="S259" s="9" t="n"/>
     </row>
     <row r="260">
       <c r="A260" s="5" t="n">
@@ -6163,7 +6261,7 @@
       </c>
       <c r="F260" s="7" t="n"/>
       <c r="G260" s="8" t="n"/>
-      <c r="S260" t="inlineStr">
+      <c r="S260" s="9" t="inlineStr">
         <is>
           <t>WITH SODA GUN</t>
         </is>
@@ -6183,6 +6281,7 @@
       </c>
       <c r="F261" s="7" t="n"/>
       <c r="G261" s="8" t="n"/>
+      <c r="S261" s="9" t="n"/>
     </row>
     <row r="262">
       <c r="A262" s="5" t="n">
@@ -6200,6 +6299,7 @@
       </c>
       <c r="F262" s="7" t="n"/>
       <c r="G262" s="8" t="n"/>
+      <c r="S262" s="9" t="n"/>
     </row>
     <row r="263">
       <c r="A263" s="5" t="n">
@@ -6217,6 +6317,7 @@
       </c>
       <c r="F263" s="7" t="n"/>
       <c r="G263" s="8" t="n"/>
+      <c r="S263" s="9" t="n"/>
     </row>
     <row r="264">
       <c r="A264" s="5" t="n">
@@ -6237,6 +6338,7 @@
           <t>1/2"</t>
         </is>
       </c>
+      <c r="S264" s="9" t="n"/>
     </row>
     <row r="265">
       <c r="A265" s="5" t="n">
@@ -6252,6 +6354,7 @@
       </c>
       <c r="F265" s="7" t="n"/>
       <c r="G265" s="8" t="n"/>
+      <c r="S265" s="9" t="n"/>
     </row>
     <row r="266">
       <c r="A266" s="5" t="n">
@@ -6267,6 +6370,7 @@
       </c>
       <c r="F266" s="7" t="n"/>
       <c r="G266" s="8" t="n"/>
+      <c r="S266" s="9" t="n"/>
     </row>
     <row r="267">
       <c r="A267" s="5" t="n">
@@ -6282,7 +6386,7 @@
       </c>
       <c r="F267" s="7" t="n"/>
       <c r="G267" s="8" t="n"/>
-      <c r="S267" t="inlineStr">
+      <c r="S267" s="9" t="inlineStr">
         <is>
           <t>WITH SLIM JIM TRASH RECEPTACLE</t>
         </is>
@@ -6304,6 +6408,7 @@
       </c>
       <c r="F268" s="7" t="n"/>
       <c r="G268" s="8" t="n"/>
+      <c r="S268" s="9" t="n"/>
     </row>
     <row r="269">
       <c r="A269" s="5" t="n">
@@ -6319,6 +6424,7 @@
       </c>
       <c r="F269" s="7" t="n"/>
       <c r="G269" s="8" t="n"/>
+      <c r="S269" s="9" t="n"/>
     </row>
     <row r="270">
       <c r="A270" s="5" t="n">
@@ -6334,6 +6440,7 @@
       </c>
       <c r="F270" s="7" t="n"/>
       <c r="G270" s="8" t="n"/>
+      <c r="S270" s="9" t="n"/>
     </row>
     <row r="271">
       <c r="A271" s="5" t="n">
@@ -6360,7 +6467,7 @@
         <f>IF(E271&gt;1,(1.732*D271*F271)/1000,(D271*F271)/1000)</f>
         <v/>
       </c>
-      <c r="S271" t="inlineStr">
+      <c r="S271" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -6382,6 +6489,7 @@
       </c>
       <c r="F272" s="7" t="n"/>
       <c r="G272" s="8" t="n"/>
+      <c r="S272" s="9" t="n"/>
     </row>
     <row r="273">
       <c r="A273" s="5" t="n">
@@ -6399,6 +6507,7 @@
       </c>
       <c r="F273" s="7" t="n"/>
       <c r="G273" s="8" t="n"/>
+      <c r="S273" s="9" t="n"/>
     </row>
     <row r="274">
       <c r="A274" s="5" t="n">
@@ -6425,7 +6534,7 @@
         <f>IF(E274&gt;1,(1.732*D274*F274)/1000,(D274*F274)/1000)</f>
         <v/>
       </c>
-      <c r="S274" t="inlineStr">
+      <c r="S274" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -6445,6 +6554,7 @@
       </c>
       <c r="F275" s="7" t="n"/>
       <c r="G275" s="8" t="n"/>
+      <c r="S275" s="9" t="n"/>
     </row>
     <row r="276">
       <c r="A276" s="5" t="n">
@@ -6478,6 +6588,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
+      <c r="S276" s="9" t="n"/>
     </row>
     <row r="277">
       <c r="A277" s="5" t="n">
@@ -6503,6 +6614,7 @@
           <t>1/2"</t>
         </is>
       </c>
+      <c r="S277" s="9" t="n"/>
     </row>
     <row r="278">
       <c r="A278" s="5" t="n">
@@ -6520,6 +6632,7 @@
       </c>
       <c r="F278" s="7" t="n"/>
       <c r="G278" s="8" t="n"/>
+      <c r="S278" s="9" t="n"/>
     </row>
     <row r="279">
       <c r="A279" s="5" t="n">
@@ -6535,7 +6648,7 @@
       </c>
       <c r="F279" s="7" t="n"/>
       <c r="G279" s="8" t="n"/>
-      <c r="S279" t="inlineStr">
+      <c r="S279" s="9" t="inlineStr">
         <is>
           <t>WITH SODA GUN</t>
         </is>
@@ -6555,6 +6668,7 @@
       </c>
       <c r="F280" s="7" t="n"/>
       <c r="G280" s="8" t="n"/>
+      <c r="S280" s="9" t="n"/>
     </row>
     <row r="281">
       <c r="A281" s="5" t="n">
@@ -6575,6 +6689,7 @@
           <t>1/2"</t>
         </is>
       </c>
+      <c r="S281" s="9" t="n"/>
     </row>
     <row r="282">
       <c r="A282" s="5" t="n">
@@ -6592,6 +6707,7 @@
       </c>
       <c r="F282" s="7" t="n"/>
       <c r="G282" s="8" t="n"/>
+      <c r="S282" s="9" t="n"/>
     </row>
     <row r="283">
       <c r="A283" s="5" t="n">
@@ -6609,6 +6725,7 @@
       </c>
       <c r="F283" s="7" t="n"/>
       <c r="G283" s="8" t="n"/>
+      <c r="S283" s="9" t="n"/>
     </row>
     <row r="284">
       <c r="A284" s="5" t="n">
@@ -6624,6 +6741,7 @@
       </c>
       <c r="F284" s="7" t="n"/>
       <c r="G284" s="8" t="n"/>
+      <c r="S284" s="9" t="n"/>
     </row>
     <row r="285">
       <c r="A285" s="5" t="n">
@@ -6639,6 +6757,7 @@
       </c>
       <c r="F285" s="7" t="n"/>
       <c r="G285" s="8" t="n"/>
+      <c r="S285" s="9" t="n"/>
     </row>
     <row r="286">
       <c r="A286" s="5" t="n">
@@ -6654,6 +6773,7 @@
       </c>
       <c r="F286" s="7" t="n"/>
       <c r="G286" s="8" t="n"/>
+      <c r="S286" s="9" t="n"/>
     </row>
     <row r="287">
       <c r="A287" s="5" t="n">
@@ -6669,7 +6789,7 @@
       </c>
       <c r="F287" s="7" t="n"/>
       <c r="G287" s="8" t="n"/>
-      <c r="S287" t="inlineStr">
+      <c r="S287" s="9" t="inlineStr">
         <is>
           <t>WITH SLIM JIM TRASH RECEPTACLE</t>
         </is>
@@ -6691,6 +6811,7 @@
       </c>
       <c r="F288" s="7" t="n"/>
       <c r="G288" s="8" t="n"/>
+      <c r="S288" s="9" t="n"/>
     </row>
     <row r="289">
       <c r="A289" s="5" t="n">
@@ -6706,6 +6827,7 @@
       </c>
       <c r="F289" s="7" t="n"/>
       <c r="G289" s="8" t="n"/>
+      <c r="S289" s="9" t="n"/>
     </row>
     <row r="290">
       <c r="A290" s="5" t="n">
@@ -6721,6 +6843,7 @@
       </c>
       <c r="F290" s="7" t="n"/>
       <c r="G290" s="8" t="n"/>
+      <c r="S290" s="9" t="n"/>
     </row>
     <row r="291">
       <c r="A291" s="5" t="n">
@@ -6747,7 +6870,7 @@
         <f>IF(E291&gt;1,(1.732*D291*F291)/1000,(D291*F291)/1000)</f>
         <v/>
       </c>
-      <c r="S291" t="inlineStr">
+      <c r="S291" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -6769,6 +6892,7 @@
       </c>
       <c r="F292" s="7" t="n"/>
       <c r="G292" s="8" t="n"/>
+      <c r="S292" s="9" t="n"/>
     </row>
     <row r="293">
       <c r="A293" s="5" t="n">
@@ -6786,6 +6910,7 @@
       </c>
       <c r="F293" s="7" t="n"/>
       <c r="G293" s="8" t="n"/>
+      <c r="S293" s="9" t="n"/>
     </row>
     <row r="294">
       <c r="A294" s="5" t="n">
@@ -6812,7 +6937,7 @@
         <f>IF(E294&gt;1,(1.732*D294*F294)/1000,(D294*F294)/1000)</f>
         <v/>
       </c>
-      <c r="S294" t="inlineStr">
+      <c r="S294" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -6832,6 +6957,7 @@
       </c>
       <c r="F295" s="7" t="n"/>
       <c r="G295" s="8" t="n"/>
+      <c r="S295" s="9" t="n"/>
     </row>
     <row r="296">
       <c r="A296" s="5" t="n">
@@ -6847,7 +6973,7 @@
       </c>
       <c r="F296" s="7" t="n"/>
       <c r="G296" s="8" t="n"/>
-      <c r="S296" t="inlineStr">
+      <c r="S296" s="9" t="inlineStr">
         <is>
           <t>WITH SLIM JIM TRASH RECEPTACLE</t>
         </is>
@@ -6867,6 +6993,7 @@
       </c>
       <c r="F297" s="7" t="n"/>
       <c r="G297" s="8" t="n"/>
+      <c r="S297" s="9" t="n"/>
     </row>
     <row r="298">
       <c r="A298" s="5" t="n">
@@ -6884,6 +7011,7 @@
       </c>
       <c r="F298" s="7" t="n"/>
       <c r="G298" s="8" t="n"/>
+      <c r="S298" s="9" t="n"/>
     </row>
     <row r="299">
       <c r="A299" s="5" t="n">
@@ -6917,6 +7045,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
+      <c r="S299" s="9" t="n"/>
     </row>
     <row r="300">
       <c r="A300" s="5" t="n">
@@ -6932,6 +7061,7 @@
       </c>
       <c r="F300" s="7" t="n"/>
       <c r="G300" s="8" t="n"/>
+      <c r="S300" s="9" t="n"/>
     </row>
     <row r="301">
       <c r="A301" s="5" t="n">
@@ -6952,6 +7082,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
+      <c r="S301" s="9" t="n"/>
     </row>
     <row r="302">
       <c r="A302" s="5" t="n">
@@ -6969,6 +7100,7 @@
       </c>
       <c r="F302" s="7" t="n"/>
       <c r="G302" s="8" t="n"/>
+      <c r="S302" s="9" t="n"/>
     </row>
     <row r="303">
       <c r="A303" s="5" t="n">
@@ -6986,6 +7118,7 @@
       </c>
       <c r="F303" s="7" t="n"/>
       <c r="G303" s="8" t="n"/>
+      <c r="S303" s="9" t="n"/>
     </row>
     <row r="304">
       <c r="A304" s="5" t="n">
@@ -7001,6 +7134,7 @@
       </c>
       <c r="F304" s="7" t="n"/>
       <c r="G304" s="8" t="n"/>
+      <c r="S304" s="9" t="n"/>
     </row>
     <row r="305">
       <c r="A305" s="5" t="n">
@@ -7040,7 +7174,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S305" t="inlineStr">
+      <c r="S305" s="9" t="inlineStr">
         <is>
           <t>180° RINSE</t>
         </is>
@@ -7060,6 +7194,7 @@
       </c>
       <c r="F306" s="7" t="n"/>
       <c r="G306" s="8" t="n"/>
+      <c r="S306" s="9" t="n"/>
     </row>
     <row r="307">
       <c r="A307" s="5" t="n">
@@ -7080,6 +7215,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
+      <c r="S307" s="9" t="n"/>
     </row>
     <row r="308">
       <c r="A308" s="5" t="n">
@@ -7097,6 +7233,7 @@
       </c>
       <c r="F308" s="7" t="n"/>
       <c r="G308" s="8" t="n"/>
+      <c r="S308" s="9" t="n"/>
     </row>
     <row r="309">
       <c r="A309" s="5" t="n">
@@ -7112,6 +7249,7 @@
       </c>
       <c r="F309" s="7" t="n"/>
       <c r="G309" s="8" t="n"/>
+      <c r="S309" s="9" t="n"/>
     </row>
     <row r="310">
       <c r="A310" s="5" t="n">
@@ -7145,6 +7283,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
+      <c r="S310" s="9" t="n"/>
     </row>
     <row r="311">
       <c r="A311" s="5" t="n">
@@ -7160,6 +7299,7 @@
       </c>
       <c r="F311" s="7" t="n"/>
       <c r="G311" s="8" t="n"/>
+      <c r="S311" s="9" t="n"/>
     </row>
     <row r="312">
       <c r="A312" s="5" t="n">
@@ -7177,6 +7317,7 @@
       </c>
       <c r="F312" s="7" t="n"/>
       <c r="G312" s="8" t="n"/>
+      <c r="S312" s="9" t="n"/>
     </row>
     <row r="313">
       <c r="A313" s="5" t="n">
@@ -7194,6 +7335,7 @@
       </c>
       <c r="F313" s="7" t="n"/>
       <c r="G313" s="8" t="n"/>
+      <c r="S313" s="9" t="n"/>
     </row>
     <row r="314">
       <c r="A314" s="5" t="n">
@@ -7211,6 +7353,7 @@
       </c>
       <c r="F314" s="7" t="n"/>
       <c r="G314" s="8" t="n"/>
+      <c r="S314" s="9" t="n"/>
     </row>
     <row r="315">
       <c r="A315" s="5" t="n">
@@ -7228,6 +7371,7 @@
       </c>
       <c r="F315" s="7" t="n"/>
       <c r="G315" s="8" t="n"/>
+      <c r="S315" s="9" t="n"/>
     </row>
     <row r="316">
       <c r="A316" s="5" t="n">
@@ -7245,6 +7389,7 @@
       </c>
       <c r="F316" s="7" t="n"/>
       <c r="G316" s="8" t="n"/>
+      <c r="S316" s="9" t="n"/>
     </row>
     <row r="317">
       <c r="A317" s="5" t="n">
@@ -7262,6 +7407,7 @@
       </c>
       <c r="F317" s="7" t="n"/>
       <c r="G317" s="8" t="n"/>
+      <c r="S317" s="9" t="n"/>
     </row>
     <row r="318">
       <c r="A318" s="5" t="n">
@@ -7279,6 +7425,7 @@
       </c>
       <c r="F318" s="7" t="n"/>
       <c r="G318" s="8" t="n"/>
+      <c r="S318" s="9" t="n"/>
     </row>
     <row r="319">
       <c r="A319" s="5" t="n">
@@ -7296,6 +7443,7 @@
       </c>
       <c r="F319" s="7" t="n"/>
       <c r="G319" s="8" t="n"/>
+      <c r="S319" s="9" t="n"/>
     </row>
     <row r="320">
       <c r="A320" s="5" t="n">
@@ -7313,6 +7461,7 @@
       </c>
       <c r="F320" s="7" t="n"/>
       <c r="G320" s="8" t="n"/>
+      <c r="S320" s="9" t="n"/>
     </row>
     <row r="321">
       <c r="A321" s="5" t="n">
@@ -7330,6 +7479,7 @@
       </c>
       <c r="F321" s="7" t="n"/>
       <c r="G321" s="8" t="n"/>
+      <c r="S321" s="9" t="n"/>
     </row>
     <row r="322">
       <c r="A322" s="5" t="n">
@@ -7347,6 +7497,7 @@
       </c>
       <c r="F322" s="7" t="n"/>
       <c r="G322" s="8" t="n"/>
+      <c r="S322" s="9" t="n"/>
     </row>
     <row r="323">
       <c r="A323" s="5" t="n">
@@ -7364,6 +7515,7 @@
       </c>
       <c r="F323" s="7" t="n"/>
       <c r="G323" s="8" t="n"/>
+      <c r="S323" s="9" t="n"/>
     </row>
     <row r="324">
       <c r="A324" s="5" t="n">
@@ -7379,7 +7531,7 @@
       </c>
       <c r="F324" s="7" t="n"/>
       <c r="G324" s="8" t="n"/>
-      <c r="S324" t="inlineStr">
+      <c r="S324" s="9" t="inlineStr">
         <is>
           <t>BY INTERIOR DESIGNER GRANITE TOP</t>
         </is>
@@ -7415,7 +7567,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S325" t="inlineStr">
+      <c r="S325" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH DOORS</t>
         </is>
@@ -7437,6 +7589,7 @@
       </c>
       <c r="F326" s="7" t="n"/>
       <c r="G326" s="8" t="n"/>
+      <c r="S326" s="9" t="n"/>
     </row>
     <row r="327">
       <c r="A327" s="5" t="n">
@@ -7454,6 +7607,7 @@
       </c>
       <c r="F327" s="7" t="n"/>
       <c r="G327" s="8" t="n"/>
+      <c r="S327" s="9" t="n"/>
     </row>
     <row r="328">
       <c r="A328" s="5" t="n">
@@ -7471,6 +7625,7 @@
       </c>
       <c r="F328" s="7" t="n"/>
       <c r="G328" s="8" t="n"/>
+      <c r="S328" s="9" t="n"/>
     </row>
     <row r="329">
       <c r="A329" s="5" t="n">
@@ -7488,6 +7643,7 @@
       </c>
       <c r="F329" s="7" t="n"/>
       <c r="G329" s="8" t="n"/>
+      <c r="S329" s="9" t="n"/>
     </row>
     <row r="330">
       <c r="A330" s="5" t="n">
@@ -7505,6 +7661,7 @@
       </c>
       <c r="F330" s="7" t="n"/>
       <c r="G330" s="8" t="n"/>
+      <c r="S330" s="9" t="n"/>
     </row>
     <row r="331">
       <c r="A331" s="5" t="n">
@@ -7522,6 +7679,7 @@
       </c>
       <c r="F331" s="7" t="n"/>
       <c r="G331" s="8" t="n"/>
+      <c r="S331" s="9" t="n"/>
     </row>
     <row r="332">
       <c r="A332" s="5" t="n">
@@ -7539,6 +7697,7 @@
       </c>
       <c r="F332" s="7" t="n"/>
       <c r="G332" s="8" t="n"/>
+      <c r="S332" s="9" t="n"/>
     </row>
     <row r="333">
       <c r="A333" s="5" t="inlineStr">
@@ -7558,6 +7717,7 @@
       </c>
       <c r="F333" s="7" t="n"/>
       <c r="G333" s="8" t="n"/>
+      <c r="S333" s="9" t="n"/>
     </row>
     <row r="334">
       <c r="A334" s="3" t="inlineStr">
@@ -7609,7 +7769,7 @@
         <f>IF(E335&gt;1,(1.732*D335*F335)/1000,(D335*F335)/1000)</f>
         <v/>
       </c>
-      <c r="S335" t="inlineStr">
+      <c r="S335" s="9" t="inlineStr">
         <is>
           <t>MILLWORK / BY GENERAL CONTRACTOR</t>
         </is>
@@ -7629,7 +7789,7 @@
       </c>
       <c r="F336" s="7" t="n"/>
       <c r="G336" s="8" t="n"/>
-      <c r="S336" t="inlineStr">
+      <c r="S336" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -7649,7 +7809,7 @@
       </c>
       <c r="F337" s="7" t="n"/>
       <c r="G337" s="8" t="n"/>
-      <c r="S337" t="inlineStr">
+      <c r="S337" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION MOBILE</t>
         </is>
@@ -7680,6 +7840,7 @@
         <f>IF(E338&gt;1,(1.732*D338*F338)/1000,(D338*F338)/1000)</f>
         <v/>
       </c>
+      <c r="S338" s="9" t="n"/>
     </row>
     <row r="339">
       <c r="A339" s="5" t="n">
@@ -7697,6 +7858,7 @@
       </c>
       <c r="F339" s="7" t="n"/>
       <c r="G339" s="8" t="n"/>
+      <c r="S339" s="9" t="n"/>
     </row>
     <row r="340">
       <c r="A340" s="5" t="n">
@@ -7723,7 +7885,7 @@
         <f>IF(E340&gt;1,(1.732*D340*F340)/1000,(D340*F340)/1000)</f>
         <v/>
       </c>
-      <c r="S340" t="inlineStr">
+      <c r="S340" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #502</t>
         </is>
@@ -7761,7 +7923,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S341" t="inlineStr">
+      <c r="S341" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #502</t>
         </is>
@@ -7781,7 +7943,7 @@
       </c>
       <c r="F342" s="7" t="n"/>
       <c r="G342" s="8" t="n"/>
-      <c r="S342" t="inlineStr">
+      <c r="S342" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #502</t>
         </is>
@@ -7803,6 +7965,7 @@
       </c>
       <c r="F343" s="7" t="n"/>
       <c r="G343" s="8" t="n"/>
+      <c r="S343" s="9" t="n"/>
     </row>
     <row r="344">
       <c r="A344" s="5" t="n">
@@ -7820,6 +7983,7 @@
       </c>
       <c r="F344" s="7" t="n"/>
       <c r="G344" s="8" t="n"/>
+      <c r="S344" s="9" t="n"/>
     </row>
     <row r="345">
       <c r="A345" s="5" t="n">
@@ -7835,7 +7999,7 @@
       </c>
       <c r="F345" s="7" t="n"/>
       <c r="G345" s="8" t="n"/>
-      <c r="S345" t="inlineStr">
+      <c r="S345" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -7866,6 +8030,7 @@
         <f>IF(E346&gt;1,(1.732*D346*F346)/1000,(D346*F346)/1000)</f>
         <v/>
       </c>
+      <c r="S346" s="9" t="n"/>
     </row>
     <row r="347">
       <c r="A347" s="5" t="n">
@@ -7897,7 +8062,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S347" t="inlineStr">
+      <c r="S347" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH PAN SLIDES PART OF ITEM #502</t>
         </is>
@@ -7917,7 +8082,7 @@
       </c>
       <c r="F348" s="7" t="n"/>
       <c r="G348" s="8" t="n"/>
-      <c r="S348" t="inlineStr">
+      <c r="S348" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION RECESSED PART OF ITEM #502</t>
         </is>
@@ -7939,6 +8104,7 @@
       </c>
       <c r="F349" s="7" t="n"/>
       <c r="G349" s="8" t="n"/>
+      <c r="S349" s="9" t="n"/>
     </row>
     <row r="350">
       <c r="A350" s="5" t="n">
@@ -7972,7 +8138,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S350" t="inlineStr">
+      <c r="S350" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #502</t>
         </is>
@@ -7992,7 +8158,7 @@
       </c>
       <c r="F351" s="7" t="n"/>
       <c r="G351" s="8" t="n"/>
-      <c r="S351" t="inlineStr">
+      <c r="S351" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION MOBILE</t>
         </is>
@@ -8023,6 +8189,7 @@
         <f>IF(E352&gt;1,(1.732*D352*F352)/1000,(D352*F352)/1000)</f>
         <v/>
       </c>
+      <c r="S352" s="9" t="n"/>
     </row>
     <row r="353">
       <c r="A353" s="5" t="n">
@@ -8040,6 +8207,7 @@
       </c>
       <c r="F353" s="7" t="n"/>
       <c r="G353" s="8" t="n"/>
+      <c r="S353" s="9" t="n"/>
     </row>
     <row r="354">
       <c r="A354" s="5" t="n">
@@ -8057,6 +8225,7 @@
       </c>
       <c r="F354" s="7" t="n"/>
       <c r="G354" s="8" t="n"/>
+      <c r="S354" s="9" t="n"/>
     </row>
     <row r="355">
       <c r="A355" s="5" t="n">
@@ -8072,7 +8241,7 @@
       </c>
       <c r="F355" s="7" t="n"/>
       <c r="G355" s="8" t="n"/>
-      <c r="S355" t="inlineStr">
+      <c r="S355" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #502</t>
         </is>
@@ -8092,7 +8261,7 @@
       </c>
       <c r="F356" s="7" t="n"/>
       <c r="G356" s="8" t="n"/>
-      <c r="S356" t="inlineStr">
+      <c r="S356" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -8123,6 +8292,7 @@
         <f>IF(E357&gt;1,(1.732*D357*F357)/1000,(D357*F357)/1000)</f>
         <v/>
       </c>
+      <c r="S357" s="9" t="n"/>
     </row>
     <row r="358">
       <c r="A358" s="5" t="n">
@@ -8154,7 +8324,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S358" t="inlineStr">
+      <c r="S358" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH PAN SLIDES PART OF ITEM #502</t>
         </is>
@@ -8176,6 +8346,7 @@
       </c>
       <c r="F359" s="7" t="n"/>
       <c r="G359" s="8" t="n"/>
+      <c r="S359" s="9" t="n"/>
     </row>
     <row r="360">
       <c r="A360" s="5" t="n">
@@ -8191,7 +8362,7 @@
       </c>
       <c r="F360" s="7" t="n"/>
       <c r="G360" s="8" t="n"/>
-      <c r="S360" t="inlineStr">
+      <c r="S360" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION RECESSED PART OF ITEM #502</t>
         </is>
@@ -8211,7 +8382,7 @@
       </c>
       <c r="F361" s="7" t="n"/>
       <c r="G361" s="8" t="n"/>
-      <c r="S361" t="inlineStr">
+      <c r="S361" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION MOBILE</t>
         </is>
@@ -8242,6 +8413,7 @@
         <f>IF(E362&gt;1,(1.732*D362*F362)/1000,(D362*F362)/1000)</f>
         <v/>
       </c>
+      <c r="S362" s="9" t="n"/>
     </row>
     <row r="363">
       <c r="A363" s="5" t="n">
@@ -8259,6 +8431,7 @@
       </c>
       <c r="F363" s="7" t="n"/>
       <c r="G363" s="8" t="n"/>
+      <c r="S363" s="9" t="n"/>
     </row>
     <row r="364">
       <c r="A364" s="5" t="n">
@@ -8276,6 +8449,7 @@
       </c>
       <c r="F364" s="7" t="n"/>
       <c r="G364" s="8" t="n"/>
+      <c r="S364" s="9" t="n"/>
     </row>
     <row r="365">
       <c r="A365" s="5" t="n">
@@ -8309,7 +8483,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S365" t="inlineStr">
+      <c r="S365" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #502</t>
         </is>
@@ -8329,7 +8503,7 @@
       </c>
       <c r="F366" s="7" t="n"/>
       <c r="G366" s="8" t="n"/>
-      <c r="S366" t="inlineStr">
+      <c r="S366" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #502</t>
         </is>
@@ -8349,7 +8523,7 @@
       </c>
       <c r="F367" s="7" t="n"/>
       <c r="G367" s="8" t="n"/>
-      <c r="S367" t="inlineStr">
+      <c r="S367" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -8380,6 +8554,7 @@
         <f>IF(E368&gt;1,(1.732*D368*F368)/1000,(D368*F368)/1000)</f>
         <v/>
       </c>
+      <c r="S368" s="9" t="n"/>
     </row>
     <row r="369">
       <c r="A369" s="5" t="n">
@@ -8397,6 +8572,7 @@
       </c>
       <c r="F369" s="7" t="n"/>
       <c r="G369" s="8" t="n"/>
+      <c r="S369" s="9" t="n"/>
     </row>
     <row r="370">
       <c r="A370" s="5" t="n">
@@ -8428,7 +8604,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S370" t="inlineStr">
+      <c r="S370" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH PAN SLIDES PART OF ITEM #502</t>
         </is>
@@ -8448,7 +8624,7 @@
       </c>
       <c r="F371" s="7" t="n"/>
       <c r="G371" s="8" t="n"/>
-      <c r="S371" t="inlineStr">
+      <c r="S371" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION RECESSED PART OF ITEM #502</t>
         </is>
@@ -8486,7 +8662,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S372" t="inlineStr">
+      <c r="S372" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #502</t>
         </is>
@@ -8508,6 +8684,7 @@
       </c>
       <c r="F373" s="7" t="n"/>
       <c r="G373" s="8" t="n"/>
+      <c r="S373" s="9" t="n"/>
     </row>
     <row r="374">
       <c r="A374" s="5" t="n">
@@ -8525,6 +8702,7 @@
       </c>
       <c r="F374" s="7" t="n"/>
       <c r="G374" s="8" t="n"/>
+      <c r="S374" s="9" t="n"/>
     </row>
     <row r="375">
       <c r="A375" s="5" t="n">
@@ -8540,7 +8718,7 @@
       </c>
       <c r="F375" s="7" t="n"/>
       <c r="G375" s="8" t="n"/>
-      <c r="S375" t="inlineStr">
+      <c r="S375" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION MOBILE</t>
         </is>
@@ -8571,6 +8749,7 @@
         <f>IF(E376&gt;1,(1.732*D376*F376)/1000,(D376*F376)/1000)</f>
         <v/>
       </c>
+      <c r="S376" s="9" t="n"/>
     </row>
     <row r="377">
       <c r="A377" s="5" t="n">
@@ -8586,7 +8765,7 @@
       </c>
       <c r="F377" s="7" t="n"/>
       <c r="G377" s="8" t="n"/>
-      <c r="S377" t="inlineStr">
+      <c r="S377" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #502</t>
         </is>
@@ -8606,7 +8785,7 @@
       </c>
       <c r="F378" s="7" t="n"/>
       <c r="G378" s="8" t="n"/>
-      <c r="S378" t="inlineStr">
+      <c r="S378" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -8628,6 +8807,7 @@
       </c>
       <c r="F379" s="7" t="n"/>
       <c r="G379" s="8" t="n"/>
+      <c r="S379" s="9" t="n"/>
     </row>
     <row r="380">
       <c r="A380" s="5" t="n">
@@ -8654,6 +8834,7 @@
         <f>IF(E380&gt;1,(1.732*D380*F380)/1000,(D380*F380)/1000)</f>
         <v/>
       </c>
+      <c r="S380" s="9" t="n"/>
     </row>
     <row r="381">
       <c r="A381" s="5" t="n">
@@ -8685,7 +8866,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S381" t="inlineStr">
+      <c r="S381" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH PAN SLIDES PART OF ITEM #502</t>
         </is>
@@ -8705,7 +8886,7 @@
       </c>
       <c r="F382" s="7" t="n"/>
       <c r="G382" s="8" t="n"/>
-      <c r="S382" t="inlineStr">
+      <c r="S382" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION RECESSED PART OF ITEM #502</t>
         </is>
@@ -8727,6 +8908,7 @@
       </c>
       <c r="F383" s="7" t="n"/>
       <c r="G383" s="8" t="n"/>
+      <c r="S383" s="9" t="n"/>
     </row>
     <row r="384">
       <c r="A384" s="5" t="n">
@@ -8744,6 +8926,7 @@
       </c>
       <c r="F384" s="7" t="n"/>
       <c r="G384" s="8" t="n"/>
+      <c r="S384" s="9" t="n"/>
     </row>
     <row r="385">
       <c r="A385" s="5" t="n">
@@ -8759,7 +8942,7 @@
       </c>
       <c r="F385" s="7" t="n"/>
       <c r="G385" s="8" t="n"/>
-      <c r="S385" t="inlineStr">
+      <c r="S385" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #502</t>
         </is>
@@ -8779,7 +8962,7 @@
       </c>
       <c r="F386" s="7" t="n"/>
       <c r="G386" s="8" t="n"/>
-      <c r="S386" t="inlineStr">
+      <c r="S386" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -8817,7 +9000,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S387" t="inlineStr">
+      <c r="S387" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #502</t>
         </is>
@@ -8839,6 +9022,7 @@
       </c>
       <c r="F388" s="7" t="n"/>
       <c r="G388" s="8" t="n"/>
+      <c r="S388" s="9" t="n"/>
     </row>
     <row r="389">
       <c r="A389" s="5" t="inlineStr">
@@ -8858,43 +9042,45 @@
       </c>
       <c r="F389" s="7" t="n"/>
       <c r="G389" s="8" t="n"/>
+      <c r="S389" s="9" t="n"/>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr"/>
     </row>
     <row r="391">
-      <c r="A391" s="9" t="inlineStr">
+      <c r="A391" s="10" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="G391" s="10">
+      <c r="G391" s="11">
         <f>SUM(G7:G390)</f>
         <v/>
       </c>
-      <c r="J391" s="10">
+      <c r="J391" s="11">
         <f>SUM(J7:J390)</f>
         <v/>
       </c>
-      <c r="M391" s="10">
+      <c r="M391" s="11">
         <f>SUM(M7:M390)</f>
         <v/>
       </c>
-      <c r="N391" s="10">
+      <c r="N391" s="11">
         <f>SUM(N7:N390)</f>
         <v/>
       </c>
-      <c r="O391" s="10">
+      <c r="O391" s="11">
         <f>SUM(O7:O390)</f>
         <v/>
       </c>
-      <c r="P391" s="10">
+      <c r="P391" s="11">
         <f>SUM(P7:P390)</f>
         <v/>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" paperSize="3" fitToHeight="0"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>